--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -620,11 +620,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -643,9 +643,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,10 +673,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,36 +686,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,15 +705,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -750,24 +759,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,11 +787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -792,13 +797,8 @@
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,7 +861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +909,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,19 +993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,49 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,37 +1023,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,25 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,16 +1077,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,52 +1121,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,6 +1148,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1172,10 +1178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,134 +1196,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,7 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1425,14 +1431,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,12 +1773,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1901,33 +1911,33 @@
       <c r="AM1" s="33">
         <v>44286</v>
       </c>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:39">
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>264900</v>
+        <v>301900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>94640</v>
+        <v>133120</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>264900</v>
+        <v>301900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>94640</v>
+        <v>133120</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -1943,7 +1953,7 @@
       </c>
       <c r="K2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38480</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
@@ -2102,7 +2112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:10">
+    <row r="5" s="11" customFormat="1" spans="1:11">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2117,16 +2127,19 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H5" s="28">
         <v>2500</v>
       </c>
       <c r="J5" s="11">
+        <v>1040</v>
+      </c>
+      <c r="K5" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2158,7 +2171,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:10">
+    <row r="7" s="11" customFormat="1" spans="1:11">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2173,11 +2186,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2187,6 +2200,9 @@
       </c>
       <c r="J7" s="11">
         <v>4160</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:10">
@@ -2239,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:9">
+    <row r="10" s="11" customFormat="1" spans="1:11">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2254,16 +2270,19 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
+        <v>10400</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
         <v>5200</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="K10" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2364,7 +2383,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="1" spans="1:8">
+    <row r="15" s="11" customFormat="1" spans="1:11">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2379,14 +2398,17 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H15" s="28">
         <v>2000</v>
+      </c>
+      <c r="K15" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="1:8">
@@ -2533,7 +2555,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" spans="1:8">
+    <row r="21" s="11" customFormat="1" spans="1:11">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2545,14 +2567,17 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H21" s="28">
         <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="22" s="11" customFormat="1" spans="1:10">
@@ -2602,7 +2627,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:8">
+    <row r="24" s="11" customFormat="1" spans="1:11">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2614,14 +2639,17 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H24" s="28">
         <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:10">
@@ -2649,7 +2677,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:8">
+    <row r="26" s="11" customFormat="1" spans="1:11">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2661,14 +2689,17 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H26" s="28">
         <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>5200</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:10">
@@ -2784,7 +2815,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:9">
+    <row r="32" s="11" customFormat="1" spans="1:11">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2796,11 +2827,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H32" s="28">
         <v>0</v>
@@ -2808,8 +2839,11 @@
       <c r="I32" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:8">
+      <c r="K32" s="35">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:11">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -2821,17 +2855,20 @@
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H33" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:8">
+      <c r="K33" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:11">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2843,14 +2880,17 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H34" s="28">
         <v>2000</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="35" s="11" customFormat="1" spans="1:8">
@@ -3085,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:9">
+    <row r="45" s="11" customFormat="1" spans="1:11">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3097,16 +3137,19 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="4"/>
+        <v>6240</v>
+      </c>
+      <c r="H45" s="28">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
         <v>3120</v>
       </c>
-      <c r="H45" s="28">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="K45" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3267,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:9">
+    <row r="53" s="11" customFormat="1" spans="1:11">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3279,16 +3322,19 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H53" s="28">
         <v>1000</v>
       </c>
       <c r="I53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="K53" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3433,7 +3479,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="60" s="11" customFormat="1" spans="1:8">
+    <row r="60" s="11" customFormat="1" spans="1:11">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -3445,14 +3491,17 @@
       </c>
       <c r="F60" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H60" s="28">
         <v>0</v>
+      </c>
+      <c r="K60" s="11">
+        <v>5200</v>
       </c>
     </row>
     <row r="61" s="11" customFormat="1" spans="1:8">
@@ -3859,7 +3908,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="78" s="11" customFormat="1" spans="1:8">
+    <row r="78" s="11" customFormat="1" spans="1:11">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -3871,17 +3920,20 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H78" s="28">
         <v>3000</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:8">
+      <c r="K78" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:11">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -3893,14 +3945,17 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H79" s="28">
         <v>2000</v>
+      </c>
+      <c r="K79" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="80" s="11" customFormat="1" spans="1:25">
@@ -4277,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" s="11" customFormat="1" spans="1:8">
+    <row r="94" s="11" customFormat="1" spans="1:11">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -4289,14 +4344,17 @@
       </c>
       <c r="F94" s="10">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G94" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H94" s="28">
         <v>1000</v>
+      </c>
+      <c r="K94" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="95" s="11" customFormat="1" spans="1:8">
@@ -4403,12 +4461,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4555,14 +4613,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>57500</v>
+        <v>105500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>57500</v>
+        <v>105500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4574,7 +4632,7 @@
       </c>
       <c r="K2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
@@ -5025,7 +5083,10 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="K15" s="11">
+        <v>4000</v>
       </c>
       <c r="AB15" s="21"/>
     </row>
@@ -5153,7 +5214,10 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="K20" s="11">
+        <v>5000</v>
       </c>
       <c r="AB20" s="21"/>
     </row>
@@ -5181,7 +5245,10 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="K21" s="11">
+        <v>2000</v>
       </c>
       <c r="AB21" s="21"/>
     </row>
@@ -5315,7 +5382,10 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="K26" s="19">
+        <v>5000</v>
       </c>
       <c r="AB26" s="21"/>
     </row>
@@ -5337,9 +5407,12 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="I27" s="11">
         <v>3000</v>
       </c>
-      <c r="I27" s="11">
+      <c r="K27" s="11">
         <v>3000</v>
       </c>
       <c r="AB27" s="21"/>
@@ -5362,7 +5435,10 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1000</v>
       </c>
       <c r="AB28" s="21"/>
     </row>
@@ -5578,7 +5654,10 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K37" s="19">
+        <v>3000</v>
       </c>
       <c r="AB37" s="21"/>
     </row>
@@ -5857,7 +5936,10 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="K49" s="11">
+        <v>6000</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -5885,7 +5967,10 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="K50" s="19">
+        <v>6000</v>
       </c>
       <c r="AB50" s="21"/>
     </row>
@@ -5910,7 +5995,10 @@
       </c>
       <c r="H51" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="K51" s="11">
+        <v>2000</v>
       </c>
       <c r="AB51" s="21"/>
     </row>
@@ -5954,7 +6042,10 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K53" s="11">
+        <v>3000</v>
       </c>
       <c r="AB53" s="21"/>
     </row>
@@ -6111,7 +6202,10 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="K60" s="11">
+        <v>5000</v>
       </c>
       <c r="AB60" s="21"/>
     </row>
@@ -6397,7 +6491,10 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="K73" s="11">
+        <v>3000</v>
       </c>
       <c r="AB73" s="21"/>
     </row>
@@ -6947,7 +7044,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6983,7 +7080,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>207400</v>
+        <v>196400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7028,7 +7125,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7058,7 +7155,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7103,7 +7200,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7178,7 +7275,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7249,7 +7346,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7309,7 +7406,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7354,7 +7451,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7369,7 +7466,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7429,20 +7526,22 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7">
+        <v>7488143097</v>
+      </c>
       <c r="C33" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7457,7 +7556,7 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7502,7 +7601,7 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7618,7 +7717,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7676,7 +7775,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>9000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7691,7 +7790,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7706,7 +7805,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7734,7 +7833,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8026,7 +8125,7 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8101,7 +8200,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8116,7 +8215,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8307,7 +8406,7 @@
       </c>
       <c r="D94" s="9">
         <f>Orders!F94-Collection!H94</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8333,9 +8432,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="K37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3000-Digital
+3000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+5000-Cash
+5000-Digital</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -643,6 +689,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -652,14 +721,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,17 +779,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,15 +796,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,23 +811,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,61 +834,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,7 +913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,13 +997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,49 +1069,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,49 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,32 +1143,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,17 +1170,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,11 +1202,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,134 +1248,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,6 +1496,10 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1773,12 +1829,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1922,22 +1978,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>301900</v>
+        <v>431900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>133120</v>
+        <v>268320</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>301900</v>
+        <v>431900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>133120</v>
+        <v>268320</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -1957,15 +2013,15 @@
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60320</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
@@ -2068,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:8">
+    <row r="3" s="11" customFormat="1" spans="1:14">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2080,17 +2136,20 @@
       </c>
       <c r="F3" s="10">
         <f t="shared" ref="F2:F18" si="1">G3/1.04+H3</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G3" s="10">
         <f>SUM(I3:AM3)</f>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H3" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:8">
+      <c r="N3" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:12">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2102,17 +2161,20 @@
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H4" s="28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="1" spans="1:11">
+      <c r="L4" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:14">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2127,11 +2189,11 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H5" s="28">
         <v>2500</v>
@@ -2140,6 +2202,9 @@
         <v>1040</v>
       </c>
       <c r="K5" s="11">
+        <v>1040</v>
+      </c>
+      <c r="N5" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2171,7 +2236,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:11">
+    <row r="7" s="11" customFormat="1" spans="1:13">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2186,11 +2251,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>8320</v>
+        <v>12480</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2202,6 +2267,12 @@
         <v>4160</v>
       </c>
       <c r="K7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="M7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2233,7 +2304,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:8">
+    <row r="9" s="11" customFormat="1" spans="1:12">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2245,14 +2316,17 @@
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H9" s="28">
         <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="1:11">
@@ -2311,7 +2385,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" spans="1:8">
+    <row r="12" s="11" customFormat="1" spans="1:13">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2323,17 +2397,20 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H12" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:10">
+      <c r="M12" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:13">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2345,11 +2422,11 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H13" s="28">
         <v>0</v>
@@ -2357,8 +2434,11 @@
       <c r="J13" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:10">
+      <c r="M13" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:12">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2370,16 +2450,19 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H14" s="28">
         <v>5000</v>
       </c>
       <c r="J14" s="11">
+        <v>5200</v>
+      </c>
+      <c r="L14" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2411,7 +2494,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" spans="1:8">
+    <row r="16" s="11" customFormat="1" spans="1:12">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -2423,14 +2506,17 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H16" s="28">
         <v>2000</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:10">
@@ -2508,7 +2594,7 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:8">
+    <row r="19" s="11" customFormat="1" spans="1:14">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2520,14 +2606,17 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H19" s="28">
         <v>1500</v>
+      </c>
+      <c r="N19" s="11">
+        <v>3120</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:10">
@@ -2555,7 +2644,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" spans="1:11">
+    <row r="21" s="11" customFormat="1" spans="1:13">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2567,16 +2656,19 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
+        <v>4160</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
         <v>2080</v>
       </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="M21" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2605,7 +2697,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" spans="1:8">
+    <row r="23" s="11" customFormat="1" spans="1:13">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2617,14 +2709,17 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H23" s="28">
         <v>5000</v>
+      </c>
+      <c r="M23" s="11">
+        <v>5200</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:11">
@@ -2652,7 +2747,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="25" s="11" customFormat="1" spans="1:10">
+    <row r="25" s="11" customFormat="1" spans="1:12">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -2664,16 +2759,19 @@
       </c>
       <c r="F25" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
+        <v>6240</v>
+      </c>
+      <c r="H25" s="28">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>3120</v>
       </c>
-      <c r="H25" s="28">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="L25" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2702,7 +2800,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:10">
+    <row r="27" s="11" customFormat="1" spans="1:13">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2714,11 +2812,11 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H27" s="28">
         <v>3000</v>
@@ -2726,8 +2824,11 @@
       <c r="J27" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:8">
+      <c r="M27" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:12">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -2739,14 +2840,17 @@
       </c>
       <c r="F28" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H28" s="28">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="1:8">
@@ -2771,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:8">
+    <row r="30" s="11" customFormat="1" spans="1:12">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -2783,17 +2887,20 @@
       </c>
       <c r="F30" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H30" s="28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" s="11" customFormat="1" spans="1:8">
+      <c r="L30" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="31" s="11" customFormat="1" spans="1:13">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -2805,17 +2912,20 @@
       </c>
       <c r="F31" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H31" s="28">
         <v>5000</v>
       </c>
-    </row>
-    <row r="32" s="11" customFormat="1" spans="1:11">
+      <c r="M31" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="32" s="11" customFormat="1" spans="1:13">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -2827,11 +2937,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>16640</v>
       </c>
       <c r="H32" s="28">
         <v>0</v>
@@ -2841,6 +2951,12 @@
       </c>
       <c r="K32" s="35">
         <v>1040</v>
+      </c>
+      <c r="L32" s="11">
+        <v>5200</v>
+      </c>
+      <c r="M32" s="11">
+        <v>5200</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="1:11">
@@ -2868,7 +2984,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="11" customFormat="1" spans="1:11">
+    <row r="34" s="11" customFormat="1" spans="1:13">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -2880,11 +2996,11 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H34" s="28">
         <v>2000</v>
@@ -2892,8 +3008,11 @@
       <c r="K34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:8">
+      <c r="M34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:13">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -2905,14 +3024,20 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H35" s="28">
         <v>1000</v>
+      </c>
+      <c r="L35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="1" spans="1:10">
@@ -2940,7 +3065,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:9">
+    <row r="37" s="11" customFormat="1" spans="1:12">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -2952,16 +3077,19 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H37" s="28">
         <v>3000</v>
       </c>
       <c r="I37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="L37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -2987,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:8">
+    <row r="39" s="11" customFormat="1" spans="1:14">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -2999,14 +3127,17 @@
       </c>
       <c r="F39" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H39" s="28">
         <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>3120</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:8">
@@ -3056,7 +3187,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:8">
+    <row r="42" s="11" customFormat="1" spans="1:13">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3068,17 +3199,20 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H42" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:9">
+      <c r="M42" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:14">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3090,16 +3224,22 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>9360</v>
       </c>
       <c r="H43" s="28">
         <v>3000</v>
       </c>
       <c r="I43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="L43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="N43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3153,7 +3293,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="46" s="11" customFormat="1" spans="1:8">
+    <row r="46" s="11" customFormat="1" spans="1:13">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3165,17 +3305,20 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H46" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:8">
+      <c r="M46" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:13">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3187,17 +3330,20 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H47" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" s="11" customFormat="1" spans="1:8">
+      <c r="M47" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:12">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -3209,17 +3355,20 @@
       </c>
       <c r="F48" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H48" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" s="11" customFormat="1" spans="1:10">
+      <c r="L48" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:12">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3231,11 +3380,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H49" s="28">
         <v>6000</v>
@@ -3243,8 +3392,11 @@
       <c r="J49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:8">
+      <c r="L49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:12">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3256,14 +3408,17 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H50" s="28">
         <v>6000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>3120</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:8">
@@ -3310,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:11">
+    <row r="53" s="11" customFormat="1" spans="1:14">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3322,11 +3477,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H53" s="28">
         <v>1000</v>
@@ -3335,6 +3490,9 @@
         <v>1040</v>
       </c>
       <c r="K53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="N53" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3383,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:9">
+    <row r="56" s="11" customFormat="1" spans="1:14">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -3396,16 +3554,19 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="4"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H56" s="28">
         <v>1000</v>
       </c>
       <c r="I56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="N56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3432,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:8">
+    <row r="58" s="11" customFormat="1" spans="1:13">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -3444,14 +3605,20 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H58" s="28">
         <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>2080</v>
+      </c>
+      <c r="M58" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="59" s="11" customFormat="1" spans="1:10">
@@ -3600,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:9">
+    <row r="65" s="11" customFormat="1" spans="1:13">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -3615,20 +3782,23 @@
       </c>
       <c r="F65" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H65" s="22">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="I65" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="66" s="11" customFormat="1" spans="1:8">
+      <c r="M65" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:13">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -3641,14 +3811,17 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H66" s="28">
         <v>7000</v>
+      </c>
+      <c r="M66" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="67" s="11" customFormat="1" spans="1:8">
@@ -3674,7 +3847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" s="11" customFormat="1" spans="1:8">
+    <row r="68" s="11" customFormat="1" spans="1:12">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -3686,17 +3859,20 @@
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" ref="G68:G96" si="5">SUM(I68:AM68)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H68" s="28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="69" s="11" customFormat="1" spans="1:8">
+      <c r="L68" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:13">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -3708,17 +3884,20 @@
       </c>
       <c r="F69" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H69" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" s="11" customFormat="1" spans="1:8">
+      <c r="M69" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="70" s="11" customFormat="1" spans="1:14">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -3730,17 +3909,20 @@
       </c>
       <c r="F70" s="10">
         <f t="shared" si="3"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H70" s="28">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="1" spans="1:8">
+      <c r="N70" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" spans="1:13">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -3752,17 +3934,20 @@
       </c>
       <c r="F71" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H71" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:9">
+      <c r="M71" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:12">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -3774,11 +3959,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H72" s="28">
         <v>0</v>
@@ -3786,8 +3971,11 @@
       <c r="I72" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:10">
+      <c r="L72" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:13">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -3799,11 +3987,11 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H73" s="28">
         <v>3000</v>
@@ -3811,8 +3999,11 @@
       <c r="J73" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:8">
+      <c r="M73" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:12">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -3825,14 +4016,17 @@
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H74" s="28">
         <v>1000</v>
+      </c>
+      <c r="L74" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="75" s="11" customFormat="1" spans="1:8">
@@ -3908,7 +4102,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="78" s="11" customFormat="1" spans="1:11">
+    <row r="78" s="11" customFormat="1" spans="1:14">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -3920,11 +4114,11 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H78" s="28">
         <v>3000</v>
@@ -3932,8 +4126,11 @@
       <c r="K78" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:11">
+      <c r="N78" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:12">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -3945,16 +4142,19 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H79" s="28">
         <v>2000</v>
       </c>
       <c r="K79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="L79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3994,7 +4194,7 @@
       <c r="X80" s="34"/>
       <c r="Y80" s="34"/>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:8">
+    <row r="81" s="11" customFormat="1" spans="1:12">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -4007,14 +4207,17 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H81" s="28">
         <v>2000</v>
+      </c>
+      <c r="L81" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="82" s="11" customFormat="1" spans="1:8">
@@ -4037,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" s="11" customFormat="1" spans="1:8">
+    <row r="83" s="11" customFormat="1" spans="1:13">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -4050,14 +4253,17 @@
       </c>
       <c r="F83" s="10">
         <f t="shared" ref="F83:F96" si="6">G83/1.04+H83</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H83" s="28">
         <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="84" s="11" customFormat="1" spans="1:20">
@@ -4092,7 +4298,7 @@
       <c r="S84" s="34"/>
       <c r="T84" s="34"/>
     </row>
-    <row r="85" s="11" customFormat="1" spans="1:9">
+    <row r="85" s="11" customFormat="1" spans="1:13">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -4105,16 +4311,19 @@
       </c>
       <c r="F85" s="10">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G85" s="10">
         <f t="shared" si="5"/>
+        <v>10400</v>
+      </c>
+      <c r="H85" s="28">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
         <v>5200</v>
       </c>
-      <c r="H85" s="28">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
+      <c r="M85" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4237,11 +4446,11 @@
       </c>
       <c r="F90" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G90" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H90" s="28">
         <v>0</v>
@@ -4250,7 +4459,9 @@
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
+      <c r="M90" s="37">
+        <v>1040</v>
+      </c>
       <c r="N90" s="34"/>
       <c r="O90" s="34"/>
       <c r="P90" s="34"/>
@@ -4461,12 +4672,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4613,14 +4824,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>105500</v>
+        <v>209500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>105500</v>
+        <v>209500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4632,15 +4843,15 @@
       </c>
       <c r="K2" s="10">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>51000</v>
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68000</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
@@ -4821,13 +5032,16 @@
       </c>
       <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="I5" s="11">
         <v>2000</v>
       </c>
       <c r="J5" s="11">
         <v>1000</v>
+      </c>
+      <c r="L5" s="11">
+        <v>500</v>
       </c>
       <c r="AB5" s="21"/>
     </row>
@@ -4855,7 +5069,10 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3000</v>
       </c>
       <c r="AB6" s="21"/>
     </row>
@@ -4883,7 +5100,10 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2000</v>
       </c>
       <c r="AB7" s="21"/>
     </row>
@@ -5055,10 +5275,16 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
+      </c>
+      <c r="L14" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="11">
+        <v>2500</v>
       </c>
       <c r="AB14" s="21"/>
     </row>
@@ -5214,9 +5440,12 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="K20" s="11">
         <v>5000</v>
       </c>
-      <c r="K20" s="11">
+      <c r="M20" s="19">
         <v>5000</v>
       </c>
       <c r="AB20" s="21"/>
@@ -5270,9 +5499,12 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I22" s="11">
         <v>1000</v>
       </c>
-      <c r="I22" s="11">
+      <c r="M22" s="11">
         <v>1000</v>
       </c>
       <c r="AB22" s="21"/>
@@ -5323,7 +5555,10 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1000</v>
       </c>
       <c r="AB24" s="21"/>
     </row>
@@ -5351,9 +5586,12 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="J25" s="19">
         <v>3000</v>
       </c>
-      <c r="J25" s="19">
+      <c r="M25" s="11">
         <v>3000</v>
       </c>
       <c r="AB25" s="21"/>
@@ -5435,9 +5673,12 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="K28" s="11">
         <v>1000</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <v>1000</v>
       </c>
       <c r="AB28" s="21"/>
@@ -5482,13 +5723,16 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="I30" s="11">
         <v>1000</v>
       </c>
       <c r="J30" s="11">
         <v>1000</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2000</v>
       </c>
       <c r="AB30" s="21"/>
     </row>
@@ -5541,7 +5785,10 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="L32" s="19">
+        <v>6000</v>
       </c>
       <c r="AB32" s="21"/>
     </row>
@@ -5560,7 +5807,13 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="L33" s="11">
+        <v>500</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1000</v>
       </c>
       <c r="AB33" s="21"/>
     </row>
@@ -5585,10 +5838,13 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="11">
         <v>2000</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1000</v>
       </c>
       <c r="AB34" s="21"/>
     </row>
@@ -5607,9 +5863,12 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I35" s="11">
         <v>1000</v>
       </c>
-      <c r="I35" s="11">
+      <c r="M35" s="11">
         <v>1000</v>
       </c>
       <c r="AB35" s="21"/>
@@ -5654,10 +5913,10 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K37" s="19">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="AB37" s="21"/>
     </row>
@@ -5770,7 +6029,10 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="M42" s="11">
+        <v>2000</v>
       </c>
       <c r="AB42" s="21"/>
     </row>
@@ -5792,12 +6054,15 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I43" s="11">
         <v>3000</v>
       </c>
       <c r="J43" s="11">
+        <v>3000</v>
+      </c>
+      <c r="M43" s="11">
         <v>3000</v>
       </c>
       <c r="AB43" s="21"/>
@@ -5836,9 +6101,12 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="J45" s="11">
         <v>3000</v>
       </c>
-      <c r="J45" s="11">
+      <c r="M45" s="11">
         <v>3000</v>
       </c>
       <c r="AB45" s="21"/>
@@ -5864,7 +6132,10 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="M46" s="19">
+        <v>3000</v>
       </c>
       <c r="AB46" s="21"/>
     </row>
@@ -5883,7 +6154,10 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="M47" s="11">
+        <v>3000</v>
       </c>
       <c r="AB47" s="21"/>
     </row>
@@ -5908,7 +6182,10 @@
       </c>
       <c r="H48" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="M48" s="19">
+        <v>2000</v>
       </c>
       <c r="AB48" s="21"/>
     </row>
@@ -5936,10 +6213,13 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="K49" s="11">
         <v>6000</v>
+      </c>
+      <c r="M49" s="11">
+        <v>2500</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -5967,10 +6247,13 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K50" s="19">
         <v>6000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>3000</v>
       </c>
       <c r="AB50" s="21"/>
     </row>
@@ -6064,7 +6347,10 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="M54" s="19">
+        <v>2000</v>
       </c>
       <c r="AB54" s="21"/>
     </row>
@@ -6396,7 +6682,10 @@
       </c>
       <c r="H68" s="10">
         <f t="shared" ref="H68:H99" si="4">SUM(I68:AM68)</f>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="M68" s="11">
+        <v>6000</v>
       </c>
       <c r="AB68" s="21"/>
     </row>
@@ -6415,7 +6704,10 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="M69" s="11">
+        <v>2000</v>
       </c>
       <c r="AB69" s="21"/>
     </row>
@@ -6453,7 +6745,10 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="M71" s="11">
+        <v>1000</v>
       </c>
       <c r="AB71" s="21"/>
     </row>
@@ -6472,7 +6767,10 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="M72" s="19">
+        <v>10000</v>
       </c>
       <c r="AB72" s="21"/>
     </row>
@@ -6491,9 +6789,12 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="K73" s="11">
         <v>3000</v>
       </c>
-      <c r="K73" s="11">
+      <c r="L73" s="11">
         <v>3000</v>
       </c>
       <c r="AB73" s="21"/>
@@ -6591,7 +6892,10 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="L77" s="11">
+        <v>2000</v>
       </c>
       <c r="AB77" s="21"/>
     </row>
@@ -6644,7 +6948,10 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="L79" s="11">
+        <v>3000</v>
       </c>
       <c r="AB79" s="21"/>
     </row>
@@ -6688,7 +6995,10 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="L81" s="19">
+        <v>2000</v>
       </c>
       <c r="AB81" s="21"/>
     </row>
@@ -6764,7 +7074,10 @@
       </c>
       <c r="H85" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="M85" s="19">
+        <v>10000</v>
       </c>
       <c r="AB85" s="21"/>
     </row>
@@ -6874,7 +7187,10 @@
       </c>
       <c r="H90" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="M90" s="19">
+        <v>1000</v>
       </c>
       <c r="AB90" s="21"/>
     </row>
@@ -6947,7 +7263,10 @@
       </c>
       <c r="H94" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="L94" s="11">
+        <v>2000</v>
       </c>
       <c r="AB94" s="21"/>
     </row>
@@ -7044,7 +7363,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D87" sqref="A1:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7080,7 +7399,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>196400</v>
+        <v>222400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7095,7 +7414,7 @@
       </c>
       <c r="D3" s="9">
         <f>Orders!F3-Collection!H3</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7110,7 +7429,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7125,7 +7444,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7140,7 +7459,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7155,7 +7474,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>20000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7185,7 +7504,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7230,7 +7549,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7245,7 +7564,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7260,7 +7579,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7290,7 +7609,7 @@
       </c>
       <c r="D16" s="9">
         <f>Orders!F16-Collection!H16</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7331,7 +7650,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7346,7 +7665,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7361,7 +7680,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7376,7 +7695,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7391,7 +7710,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7406,7 +7725,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7451,7 +7770,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7511,7 +7830,7 @@
       </c>
       <c r="D31" s="9">
         <f>Orders!F31-Collection!H31</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7526,7 +7845,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7541,7 +7860,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7571,7 +7890,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7629,7 +7948,7 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7689,7 +8008,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -7717,7 +8036,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7775,7 +8094,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7833,7 +8152,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7848,7 +8167,7 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7876,7 +8195,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7906,7 +8225,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8009,7 +8328,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>-1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8024,7 +8343,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8054,7 +8373,7 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8080,7 +8399,7 @@
       </c>
       <c r="D70" s="9">
         <f>Orders!F70-Collection!H70</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -8110,7 +8429,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8140,7 +8459,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8185,7 +8504,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>3300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8200,7 +8519,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8215,7 +8534,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8241,7 +8560,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8267,7 +8586,7 @@
       </c>
       <c r="D83" s="9">
         <f>Orders!F83-Collection!H83</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -8293,7 +8612,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8406,7 +8725,7 @@
       </c>
       <c r="D94" s="9">
         <f>Orders!F94-Collection!H94</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -8432,6 +8751,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D96">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J7" authorId="0">
       <text>
         <r>
@@ -57,6 +80,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+5000-Cash
+5000-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I14" authorId="0">
       <text>
         <r>
@@ -131,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="178">
   <si>
     <t>S.No.</t>
   </si>
@@ -568,6 +614,9 @@
     <t>Shantnu Kr.</t>
   </si>
   <si>
+    <t>Munna Kr.(PNB)</t>
+  </si>
+  <si>
     <t>Nitish Kr.</t>
   </si>
   <si>
@@ -623,6 +672,9 @@
   </si>
   <si>
     <t>Munna Kr.</t>
+  </si>
+  <si>
+    <t>Munna Kr.(UCO)</t>
   </si>
   <si>
     <t>D.K.</t>
@@ -667,10 +719,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -689,9 +741,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,15 +803,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,67 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,32 +871,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,13 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,13 +995,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,73 +1091,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,43 +1127,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,11 +1195,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,21 +1267,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1201,42 +1277,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,130 +1300,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1433,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1483,7 +1535,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1494,7 +1546,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1829,12 +1881,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J56" sqref="J56"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1978,22 +2030,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>431900</v>
+        <v>469900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>268320</v>
+        <v>307840</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>431900</v>
+        <v>469900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>268320</v>
+        <v>307840</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -2021,11 +2073,11 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>20800</v>
+        <v>41600</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
@@ -2189,11 +2241,11 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H5" s="28">
         <v>2500</v>
@@ -2205,10 +2257,10 @@
         <v>1040</v>
       </c>
       <c r="N5" s="11">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:15">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2223,11 +2275,11 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H6" s="28">
         <v>0</v>
@@ -2235,8 +2287,11 @@
       <c r="J6" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:13">
+      <c r="O6" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:15">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2251,11 +2306,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>12480</v>
+        <v>16640</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2273,6 +2328,12 @@
         <v>2080</v>
       </c>
       <c r="M7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="O7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2672,7 +2733,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" spans="1:10">
+    <row r="22" s="11" customFormat="1" spans="1:15">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2684,16 +2745,19 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H22" s="28">
         <v>1000</v>
       </c>
       <c r="J22" s="11">
+        <v>1040</v>
+      </c>
+      <c r="O22" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2775,7 +2839,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:11">
+    <row r="26" s="11" customFormat="1" spans="1:14">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2787,16 +2851,19 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
+        <v>10400</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
         <v>5200</v>
       </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="N26" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3165,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:8">
+    <row r="41" s="11" customFormat="1" spans="1:15">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -3177,14 +3244,17 @@
       </c>
       <c r="F41" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H41" s="28">
         <v>2000</v>
+      </c>
+      <c r="O41" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:13">
@@ -3265,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="1" spans="1:11">
+    <row r="45" s="11" customFormat="1" spans="1:14">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3277,11 +3347,11 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H45" s="28">
         <v>0</v>
@@ -3290,6 +3360,9 @@
         <v>3120</v>
       </c>
       <c r="K45" s="11">
+        <v>3120</v>
+      </c>
+      <c r="N45" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3368,7 +3441,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:12">
+    <row r="49" s="11" customFormat="1" spans="1:14">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3380,11 +3453,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H49" s="28">
         <v>6000</v>
@@ -3393,6 +3466,9 @@
         <v>3120</v>
       </c>
       <c r="L49" s="11">
+        <v>3120</v>
+      </c>
+      <c r="N49" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3465,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:14">
+    <row r="53" s="11" customFormat="1" spans="1:15">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3477,11 +3553,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H53" s="28">
         <v>1000</v>
@@ -3495,8 +3571,11 @@
       <c r="N53" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:8">
+      <c r="O53" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:15">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -3508,14 +3587,17 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H54" s="28">
         <v>2000</v>
+      </c>
+      <c r="O54" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:8">
@@ -3693,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:9">
+    <row r="62" s="11" customFormat="1" spans="1:14">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -3706,16 +3788,19 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="4"/>
+        <v>10400</v>
+      </c>
+      <c r="H62" s="28">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
         <v>5200</v>
       </c>
-      <c r="H62" s="28">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3947,7 +4032,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:12">
+    <row r="72" s="11" customFormat="1" spans="1:15">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -3959,11 +4044,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H72" s="28">
         <v>0</v>
@@ -3972,6 +4057,9 @@
         <v>5200</v>
       </c>
       <c r="L72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="O72" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4194,7 +4282,7 @@
       <c r="X80" s="34"/>
       <c r="Y80" s="34"/>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:12">
+    <row r="81" s="11" customFormat="1" spans="1:14">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -4207,16 +4295,19 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H81" s="28">
         <v>2000</v>
       </c>
       <c r="L81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="N81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4673,11 +4764,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4824,14 +4915,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>209500</v>
+        <v>282000</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>209500</v>
+        <v>282000</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4855,7 +4946,7 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
@@ -5032,7 +5123,7 @@
       </c>
       <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="I5" s="11">
         <v>2000</v>
@@ -5042,6 +5133,9 @@
       </c>
       <c r="L5" s="11">
         <v>500</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1000</v>
       </c>
       <c r="AB5" s="21"/>
     </row>
@@ -5069,10 +5163,13 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L6" s="19">
         <v>3000</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2000</v>
       </c>
       <c r="AB6" s="21"/>
     </row>
@@ -5100,10 +5197,13 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="L7" s="19">
         <v>2000</v>
+      </c>
+      <c r="N7" s="19">
+        <v>13000</v>
       </c>
       <c r="AB7" s="21"/>
     </row>
@@ -5150,7 +5250,10 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="N9" s="11">
+        <v>2000</v>
       </c>
       <c r="AB9" s="21"/>
     </row>
@@ -5172,9 +5275,12 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="I10" s="11">
         <v>5000</v>
       </c>
-      <c r="I10" s="11">
+      <c r="N10" s="11">
         <v>5000</v>
       </c>
       <c r="AB10" s="21"/>
@@ -5247,7 +5353,10 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="N13" s="19">
+        <v>10000</v>
       </c>
       <c r="AB13" s="21"/>
     </row>
@@ -5409,10 +5518,13 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="I19" s="11">
         <v>1500</v>
+      </c>
+      <c r="N19" s="19">
+        <v>3000</v>
       </c>
       <c r="AB19" s="21"/>
     </row>
@@ -5474,9 +5586,12 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="K21" s="11">
         <v>2000</v>
       </c>
-      <c r="K21" s="11">
+      <c r="N21" s="11">
         <v>2000</v>
       </c>
       <c r="AB21" s="21"/>
@@ -5662,6 +5777,9 @@
       <c r="C28" s="11">
         <v>26</v>
       </c>
+      <c r="D28" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="E28" s="11">
         <v>9973040600</v>
       </c>
@@ -5673,12 +5791,15 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K28" s="11">
         <v>1000</v>
       </c>
       <c r="L28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="19">
         <v>1000</v>
       </c>
       <c r="AB28" s="21"/>
@@ -5741,13 +5862,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -5757,9 +5878,12 @@
       </c>
       <c r="H31" s="10">
         <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="I31" s="11">
         <v>5000</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>5000</v>
       </c>
       <c r="AB31" s="21"/>
@@ -5769,13 +5893,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -5785,10 +5909,13 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L32" s="19">
         <v>6000</v>
+      </c>
+      <c r="N32" s="11">
+        <v>5000</v>
       </c>
       <c r="AB32" s="21"/>
     </row>
@@ -5807,13 +5934,16 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L33" s="11">
         <v>500</v>
       </c>
       <c r="M33" s="11">
         <v>1000</v>
+      </c>
+      <c r="N33" s="11">
+        <v>500</v>
       </c>
       <c r="AB33" s="21"/>
     </row>
@@ -5822,13 +5952,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -5944,13 +6074,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -5969,16 +6099,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -6116,13 +6246,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -6166,13 +6296,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>64</v>
@@ -6194,13 +6324,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -6228,13 +6358,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -6262,13 +6392,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -6309,13 +6439,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -6359,13 +6489,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -6384,13 +6514,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -6453,13 +6583,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -6519,13 +6649,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -6538,7 +6668,10 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="N62" s="11">
+        <v>10000</v>
       </c>
       <c r="AB62" s="21"/>
     </row>
@@ -6569,16 +6702,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -6597,13 +6730,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -6616,9 +6749,12 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="J65" s="19">
         <v>2000</v>
       </c>
-      <c r="J65" s="19">
+      <c r="N65" s="19">
         <v>2000</v>
       </c>
       <c r="AB65" s="21"/>
@@ -6628,13 +6764,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>87</v>
@@ -6644,7 +6780,10 @@
       </c>
       <c r="H66" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="N66" s="19">
+        <v>3000</v>
       </c>
       <c r="AB66" s="21"/>
     </row>
@@ -6804,13 +6943,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
@@ -6873,13 +7012,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
@@ -6904,13 +7043,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>102</v>
@@ -6920,10 +7059,13 @@
       </c>
       <c r="H78" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="I78" s="19">
         <v>3000</v>
+      </c>
+      <c r="N78" s="19">
+        <v>5000</v>
       </c>
       <c r="AB78" s="21"/>
     </row>
@@ -6932,13 +7074,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>102</v>
@@ -6948,9 +7090,12 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="L79" s="11">
         <v>3000</v>
       </c>
-      <c r="L79" s="11">
+      <c r="N79" s="11">
         <v>3000</v>
       </c>
       <c r="AB79" s="21"/>
@@ -6976,16 +7121,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>107</v>
@@ -7058,13 +7203,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>113</v>
@@ -7111,13 +7256,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E87" s="11">
         <v>7004210181</v>
@@ -7174,13 +7319,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>120</v>
@@ -7221,7 +7366,7 @@
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>122</v>
@@ -7362,7 +7507,7 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D87" sqref="A1:D87"/>
     </sheetView>
   </sheetViews>
@@ -7388,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7399,7 +7544,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>222400</v>
+        <v>187900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7459,7 +7604,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7474,7 +7619,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>22000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7504,7 +7649,7 @@
       </c>
       <c r="D9" s="9">
         <f>Orders!F9-Collection!H9</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7519,7 +7664,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7564,7 +7709,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7650,7 +7795,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7680,7 +7825,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7695,7 +7840,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7755,7 +7900,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7785,7 +7930,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7830,7 +7975,7 @@
       </c>
       <c r="D31" s="9">
         <f>Orders!F31-Collection!H31</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7845,7 +7990,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7860,7 +8005,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7978,7 +8123,7 @@
       </c>
       <c r="D41" s="9">
         <f>Orders!F41-Collection!H41</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8036,7 +8181,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8094,7 +8239,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>3500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8152,7 +8297,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8167,7 +8312,7 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8283,7 +8428,7 @@
       </c>
       <c r="D62" s="9">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -8328,7 +8473,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -8343,7 +8488,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8429,7 +8574,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8519,7 +8664,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8534,7 +8679,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8560,7 +8705,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:4">

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -70,6 +70,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="O22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -126,6 +149,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="O35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+800-Cash
+200-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K37" authorId="0">
       <text>
         <r>
@@ -719,10 +765,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -750,12 +796,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -763,19 +825,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -787,9 +840,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,8 +863,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,31 +902,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,23 +924,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +1017,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,175 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,45 +1227,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1236,9 +1243,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,19 +1285,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,13 +1328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1303,127 +1349,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1535,7 +1581,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1546,7 +1592,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1882,11 +1928,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2030,22 +2076,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>469900</v>
+        <v>513900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>307840</v>
+        <v>353600</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>469900</v>
+        <v>513900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>307840</v>
+        <v>353600</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -2077,11 +2123,11 @@
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>18720</v>
+        <v>45760</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18720</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
@@ -2291,7 +2337,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:15">
+    <row r="7" s="11" customFormat="1" spans="1:16">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2306,11 +2352,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>16640</v>
+        <v>18720</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2336,8 +2382,11 @@
       <c r="O7" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:10">
+      <c r="P7" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:15">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2352,16 +2401,19 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
+        <v>4160</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>2080</v>
       </c>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="O8" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2390,7 +2442,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:11">
+    <row r="10" s="11" customFormat="1" spans="1:15">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2405,11 +2457,11 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="28">
         <v>0</v>
@@ -2418,6 +2470,9 @@
         <v>5200</v>
       </c>
       <c r="K10" s="11">
+        <v>5200</v>
+      </c>
+      <c r="O10" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2499,7 +2554,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" spans="1:12">
+    <row r="14" s="11" customFormat="1" spans="1:15">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2511,11 +2566,11 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="28">
         <v>5000</v>
@@ -2526,8 +2581,11 @@
       <c r="L14" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:11">
+      <c r="O14" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:15">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2542,16 +2600,19 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H15" s="28">
         <v>2000</v>
       </c>
       <c r="K15" s="11">
+        <v>2080</v>
+      </c>
+      <c r="O15" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2680,7 +2741,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" spans="1:10">
+    <row r="20" s="11" customFormat="1" spans="1:16">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2692,16 +2753,19 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H20" s="28">
         <v>5000</v>
       </c>
       <c r="J20" s="11">
+        <v>5200</v>
+      </c>
+      <c r="P20" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2745,11 +2809,11 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H22" s="28">
         <v>1000</v>
@@ -2758,7 +2822,7 @@
         <v>1040</v>
       </c>
       <c r="O22" s="11">
-        <v>1040</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:13">
@@ -2786,7 +2850,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:11">
+    <row r="24" s="11" customFormat="1" spans="1:15">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2798,16 +2862,19 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
+        <v>2080</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
         <v>1040</v>
       </c>
-      <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="O24" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2920,7 +2987,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="29" s="11" customFormat="1" spans="1:8">
+    <row r="29" s="11" customFormat="1" spans="1:16">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -2932,14 +2999,17 @@
       </c>
       <c r="F29" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H29" s="28">
         <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="30" s="11" customFormat="1" spans="1:12">
@@ -3282,7 +3352,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:14">
+    <row r="43" s="11" customFormat="1" spans="1:15">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3294,11 +3364,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="4"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H43" s="28">
         <v>3000</v>
@@ -3310,6 +3380,9 @@
         <v>3120</v>
       </c>
       <c r="N43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="O43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3441,7 +3514,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="11" customFormat="1" spans="1:14">
+    <row r="49" s="11" customFormat="1" spans="1:16">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3453,11 +3526,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="4"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H49" s="28">
         <v>6000</v>
@@ -3471,8 +3544,11 @@
       <c r="N49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:12">
+      <c r="P49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:16">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3484,16 +3560,19 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H50" s="28">
         <v>6000</v>
       </c>
       <c r="L50" s="11">
+        <v>3120</v>
+      </c>
+      <c r="P50" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3541,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:15">
+    <row r="53" s="11" customFormat="1" spans="1:16">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3553,11 +3632,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H53" s="28">
         <v>1000</v>
@@ -3572,6 +3651,9 @@
         <v>1040</v>
       </c>
       <c r="O53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="P53" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3883,7 +3965,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="66" s="11" customFormat="1" spans="1:13">
+    <row r="66" s="11" customFormat="1" spans="1:15">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -3896,16 +3978,19 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H66" s="28">
         <v>7000</v>
       </c>
       <c r="M66" s="11">
+        <v>2080</v>
+      </c>
+      <c r="O66" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3932,7 +4017,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" s="11" customFormat="1" spans="1:12">
+    <row r="68" s="11" customFormat="1" spans="1:15">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -3944,16 +4029,19 @@
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" ref="G68:G96" si="5">SUM(I68:AM68)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H68" s="28">
         <v>2000</v>
       </c>
       <c r="L68" s="11">
+        <v>2080</v>
+      </c>
+      <c r="O68" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4091,7 +4179,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="74" s="11" customFormat="1" spans="1:12">
+    <row r="74" s="11" customFormat="1" spans="1:15">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -4104,16 +4192,19 @@
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H74" s="28">
         <v>1000</v>
       </c>
       <c r="L74" s="11">
+        <v>2080</v>
+      </c>
+      <c r="O74" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4165,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:9">
+    <row r="77" s="11" customFormat="1" spans="1:15">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -4177,16 +4268,19 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H77" s="28">
         <v>2300</v>
       </c>
       <c r="I77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="O77" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4218,7 +4312,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="79" s="11" customFormat="1" spans="1:12">
+    <row r="79" s="11" customFormat="1" spans="1:16">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -4230,11 +4324,11 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H79" s="28">
         <v>2000</v>
@@ -4243,6 +4337,9 @@
         <v>2080</v>
       </c>
       <c r="L79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="P79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4764,11 +4861,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4915,14 +5012,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>282000</v>
+        <v>324200</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>282000</v>
+        <v>324200</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -4950,7 +5047,7 @@
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42200</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
@@ -5073,7 +5170,10 @@
       </c>
       <c r="H3" s="10">
         <f>SUM(I3:AM3)</f>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="O3" s="19">
+        <v>3000</v>
       </c>
       <c r="AB3" s="21"/>
     </row>
@@ -5331,7 +5431,10 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="O12" s="11">
+        <v>600</v>
       </c>
       <c r="AB12" s="21"/>
     </row>
@@ -5384,7 +5487,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="2"/>
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
@@ -5393,6 +5496,9 @@
         <v>5000</v>
       </c>
       <c r="M14" s="11">
+        <v>2500</v>
+      </c>
+      <c r="O14" s="11">
         <v>2500</v>
       </c>
       <c r="AB14" s="21"/>
@@ -5648,7 +5754,10 @@
       </c>
       <c r="H23" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="O23" s="19">
+        <v>10000</v>
       </c>
       <c r="AB23" s="21"/>
     </row>
@@ -5735,9 +5844,12 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="K26" s="19">
         <v>5000</v>
       </c>
-      <c r="K26" s="19">
+      <c r="O26" s="19">
         <v>5000</v>
       </c>
       <c r="AB26" s="21"/>
@@ -5993,12 +6105,15 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="11">
         <v>1000</v>
       </c>
       <c r="M35" s="11">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="19">
         <v>1000</v>
       </c>
       <c r="AB35" s="21"/>
@@ -6231,12 +6346,15 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="J45" s="11">
         <v>3000</v>
       </c>
       <c r="M45" s="11">
+        <v>3000</v>
+      </c>
+      <c r="O45" s="11">
         <v>3000</v>
       </c>
       <c r="AB45" s="21"/>
@@ -6599,7 +6717,10 @@
       </c>
       <c r="H59" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="O59" s="19">
+        <v>10000</v>
       </c>
       <c r="AB59" s="21"/>
     </row>
@@ -6928,12 +7049,15 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="K73" s="11">
         <v>3000</v>
       </c>
       <c r="L73" s="11">
+        <v>3000</v>
+      </c>
+      <c r="O73" s="11">
         <v>3000</v>
       </c>
       <c r="AB73" s="21"/>
@@ -6962,7 +7086,10 @@
       </c>
       <c r="H74" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="O74" s="11">
+        <v>3000</v>
       </c>
       <c r="AB74" s="21"/>
     </row>
@@ -7031,10 +7158,13 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="L77" s="11">
         <v>2000</v>
+      </c>
+      <c r="O77" s="11">
+        <v>1100</v>
       </c>
       <c r="AB77" s="21"/>
     </row>
@@ -7508,7 +7638,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D87" sqref="A1:D87"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7544,7 +7674,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>187900</v>
+        <v>189700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7559,7 +7689,7 @@
       </c>
       <c r="D3" s="9">
         <f>Orders!F3-Collection!H3</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7619,7 +7749,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>13000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7634,7 +7764,7 @@
       </c>
       <c r="D8" s="9">
         <f>Orders!F8-Collection!H8</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7664,7 +7794,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7694,7 +7824,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7724,7 +7854,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7739,7 +7869,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7810,7 +7940,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7840,7 +7970,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7855,7 +7985,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7870,7 +8000,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7900,7 +8030,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7945,7 +8075,7 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8035,7 +8165,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8153,7 +8283,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8181,7 +8311,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8239,7 +8369,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>6500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8254,7 +8384,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8297,7 +8427,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8385,7 +8515,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8488,7 +8618,7 @@
       </c>
       <c r="D66" s="9">
         <f>Orders!F66-Collection!H66</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -8518,7 +8648,7 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -8589,7 +8719,7 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8604,7 +8734,7 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -8649,7 +8779,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8679,7 +8809,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="80" spans="1:4">

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -764,11 +764,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -787,9 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +796,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,38 +855,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,9 +887,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,33 +904,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,14 +918,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +1017,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,55 +1077,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,31 +1137,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,13 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,37 +1179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,21 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1248,21 +1233,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,6 +1261,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1306,11 +1300,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,134 +1346,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1594,10 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,11 +1932,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2076,22 +2080,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>513900</v>
+        <v>572400</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>353600</v>
+        <v>414440</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>513900</v>
+        <v>572400</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>353600</v>
+        <v>414440</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -2127,11 +2131,11 @@
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>18720</v>
+        <v>46280</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33280</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
@@ -2247,7 +2251,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" spans="1:12">
+    <row r="4" s="11" customFormat="1" spans="1:16">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2259,11 +2263,11 @@
       </c>
       <c r="F4" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H4" s="28">
         <v>1000</v>
@@ -2271,8 +2275,11 @@
       <c r="L4" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="1" spans="1:14">
+      <c r="P4" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:16">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2287,11 +2294,11 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H5" s="28">
         <v>2500</v>
@@ -2304,6 +2311,9 @@
       </c>
       <c r="N5" s="11">
         <v>2080</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1040</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:15">
@@ -2337,7 +2347,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="11" customFormat="1" spans="1:16">
+    <row r="7" s="11" customFormat="1" spans="1:17">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2352,11 +2362,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2383,6 +2393,9 @@
         <v>2080</v>
       </c>
       <c r="P7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Q7" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2797,7 +2810,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" spans="1:15">
+    <row r="22" s="11" customFormat="1" spans="1:16">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2809,11 +2822,11 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="28">
         <v>1000</v>
@@ -2824,8 +2837,11 @@
       <c r="O22" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:13">
+      <c r="P22" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="1" spans="1:17">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2837,16 +2853,19 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H23" s="28">
         <v>5000</v>
       </c>
       <c r="M23" s="11">
+        <v>5200</v>
+      </c>
+      <c r="Q23" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -2906,7 +2925,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:14">
+    <row r="26" s="11" customFormat="1" spans="1:17">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2918,11 +2937,11 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H26" s="28">
         <v>0</v>
@@ -2931,6 +2950,9 @@
         <v>5200</v>
       </c>
       <c r="N26" s="11">
+        <v>5200</v>
+      </c>
+      <c r="Q26" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3012,7 +3034,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:12">
+    <row r="30" s="11" customFormat="1" spans="1:17">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -3024,16 +3046,19 @@
       </c>
       <c r="F30" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H30" s="28">
         <v>2000</v>
       </c>
       <c r="L30" s="11">
+        <v>2080</v>
+      </c>
+      <c r="Q30" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3062,7 +3087,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:13">
+    <row r="32" s="11" customFormat="1" spans="1:16">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3074,11 +3099,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>16640</v>
+        <v>21840</v>
       </c>
       <c r="H32" s="28">
         <v>0</v>
@@ -3095,8 +3120,11 @@
       <c r="M32" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:11">
+      <c r="P32" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:17">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -3108,11 +3136,11 @@
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H33" s="28">
         <v>0</v>
@@ -3120,8 +3148,11 @@
       <c r="K33" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:13">
+      <c r="Q33" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:16">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3133,11 +3164,11 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H34" s="28">
         <v>2000</v>
@@ -3148,8 +3179,11 @@
       <c r="M34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:13">
+      <c r="P34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:16">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -3161,11 +3195,11 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H35" s="28">
         <v>1000</v>
@@ -3174,6 +3208,9 @@
         <v>1040</v>
       </c>
       <c r="M35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="P35" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3202,7 +3239,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:12">
+    <row r="37" s="11" customFormat="1" spans="1:17">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3214,11 +3251,11 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H37" s="28">
         <v>3000</v>
@@ -3227,6 +3264,9 @@
         <v>3120</v>
       </c>
       <c r="L37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="Q37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3352,7 +3392,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="43" s="11" customFormat="1" spans="1:15">
+    <row r="43" s="11" customFormat="1" spans="1:17">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3364,11 +3404,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="4"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H43" s="28">
         <v>3000</v>
@@ -3383,6 +3423,9 @@
         <v>3120</v>
       </c>
       <c r="O43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="Q43" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3439,7 +3482,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="46" s="11" customFormat="1" spans="1:13">
+    <row r="46" s="11" customFormat="1" spans="1:17">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3451,16 +3494,19 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="4"/>
+        <v>6240</v>
+      </c>
+      <c r="H46" s="28">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
         <v>3120</v>
       </c>
-      <c r="H46" s="28">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
+      <c r="Q46" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3657,7 +3703,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="54" s="11" customFormat="1" spans="1:15">
+    <row r="54" s="11" customFormat="1" spans="1:16">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -3669,16 +3715,19 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H54" s="28">
         <v>2000</v>
       </c>
       <c r="O54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="P54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3705,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:14">
+    <row r="56" s="11" customFormat="1" spans="1:16">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -3718,11 +3767,11 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H56" s="28">
         <v>1000</v>
@@ -3731,6 +3780,9 @@
         <v>1040</v>
       </c>
       <c r="N56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="P56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3785,7 +3837,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="59" s="11" customFormat="1" spans="1:10">
+    <row r="59" s="11" customFormat="1" spans="1:16">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -3797,11 +3849,11 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="28">
         <v>5000</v>
@@ -3809,8 +3861,11 @@
       <c r="J59" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="60" s="11" customFormat="1" spans="1:11">
+      <c r="P59" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="60" s="11" customFormat="1" spans="1:16">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -3822,11 +3877,11 @@
       </c>
       <c r="F60" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H60" s="28">
         <v>0</v>
@@ -3834,8 +3889,11 @@
       <c r="K60" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="61" s="11" customFormat="1" spans="1:8">
+      <c r="P60" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="61" s="11" customFormat="1" spans="1:16">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -3847,14 +3905,17 @@
       </c>
       <c r="F61" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H61" s="28">
         <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="62" s="11" customFormat="1" spans="1:14">
@@ -3994,7 +4055,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="67" s="11" customFormat="1" spans="1:8">
+    <row r="67" s="11" customFormat="1" spans="1:17">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -4007,14 +4068,20 @@
       </c>
       <c r="F67" s="10">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H67" s="28">
         <v>500</v>
+      </c>
+      <c r="P67" s="37">
+        <v>520</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:15">
@@ -4120,7 +4187,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:15">
+    <row r="72" s="11" customFormat="1" spans="1:17">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4132,11 +4199,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H72" s="28">
         <v>0</v>
@@ -4148,6 +4215,9 @@
         <v>5200</v>
       </c>
       <c r="O72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="Q72" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4256,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:15">
+    <row r="77" s="11" customFormat="1" spans="1:16">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -4268,11 +4338,11 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H77" s="28">
         <v>2300</v>
@@ -4281,6 +4351,9 @@
         <v>1040</v>
       </c>
       <c r="O77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="P77" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4647,7 +4720,7 @@
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
-      <c r="M90" s="37">
+      <c r="M90" s="38">
         <v>1040</v>
       </c>
       <c r="N90" s="34"/>
@@ -4861,11 +4934,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="J88" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5012,14 +5085,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>324200</v>
+        <v>342100</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>324200</v>
+        <v>342100</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5051,7 +5124,7 @@
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
@@ -5431,10 +5504,13 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="O12" s="11">
         <v>600</v>
+      </c>
+      <c r="P12" s="11">
+        <v>400</v>
       </c>
       <c r="AB12" s="21"/>
     </row>
@@ -5720,12 +5796,15 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I22" s="11">
         <v>1000</v>
       </c>
       <c r="M22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="11">
         <v>1000</v>
       </c>
       <c r="AB22" s="21"/>
@@ -5779,9 +5858,12 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="L24" s="11">
         <v>1000</v>
       </c>
-      <c r="L24" s="11">
+      <c r="P24" s="11">
         <v>1000</v>
       </c>
       <c r="AB24" s="21"/>
@@ -5934,7 +6016,10 @@
       </c>
       <c r="H29" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="P29" s="11">
+        <v>1000</v>
       </c>
       <c r="AB29" s="21"/>
     </row>
@@ -6080,12 +6165,15 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I34" s="11">
         <v>2000</v>
       </c>
       <c r="M34" s="11">
+        <v>1000</v>
+      </c>
+      <c r="P34" s="11">
         <v>1000</v>
       </c>
       <c r="AB34" s="21"/>
@@ -6299,7 +6387,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="I43" s="11">
         <v>3000</v>
@@ -6308,6 +6396,9 @@
         <v>3000</v>
       </c>
       <c r="M43" s="11">
+        <v>3000</v>
+      </c>
+      <c r="P43" s="11">
         <v>3000</v>
       </c>
       <c r="AB43" s="21"/>
@@ -6461,13 +6552,16 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="K49" s="11">
         <v>6000</v>
       </c>
       <c r="M49" s="11">
         <v>2500</v>
+      </c>
+      <c r="P49" s="11">
+        <v>3500</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -6495,12 +6589,15 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="K50" s="19">
         <v>6000</v>
       </c>
       <c r="M50" s="11">
+        <v>3000</v>
+      </c>
+      <c r="P50" s="11">
         <v>3000</v>
       </c>
       <c r="AB50" s="21"/>
@@ -6573,9 +6670,12 @@
       </c>
       <c r="H53" s="10">
         <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="K53" s="11">
         <v>3000</v>
       </c>
-      <c r="K53" s="11">
+      <c r="P53" s="19">
         <v>3000</v>
       </c>
       <c r="AB53" s="21"/>
@@ -6761,7 +6861,10 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="P61" s="11">
+        <v>1000</v>
       </c>
       <c r="AB61" s="21"/>
     </row>
@@ -7638,7 +7741,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7674,7 +7777,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>189700</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7704,7 +7807,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7719,7 +7822,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7749,7 +7852,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>15000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7824,7 +7927,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7985,7 +8088,7 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8000,7 +8103,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8030,7 +8133,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8075,7 +8178,7 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8090,7 +8193,7 @@
       </c>
       <c r="D30" s="9">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8120,7 +8223,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8135,7 +8238,7 @@
       </c>
       <c r="D33" s="9">
         <f>Orders!F33-Collection!H33</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8165,7 +8268,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8195,7 +8298,7 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8326,7 +8429,7 @@
       </c>
       <c r="D46" s="9">
         <f>Orders!F46-Collection!H46</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8369,7 +8472,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>9500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8384,7 +8487,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8427,7 +8530,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8442,7 +8545,7 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -8470,7 +8573,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8515,7 +8618,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8530,7 +8633,7 @@
       </c>
       <c r="D60" s="9">
         <f>Orders!F60-Collection!H60</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8543,7 +8646,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8633,7 +8736,7 @@
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8704,7 +8807,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8779,7 +8882,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>1200</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="78" spans="1:4">

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -70,7 +70,76 @@
         </r>
       </text>
     </comment>
+    <comment ref="S7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,6 +264,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3000-Cash
+3000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2500-Digital
+3500-Cash</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M72" authorId="0">
       <text>
         <r>
@@ -223,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="182">
   <si>
     <t>S.No.</t>
   </si>
@@ -669,6 +784,9 @@
     <t>Basant Kr.</t>
   </si>
   <si>
+    <t>Basant Kr./SHREE</t>
+  </si>
+  <si>
     <t>Binay Lal</t>
   </si>
   <si>
@@ -681,6 +799,9 @@
     <t>8709954402/6207783075</t>
   </si>
   <si>
+    <t>HARENDRA</t>
+  </si>
+  <si>
     <t>Deepak 7004687745</t>
   </si>
   <si>
@@ -735,6 +856,9 @@
     <t>Chandan Kr</t>
   </si>
   <si>
+    <t>Chandan Kr UCO</t>
+  </si>
+  <si>
     <t>Sunil Kr./Gudiya</t>
   </si>
   <si>
@@ -748,6 +872,9 @@
   </si>
   <si>
     <t>Ajay Kr.</t>
+  </si>
+  <si>
+    <t>Dev Kr.</t>
   </si>
   <si>
     <t>MD Aslam</t>
@@ -764,11 +891,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -787,8 +914,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,53 +999,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,25 +1007,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,23 +1029,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,14 +1052,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,61 +1144,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +1204,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1258,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,61 +1306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,13 +1353,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,54 +1388,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,9 +1409,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,13 +1455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,130 +1473,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,7 +1658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1581,7 +1708,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1592,12 +1719,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1932,11 +2059,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="S31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2069,33 +2196,33 @@
       <c r="AM1" s="33">
         <v>44286</v>
       </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:39">
       <c r="A2" s="13"/>
       <c r="B2" s="25">
         <f>SUM(F3:F121)</f>
-        <v>572400</v>
+        <v>788900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>414440</v>
+        <v>639600</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="26">
         <f>G2/1.04+H2</f>
-        <v>572400</v>
+        <v>788900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>414440</v>
+        <v>639600</v>
       </c>
       <c r="H2" s="27">
         <f>SUM(H3:H121)</f>
@@ -2135,27 +2262,27 @@
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>33280</v>
+        <v>52000</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65520</v>
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45760</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42120</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32240</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
@@ -2279,7 +2406,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:16">
+    <row r="5" s="11" customFormat="1" spans="1:18">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2294,11 +2421,11 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H5" s="28">
         <v>2500</v>
@@ -2315,8 +2442,11 @@
       <c r="P5" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:15">
+      <c r="R5" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:22">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2331,11 +2461,11 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>16120</v>
       </c>
       <c r="H6" s="28">
         <v>0</v>
@@ -2346,8 +2476,14 @@
       <c r="O6" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="11" customFormat="1" spans="1:17">
+      <c r="U6" s="36">
+        <v>520</v>
+      </c>
+      <c r="V6" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:20">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2362,11 +2498,11 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>20800</v>
+        <v>31200</v>
       </c>
       <c r="H7" s="28">
         <v>12000</v>
@@ -2398,8 +2534,17 @@
       <c r="Q7" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:15">
+      <c r="R7" s="11">
+        <v>2080</v>
+      </c>
+      <c r="S7" s="11">
+        <v>4160</v>
+      </c>
+      <c r="T7" s="11">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:20">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2414,11 +2559,11 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H8" s="28">
         <v>0</v>
@@ -2429,8 +2574,11 @@
       <c r="O8" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="9" s="11" customFormat="1" spans="1:12">
+      <c r="T8" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:20">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2442,11 +2590,11 @@
       </c>
       <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H9" s="28">
         <v>0</v>
@@ -2454,8 +2602,11 @@
       <c r="L9" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="10" s="11" customFormat="1" spans="1:15">
+      <c r="T9" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:20">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2470,11 +2621,11 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H10" s="28">
         <v>0</v>
@@ -2488,8 +2639,11 @@
       <c r="O10" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="11" s="11" customFormat="1" spans="1:9">
+      <c r="T10" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" spans="1:20">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2501,11 +2655,11 @@
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H11" s="28">
         <v>0</v>
@@ -2513,8 +2667,11 @@
       <c r="I11" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:13">
+      <c r="T11" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:22">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2526,11 +2683,11 @@
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="H12" s="28">
         <v>0</v>
@@ -2538,8 +2695,14 @@
       <c r="M12" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" s="11" customFormat="1" spans="1:13">
+      <c r="S12" s="11">
+        <v>1040</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="1:19">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2551,11 +2714,11 @@
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H13" s="28">
         <v>0</v>
@@ -2566,8 +2729,11 @@
       <c r="M13" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:15">
+      <c r="S13" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="1:21">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2579,11 +2745,11 @@
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>26000</v>
       </c>
       <c r="H14" s="28">
         <v>5000</v>
@@ -2597,8 +2763,14 @@
       <c r="O14" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="11" customFormat="1" spans="1:15">
+      <c r="Q14" s="11">
+        <v>5200</v>
+      </c>
+      <c r="U14" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="1:17">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -2613,11 +2785,11 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H15" s="28">
         <v>2000</v>
@@ -2628,8 +2800,11 @@
       <c r="O15" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:12">
+      <c r="Q15" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="1:20">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -2641,11 +2816,11 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H16" s="28">
         <v>2000</v>
@@ -2653,8 +2828,11 @@
       <c r="L16" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="17" s="11" customFormat="1" spans="1:10">
+      <c r="T16" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="1:22">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -2669,16 +2847,19 @@
       </c>
       <c r="F17" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H17" s="28">
         <v>2000</v>
       </c>
       <c r="J17" s="11">
+        <v>1040</v>
+      </c>
+      <c r="V17" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -2729,7 +2910,7 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
     </row>
-    <row r="19" s="11" customFormat="1" spans="1:14">
+    <row r="19" s="11" customFormat="1" spans="1:21">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -2741,11 +2922,11 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H19" s="28">
         <v>1500</v>
@@ -2753,8 +2934,11 @@
       <c r="N19" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="20" s="11" customFormat="1" spans="1:16">
+      <c r="U19" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="1:21">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -2766,11 +2950,11 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H20" s="28">
         <v>5000</v>
@@ -2781,8 +2965,11 @@
       <c r="P20" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="21" s="11" customFormat="1" spans="1:13">
+      <c r="U20" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="1:21">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -2794,11 +2981,11 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>7280</v>
       </c>
       <c r="H21" s="28">
         <v>0</v>
@@ -2807,6 +2994,12 @@
         <v>2080</v>
       </c>
       <c r="M21" s="11">
+        <v>2080</v>
+      </c>
+      <c r="S21" s="36">
+        <v>1040</v>
+      </c>
+      <c r="U21" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -2869,7 +3062,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="1" spans="1:15">
+    <row r="24" s="11" customFormat="1" spans="1:21">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2881,11 +3074,11 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="28">
         <v>0</v>
@@ -2896,8 +3089,14 @@
       <c r="O24" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:12">
+      <c r="S24" s="11">
+        <v>2080</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:22">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -2909,11 +3108,11 @@
       </c>
       <c r="F25" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H25" s="28">
         <v>0</v>
@@ -2924,8 +3123,14 @@
       <c r="L25" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:17">
+      <c r="S25" s="11">
+        <v>3120</v>
+      </c>
+      <c r="V25" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:22">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2937,11 +3142,11 @@
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H26" s="28">
         <v>0</v>
@@ -2955,8 +3160,11 @@
       <c r="Q26" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:13">
+      <c r="V26" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:19">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2968,11 +3176,11 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H27" s="28">
         <v>3000</v>
@@ -2983,8 +3191,11 @@
       <c r="M27" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="28" s="11" customFormat="1" spans="1:12">
+      <c r="S27" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="28" s="11" customFormat="1" spans="1:19">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -2996,16 +3207,19 @@
       </c>
       <c r="F28" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H28" s="28">
         <v>2000</v>
       </c>
       <c r="L28" s="11">
+        <v>2080</v>
+      </c>
+      <c r="S28" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3034,7 +3248,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="30" s="11" customFormat="1" spans="1:17">
+    <row r="30" s="11" customFormat="1" spans="1:22">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -3046,11 +3260,11 @@
       </c>
       <c r="F30" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H30" s="28">
         <v>2000</v>
@@ -3059,6 +3273,9 @@
         <v>2080</v>
       </c>
       <c r="Q30" s="11">
+        <v>2080</v>
+      </c>
+      <c r="V30" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3087,7 +3304,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="1" spans="1:16">
+    <row r="32" s="11" customFormat="1" spans="1:21">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -3099,11 +3316,11 @@
       </c>
       <c r="F32" s="10">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>21840</v>
+        <v>32240</v>
       </c>
       <c r="H32" s="28">
         <v>0</v>
@@ -3123,8 +3340,14 @@
       <c r="P32" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="11" customFormat="1" spans="1:17">
+      <c r="R32" s="11">
+        <v>5200</v>
+      </c>
+      <c r="U32" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="1:21">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -3136,11 +3359,11 @@
       </c>
       <c r="F33" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H33" s="28">
         <v>0</v>
@@ -3151,8 +3374,11 @@
       <c r="Q33" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="34" s="11" customFormat="1" spans="1:16">
+      <c r="U33" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="1:21">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -3164,11 +3390,11 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="H34" s="28">
         <v>2000</v>
@@ -3182,8 +3408,14 @@
       <c r="P34" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="1" spans="1:16">
+      <c r="R34" s="11">
+        <v>1040</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" spans="1:18">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -3195,11 +3427,11 @@
       </c>
       <c r="F35" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H35" s="28">
         <v>1000</v>
@@ -3211,6 +3443,9 @@
         <v>1040</v>
       </c>
       <c r="P35" s="11">
+        <v>1040</v>
+      </c>
+      <c r="R35" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3239,7 +3474,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" spans="1:17">
+    <row r="37" s="11" customFormat="1" spans="1:22">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -3251,11 +3486,11 @@
       </c>
       <c r="F37" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="4"/>
-        <v>9360</v>
+        <v>15600</v>
       </c>
       <c r="H37" s="28">
         <v>3000</v>
@@ -3267,6 +3502,12 @@
         <v>3120</v>
       </c>
       <c r="Q37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="S37" s="11">
+        <v>3120</v>
+      </c>
+      <c r="V37" s="11">
         <v>3120</v>
       </c>
     </row>
@@ -3292,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:14">
+    <row r="39" s="11" customFormat="1" spans="1:19">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -3304,11 +3545,11 @@
       </c>
       <c r="F39" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H39" s="28">
         <v>0</v>
@@ -3316,8 +3557,11 @@
       <c r="N39" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="40" s="11" customFormat="1" spans="1:8">
+      <c r="S39" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:20">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -3332,17 +3576,20 @@
       </c>
       <c r="F40" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H40" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" s="11" customFormat="1" spans="1:15">
+      <c r="T40" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:19">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -3354,11 +3601,11 @@
       </c>
       <c r="F41" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H41" s="28">
         <v>2000</v>
@@ -3366,8 +3613,11 @@
       <c r="O41" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="42" s="11" customFormat="1" spans="1:13">
+      <c r="S41" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="42" s="11" customFormat="1" spans="1:19">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -3379,11 +3629,11 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H42" s="28">
         <v>0</v>
@@ -3391,8 +3641,11 @@
       <c r="M42" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="43" s="11" customFormat="1" spans="1:17">
+      <c r="S42" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" spans="1:21">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -3404,11 +3657,11 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>21840</v>
       </c>
       <c r="H43" s="28">
         <v>3000</v>
@@ -3428,8 +3681,14 @@
       <c r="Q43" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="44" s="11" customFormat="1" spans="1:8">
+      <c r="T43" s="11">
+        <v>3120</v>
+      </c>
+      <c r="U43" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" spans="1:19">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -3441,17 +3700,20 @@
       </c>
       <c r="F44" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H44" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" s="11" customFormat="1" spans="1:14">
+      <c r="S44" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="1" spans="1:19">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -3463,11 +3725,11 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="4"/>
-        <v>9360</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="28">
         <v>0</v>
@@ -3481,8 +3743,14 @@
       <c r="N45" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="46" s="11" customFormat="1" spans="1:17">
+      <c r="Q45" s="11">
+        <v>3120</v>
+      </c>
+      <c r="S45" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" spans="1:19">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -3494,11 +3762,11 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H46" s="28">
         <v>0</v>
@@ -3509,8 +3777,11 @@
       <c r="Q46" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:13">
+      <c r="S46" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:19">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -3522,11 +3793,11 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H47" s="28">
         <v>0</v>
@@ -3534,8 +3805,11 @@
       <c r="M47" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="48" s="11" customFormat="1" spans="1:12">
+      <c r="S47" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:21">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -3547,11 +3821,11 @@
       </c>
       <c r="F48" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H48" s="28">
         <v>0</v>
@@ -3559,8 +3833,11 @@
       <c r="L48" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="49" s="11" customFormat="1" spans="1:16">
+      <c r="U48" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" spans="1:22">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -3572,11 +3849,11 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="4"/>
-        <v>12480</v>
+        <v>21840</v>
       </c>
       <c r="H49" s="28">
         <v>6000</v>
@@ -3593,8 +3870,17 @@
       <c r="P49" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="11" customFormat="1" spans="1:16">
+      <c r="Q49" s="11">
+        <v>3120</v>
+      </c>
+      <c r="T49" s="11">
+        <v>3120</v>
+      </c>
+      <c r="V49" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="11" customFormat="1" spans="1:22">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -3606,11 +3892,11 @@
       </c>
       <c r="F50" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H50" s="28">
         <v>6000</v>
@@ -3621,8 +3907,14 @@
       <c r="P50" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="51" s="11" customFormat="1" spans="1:8">
+      <c r="R50" s="36">
+        <v>3120</v>
+      </c>
+      <c r="V50" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:21">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -3634,14 +3926,17 @@
       </c>
       <c r="F51" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H51" s="28">
         <v>2000</v>
+      </c>
+      <c r="U51" s="11">
+        <v>2080</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:8">
@@ -3666,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="11" customFormat="1" spans="1:16">
+    <row r="53" s="11" customFormat="1" spans="1:22">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -3678,11 +3973,11 @@
       </c>
       <c r="F53" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H53" s="28">
         <v>1000</v>
@@ -3702,8 +3997,23 @@
       <c r="P53" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:16">
+      <c r="Q53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="S53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="T53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="U53" s="11">
+        <v>1040</v>
+      </c>
+      <c r="V53" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:22">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -3715,11 +4025,11 @@
       </c>
       <c r="F54" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H54" s="28">
         <v>2000</v>
@@ -3728,6 +4038,12 @@
         <v>2080</v>
       </c>
       <c r="P54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="T54" s="11">
+        <v>2080</v>
+      </c>
+      <c r="V54" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -3754,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="11" customFormat="1" spans="1:16">
+    <row r="56" s="11" customFormat="1" spans="1:18">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -3767,11 +4083,11 @@
       </c>
       <c r="F56" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="4"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H56" s="28">
         <v>1000</v>
@@ -3783,6 +4099,9 @@
         <v>1040</v>
       </c>
       <c r="P56" s="11">
+        <v>1040</v>
+      </c>
+      <c r="R56" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -3809,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="11" customFormat="1" spans="1:13">
+    <row r="58" s="11" customFormat="1" spans="1:20">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -3821,11 +4140,11 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H58" s="28">
         <v>0</v>
@@ -3836,8 +4155,11 @@
       <c r="M58" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="59" s="11" customFormat="1" spans="1:16">
+      <c r="T58" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="59" s="11" customFormat="1" spans="1:20">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -3849,11 +4171,11 @@
       </c>
       <c r="F59" s="10">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H59" s="28">
         <v>5000</v>
@@ -3862,6 +4184,9 @@
         <v>5200</v>
       </c>
       <c r="P59" s="11">
+        <v>5200</v>
+      </c>
+      <c r="T59" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3918,7 +4243,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="62" s="11" customFormat="1" spans="1:14">
+    <row r="62" s="11" customFormat="1" spans="1:19">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -3931,11 +4256,11 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H62" s="28">
         <v>0</v>
@@ -3944,6 +4269,9 @@
         <v>5200</v>
       </c>
       <c r="N62" s="11">
+        <v>5200</v>
+      </c>
+      <c r="S62" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -3995,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:13">
+    <row r="65" s="11" customFormat="1" spans="1:19">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -4010,11 +4338,11 @@
       </c>
       <c r="F65" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H65" s="22">
         <v>0</v>
@@ -4025,8 +4353,11 @@
       <c r="M65" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="66" s="11" customFormat="1" spans="1:15">
+      <c r="S65" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="66" s="11" customFormat="1" spans="1:22">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -4039,11 +4370,11 @@
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="4"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H66" s="28">
         <v>7000</v>
@@ -4052,6 +4383,9 @@
         <v>2080</v>
       </c>
       <c r="O66" s="11">
+        <v>2080</v>
+      </c>
+      <c r="V66" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4077,14 +4411,14 @@
       <c r="H67" s="28">
         <v>500</v>
       </c>
-      <c r="P67" s="37">
+      <c r="P67" s="36">
         <v>520</v>
       </c>
       <c r="Q67" s="11">
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="11" customFormat="1" spans="1:15">
+    <row r="68" s="11" customFormat="1" spans="1:20">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -4096,11 +4430,11 @@
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" ref="G68:G96" si="5">SUM(I68:AM68)</f>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H68" s="28">
         <v>2000</v>
@@ -4111,8 +4445,11 @@
       <c r="O68" s="11">
         <v>2080</v>
       </c>
-    </row>
-    <row r="69" s="11" customFormat="1" spans="1:13">
+      <c r="T68" s="11">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="11" customFormat="1" spans="1:18">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -4124,16 +4461,19 @@
       </c>
       <c r="F69" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="5"/>
+        <v>4160</v>
+      </c>
+      <c r="H69" s="28">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
         <v>2080</v>
       </c>
-      <c r="H69" s="28">
-        <v>0</v>
-      </c>
-      <c r="M69" s="11">
+      <c r="R69" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4162,7 +4502,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="71" s="11" customFormat="1" spans="1:13">
+    <row r="71" s="11" customFormat="1" spans="1:20">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -4174,11 +4514,11 @@
       </c>
       <c r="F71" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H71" s="28">
         <v>0</v>
@@ -4186,8 +4526,11 @@
       <c r="M71" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" spans="1:17">
+      <c r="T71" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:21">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -4199,11 +4542,11 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="5"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H72" s="28">
         <v>0</v>
@@ -4220,8 +4563,11 @@
       <c r="Q72" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:13">
+      <c r="U72" s="11">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" spans="1:20">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -4233,11 +4579,11 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H73" s="28">
         <v>3000</v>
@@ -4248,8 +4594,14 @@
       <c r="M73" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:15">
+      <c r="Q73" s="11">
+        <v>3120</v>
+      </c>
+      <c r="T73" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:19">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -4262,11 +4614,11 @@
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H74" s="28">
         <v>1000</v>
@@ -4275,6 +4627,9 @@
         <v>2080</v>
       </c>
       <c r="O74" s="11">
+        <v>2080</v>
+      </c>
+      <c r="S74" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4326,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" s="11" customFormat="1" spans="1:16">
+    <row r="77" s="11" customFormat="1" spans="1:21">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -4338,11 +4693,11 @@
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>5300</v>
+        <v>8300</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H77" s="28">
         <v>2300</v>
@@ -4356,8 +4711,17 @@
       <c r="P77" s="11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="78" s="11" customFormat="1" spans="1:14">
+      <c r="S77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="T77" s="11">
+        <v>1040</v>
+      </c>
+      <c r="U77" s="11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" s="11" customFormat="1" spans="1:20">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -4369,11 +4733,11 @@
       </c>
       <c r="F78" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H78" s="28">
         <v>3000</v>
@@ -4384,8 +4748,14 @@
       <c r="N78" s="11">
         <v>3120</v>
       </c>
-    </row>
-    <row r="79" s="11" customFormat="1" spans="1:16">
+      <c r="R78" s="11">
+        <v>3120</v>
+      </c>
+      <c r="T78" s="11">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="11" customFormat="1" spans="1:21">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -4397,11 +4767,11 @@
       </c>
       <c r="F79" s="10">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H79" s="28">
         <v>2000</v>
@@ -4413,6 +4783,12 @@
         <v>2080</v>
       </c>
       <c r="P79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="S79" s="11">
+        <v>2080</v>
+      </c>
+      <c r="U79" s="11">
         <v>2080</v>
       </c>
     </row>
@@ -4452,7 +4828,7 @@
       <c r="X80" s="34"/>
       <c r="Y80" s="34"/>
     </row>
-    <row r="81" s="11" customFormat="1" spans="1:14">
+    <row r="81" s="11" customFormat="1" spans="1:19">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -4465,11 +4841,11 @@
       </c>
       <c r="F81" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>5200</v>
       </c>
       <c r="H81" s="28">
         <v>2000</v>
@@ -4478,6 +4854,15 @@
         <v>1040</v>
       </c>
       <c r="N81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="R81" s="11">
+        <v>1040</v>
+      </c>
+      <c r="S81" s="11">
         <v>1040</v>
       </c>
     </row>
@@ -4559,7 +4944,7 @@
       <c r="S84" s="34"/>
       <c r="T84" s="34"/>
     </row>
-    <row r="85" s="11" customFormat="1" spans="1:13">
+    <row r="85" s="11" customFormat="1" spans="1:19">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -4572,11 +4957,11 @@
       </c>
       <c r="F85" s="10">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G85" s="10">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H85" s="28">
         <v>0</v>
@@ -4585,6 +4970,9 @@
         <v>5200</v>
       </c>
       <c r="M85" s="11">
+        <v>5200</v>
+      </c>
+      <c r="S85" s="11">
         <v>5200</v>
       </c>
     </row>
@@ -4649,11 +5037,11 @@
       </c>
       <c r="F88" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G88" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H88" s="28">
         <v>0</v>
@@ -4668,7 +5056,9 @@
       <c r="P88" s="34"/>
       <c r="Q88" s="34"/>
       <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
+      <c r="S88" s="32">
+        <v>2080</v>
+      </c>
       <c r="T88" s="34"/>
       <c r="U88" s="34"/>
       <c r="V88" s="34"/>
@@ -4934,11 +5324,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="J88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P108" sqref="P108"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5085,14 +5475,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>342100</v>
+        <v>575900</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>342100</v>
+        <v>575900</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -5128,27 +5518,27 @@
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67500</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91800</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
@@ -5274,7 +5664,10 @@
       </c>
       <c r="H4" s="10">
         <f t="shared" ref="H4:H35" si="2">SUM(I4:AM4)</f>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>2000</v>
       </c>
       <c r="AB4" s="21"/>
     </row>
@@ -5296,7 +5689,7 @@
       </c>
       <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="I5" s="11">
         <v>2000</v>
@@ -5309,6 +5702,15 @@
       </c>
       <c r="N5" s="11">
         <v>1000</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="11">
+        <v>1500</v>
       </c>
       <c r="AB5" s="21"/>
     </row>
@@ -5336,13 +5738,19 @@
       </c>
       <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L6" s="19">
         <v>3000</v>
       </c>
       <c r="N6" s="19">
         <v>2000</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="U6" s="11">
+        <v>3000</v>
       </c>
       <c r="AB6" s="21"/>
     </row>
@@ -5370,13 +5778,19 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L7" s="19">
         <v>2000</v>
       </c>
       <c r="N7" s="19">
         <v>13000</v>
+      </c>
+      <c r="S7" s="19">
+        <v>6000</v>
+      </c>
+      <c r="T7" s="19">
+        <v>6000</v>
       </c>
       <c r="AB7" s="21"/>
     </row>
@@ -5398,9 +5812,15 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="J8" s="11">
         <v>2000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="Q8" s="11">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="11">
         <v>2000</v>
       </c>
       <c r="AB8" s="21"/>
@@ -5423,9 +5843,12 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="N9" s="11">
         <v>2000</v>
       </c>
-      <c r="N9" s="11">
+      <c r="U9" s="11">
         <v>2000</v>
       </c>
       <c r="AB9" s="21"/>
@@ -5448,12 +5871,15 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="11">
         <v>5000</v>
       </c>
       <c r="N10" s="11">
+        <v>5000</v>
+      </c>
+      <c r="Q10" s="11">
         <v>5000</v>
       </c>
       <c r="AB10" s="21"/>
@@ -5504,13 +5930,16 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="O12" s="11">
         <v>600</v>
       </c>
       <c r="P12" s="11">
         <v>400</v>
+      </c>
+      <c r="U12" s="11">
+        <v>800</v>
       </c>
       <c r="AB12" s="21"/>
     </row>
@@ -5532,10 +5961,13 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N13" s="19">
         <v>10000</v>
+      </c>
+      <c r="U13" s="11">
+        <v>5000</v>
       </c>
       <c r="AB13" s="21"/>
     </row>
@@ -5563,7 +5995,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
@@ -5576,6 +6008,12 @@
       </c>
       <c r="O14" s="11">
         <v>2500</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>5000</v>
+      </c>
+      <c r="U14" s="11">
+        <v>5500</v>
       </c>
       <c r="AB14" s="21"/>
     </row>
@@ -5600,10 +6038,16 @@
       </c>
       <c r="H15" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="K15" s="11">
         <v>4000</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="U15" s="11">
+        <v>2000</v>
       </c>
       <c r="AB15" s="21"/>
     </row>
@@ -5734,12 +6178,15 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K20" s="11">
         <v>5000</v>
       </c>
       <c r="M20" s="19">
+        <v>5000</v>
+      </c>
+      <c r="R20" s="19">
         <v>5000</v>
       </c>
       <c r="AB20" s="21"/>
@@ -5768,13 +6215,16 @@
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K21" s="11">
         <v>2000</v>
       </c>
       <c r="N21" s="11">
         <v>2000</v>
+      </c>
+      <c r="S21" s="19">
+        <v>1000</v>
       </c>
       <c r="AB21" s="21"/>
     </row>
@@ -5796,7 +6246,7 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="11">
         <v>1000</v>
@@ -5805,6 +6255,12 @@
         <v>1000</v>
       </c>
       <c r="P22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="11">
         <v>1000</v>
       </c>
       <c r="AB22" s="21"/>
@@ -5858,13 +6314,16 @@
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L24" s="11">
         <v>1000</v>
       </c>
       <c r="P24" s="11">
         <v>1000</v>
+      </c>
+      <c r="U24" s="11">
+        <v>2000</v>
       </c>
       <c r="AB24" s="21"/>
     </row>
@@ -5892,12 +6351,15 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="J25" s="19">
         <v>3000</v>
       </c>
       <c r="M25" s="11">
+        <v>3000</v>
+      </c>
+      <c r="U25" s="11">
         <v>3000</v>
       </c>
       <c r="AB25" s="21"/>
@@ -5926,13 +6388,16 @@
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K26" s="19">
         <v>5000</v>
       </c>
       <c r="O26" s="19">
         <v>5000</v>
+      </c>
+      <c r="V26" s="19">
+        <v>10000</v>
       </c>
       <c r="AB26" s="21"/>
     </row>
@@ -5954,12 +6419,18 @@
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I27" s="11">
         <v>3000</v>
       </c>
       <c r="K27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>3000</v>
+      </c>
+      <c r="U27" s="11">
         <v>3000</v>
       </c>
       <c r="AB27" s="21"/>
@@ -5985,7 +6456,7 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="K28" s="11">
         <v>1000</v>
@@ -5994,6 +6465,9 @@
         <v>1000</v>
       </c>
       <c r="N28" s="19">
+        <v>1000</v>
+      </c>
+      <c r="R28" s="11">
         <v>1000</v>
       </c>
       <c r="AB28" s="21"/>
@@ -6016,9 +6490,12 @@
       </c>
       <c r="H29" s="10">
         <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P29" s="11">
         <v>1000</v>
       </c>
-      <c r="P29" s="11">
+      <c r="Q29" s="11">
         <v>1000</v>
       </c>
       <c r="AB29" s="21"/>
@@ -6041,7 +6518,7 @@
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I30" s="11">
         <v>1000</v>
@@ -6050,6 +6527,9 @@
         <v>1000</v>
       </c>
       <c r="L30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="R30" s="11">
         <v>2000</v>
       </c>
       <c r="AB30" s="21"/>
@@ -6096,7 +6576,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -6106,13 +6586,19 @@
       </c>
       <c r="H32" s="10">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="L32" s="19">
         <v>6000</v>
       </c>
       <c r="N32" s="11">
         <v>5000</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>5000</v>
+      </c>
+      <c r="U32" s="19">
+        <v>10000</v>
       </c>
       <c r="AB32" s="21"/>
     </row>
@@ -6131,7 +6617,7 @@
       </c>
       <c r="H33" s="10">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L33" s="11">
         <v>500</v>
@@ -6141,6 +6627,12 @@
       </c>
       <c r="N33" s="11">
         <v>500</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="11">
+        <v>1000</v>
       </c>
       <c r="AB33" s="21"/>
     </row>
@@ -6149,13 +6641,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -6165,7 +6657,7 @@
       </c>
       <c r="H34" s="10">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="I34" s="11">
         <v>2000</v>
@@ -6174,6 +6666,12 @@
         <v>1000</v>
       </c>
       <c r="P34" s="11">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>1000</v>
+      </c>
+      <c r="U34" s="11">
         <v>1000</v>
       </c>
       <c r="AB34" s="21"/>
@@ -6193,7 +6691,7 @@
       </c>
       <c r="H35" s="10">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="11">
         <v>1000</v>
@@ -6203,6 +6701,9 @@
       </c>
       <c r="O35" s="19">
         <v>1000</v>
+      </c>
+      <c r="R35" s="11">
+        <v>2000</v>
       </c>
       <c r="AB35" s="21"/>
     </row>
@@ -6246,10 +6747,16 @@
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="K37" s="19">
         <v>6000</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>6000</v>
+      </c>
+      <c r="U37" s="11">
+        <v>3000</v>
       </c>
       <c r="AB37" s="21"/>
     </row>
@@ -6277,13 +6784,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -6293,7 +6800,13 @@
       </c>
       <c r="H39" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>3000</v>
+      </c>
+      <c r="U39" s="19">
+        <v>3000</v>
       </c>
       <c r="AB39" s="21"/>
     </row>
@@ -6302,16 +6815,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -6340,9 +6853,12 @@
       </c>
       <c r="H41" s="10">
         <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="I41" s="11">
         <v>2000</v>
       </c>
-      <c r="I41" s="11">
+      <c r="Q41" s="11">
         <v>2000</v>
       </c>
       <c r="AB41" s="21"/>
@@ -6362,10 +6878,13 @@
       </c>
       <c r="H42" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M42" s="11">
         <v>2000</v>
+      </c>
+      <c r="U42" s="11">
+        <v>1000</v>
       </c>
       <c r="AB42" s="21"/>
     </row>
@@ -6387,7 +6906,7 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="I43" s="11">
         <v>3000</v>
@@ -6400,6 +6919,12 @@
       </c>
       <c r="P43" s="11">
         <v>3000</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>3000</v>
+      </c>
+      <c r="U43" s="11">
+        <v>6000</v>
       </c>
       <c r="AB43" s="21"/>
     </row>
@@ -6410,6 +6935,9 @@
       <c r="C44" s="11">
         <v>42</v>
       </c>
+      <c r="D44" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="F44" s="11" t="s">
         <v>51</v>
       </c>
@@ -6418,7 +6946,10 @@
       </c>
       <c r="H44" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="U44" s="19">
+        <v>2000</v>
       </c>
       <c r="AB44" s="21"/>
     </row>
@@ -6437,7 +6968,7 @@
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="J45" s="11">
         <v>3000</v>
@@ -6446,6 +6977,9 @@
         <v>3000</v>
       </c>
       <c r="O45" s="11">
+        <v>3000</v>
+      </c>
+      <c r="R45" s="11">
         <v>3000</v>
       </c>
       <c r="AB45" s="21"/>
@@ -6455,13 +6989,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -6471,9 +7005,12 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="M46" s="19">
         <v>3000</v>
       </c>
-      <c r="M46" s="19">
+      <c r="S46" s="19">
         <v>3000</v>
       </c>
       <c r="AB46" s="21"/>
@@ -6493,9 +7030,12 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="M47" s="11">
         <v>3000</v>
       </c>
-      <c r="M47" s="11">
+      <c r="U47" s="11">
         <v>3000</v>
       </c>
       <c r="AB47" s="21"/>
@@ -6505,13 +7045,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>64</v>
@@ -6533,13 +7073,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -6552,7 +7092,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="K49" s="11">
         <v>6000</v>
@@ -6562,6 +7102,12 @@
       </c>
       <c r="P49" s="11">
         <v>3500</v>
+      </c>
+      <c r="S49" s="19">
+        <v>5000</v>
+      </c>
+      <c r="U49" s="19">
+        <v>6000</v>
       </c>
       <c r="AB49" s="21"/>
     </row>
@@ -6570,13 +7116,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -6589,7 +7135,7 @@
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K50" s="19">
         <v>6000</v>
@@ -6598,6 +7144,9 @@
         <v>3000</v>
       </c>
       <c r="P50" s="11">
+        <v>3000</v>
+      </c>
+      <c r="U50" s="19">
         <v>3000</v>
       </c>
       <c r="AB50" s="21"/>
@@ -6607,13 +7156,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -6654,13 +7203,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -6695,10 +7244,13 @@
       </c>
       <c r="H54" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="M54" s="19">
         <v>2000</v>
+      </c>
+      <c r="S54" s="19">
+        <v>4000</v>
       </c>
       <c r="AB54" s="21"/>
     </row>
@@ -6707,13 +7259,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -6732,13 +7284,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -6748,7 +7300,10 @@
       </c>
       <c r="H56" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>2000</v>
       </c>
       <c r="AB56" s="21"/>
     </row>
@@ -6792,7 +7347,10 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>4000</v>
       </c>
       <c r="AB58" s="21"/>
     </row>
@@ -6801,13 +7359,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -6839,9 +7397,12 @@
       </c>
       <c r="H60" s="10">
         <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="K60" s="11">
         <v>5000</v>
       </c>
-      <c r="K60" s="11">
+      <c r="Q60" s="11">
         <v>5000</v>
       </c>
       <c r="AB60" s="21"/>
@@ -6861,9 +7422,12 @@
       </c>
       <c r="H61" s="10">
         <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="P61" s="11">
         <v>1000</v>
       </c>
-      <c r="P61" s="11">
+      <c r="Q61" s="11">
         <v>1000</v>
       </c>
       <c r="AB61" s="21"/>
@@ -6873,13 +7437,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -6892,10 +7456,13 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N62" s="11">
         <v>10000</v>
+      </c>
+      <c r="T62" s="11">
+        <v>5000</v>
       </c>
       <c r="AB62" s="21"/>
     </row>
@@ -6926,16 +7493,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -6954,13 +7521,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -6973,12 +7540,15 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="J65" s="19">
         <v>2000</v>
       </c>
       <c r="N65" s="19">
+        <v>2000</v>
+      </c>
+      <c r="T65" s="19">
         <v>2000</v>
       </c>
       <c r="AB65" s="21"/>
@@ -6988,13 +7558,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C66" s="11">
         <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>87</v>
@@ -7004,10 +7574,13 @@
       </c>
       <c r="H66" s="10">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N66" s="19">
         <v>3000</v>
+      </c>
+      <c r="S66" s="19">
+        <v>2000</v>
       </c>
       <c r="AB66" s="21"/>
     </row>
@@ -7026,7 +7599,10 @@
       </c>
       <c r="H67" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="R67" s="11">
+        <v>3000</v>
       </c>
       <c r="AB67" s="21"/>
     </row>
@@ -7067,10 +7643,13 @@
       </c>
       <c r="H69" s="10">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M69" s="11">
         <v>2000</v>
+      </c>
+      <c r="U69" s="11">
+        <v>3000</v>
       </c>
       <c r="AB69" s="21"/>
     </row>
@@ -7108,9 +7687,12 @@
       </c>
       <c r="H71" s="10">
         <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="M71" s="11">
         <v>1000</v>
       </c>
-      <c r="M71" s="11">
+      <c r="U71" s="11">
         <v>1000</v>
       </c>
       <c r="AB71" s="21"/>
@@ -7130,10 +7712,16 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M72" s="19">
         <v>10000</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>10000</v>
+      </c>
+      <c r="U72" s="11">
+        <v>5000</v>
       </c>
       <c r="AB72" s="21"/>
     </row>
@@ -7152,7 +7740,7 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="K73" s="11">
         <v>3000</v>
@@ -7161,6 +7749,12 @@
         <v>3000</v>
       </c>
       <c r="O73" s="11">
+        <v>3000</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>500</v>
+      </c>
+      <c r="U73" s="11">
         <v>3000</v>
       </c>
       <c r="AB73" s="21"/>
@@ -7170,13 +7764,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E74" s="11">
         <v>8825370430</v>
@@ -7189,10 +7783,13 @@
       </c>
       <c r="H74" s="10">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O74" s="11">
         <v>3000</v>
+      </c>
+      <c r="R74" s="11">
+        <v>2000</v>
       </c>
       <c r="AB74" s="21"/>
     </row>
@@ -7242,13 +7839,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E77" s="11">
         <v>6200769032</v>
@@ -7261,13 +7858,19 @@
       </c>
       <c r="H77" s="10">
         <f t="shared" si="4"/>
-        <v>3100</v>
+        <v>5600</v>
       </c>
       <c r="L77" s="11">
         <v>2000</v>
       </c>
       <c r="O77" s="11">
         <v>1100</v>
+      </c>
+      <c r="S77" s="19">
+        <v>1500</v>
+      </c>
+      <c r="T77" s="19">
+        <v>1000</v>
       </c>
       <c r="AB77" s="21"/>
     </row>
@@ -7276,13 +7879,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C78" s="11">
         <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>102</v>
@@ -7292,13 +7895,19 @@
       </c>
       <c r="H78" s="10">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="I78" s="19">
         <v>3000</v>
       </c>
       <c r="N78" s="19">
         <v>5000</v>
+      </c>
+      <c r="R78" s="11">
+        <v>4000</v>
+      </c>
+      <c r="U78" s="19">
+        <v>3000</v>
       </c>
       <c r="AB78" s="21"/>
     </row>
@@ -7307,13 +7916,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C79" s="11">
         <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>102</v>
@@ -7323,13 +7932,16 @@
       </c>
       <c r="H79" s="10">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L79" s="11">
         <v>3000</v>
       </c>
       <c r="N79" s="11">
         <v>3000</v>
+      </c>
+      <c r="U79" s="11">
+        <v>6000</v>
       </c>
       <c r="AB79" s="21"/>
     </row>
@@ -7354,16 +7966,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>107</v>
@@ -7373,9 +7985,15 @@
       </c>
       <c r="H81" s="10">
         <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="L81" s="19">
         <v>2000</v>
       </c>
-      <c r="L81" s="19">
+      <c r="R81" s="19">
+        <v>2000</v>
+      </c>
+      <c r="S81" s="19">
         <v>2000</v>
       </c>
       <c r="AB81" s="21"/>
@@ -7436,13 +8054,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>113</v>
@@ -7489,13 +8107,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C87" s="11">
         <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E87" s="11">
         <v>7004210181</v>
@@ -7519,6 +8137,9 @@
       <c r="C88" s="11">
         <v>86</v>
       </c>
+      <c r="D88" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="F88" s="11" t="s">
         <v>117</v>
       </c>
@@ -7527,7 +8148,10 @@
       </c>
       <c r="H88" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="U88" s="11">
+        <v>2000</v>
       </c>
       <c r="AB88" s="21"/>
     </row>
@@ -7552,13 +8176,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>120</v>
@@ -7599,7 +8223,7 @@
         <v>9015378357</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>122</v>
@@ -7741,7 +8365,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7766,7 +8390,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7777,7 +8401,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>230300</v>
+        <v>213000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7807,7 +8431,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7822,7 +8446,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7837,7 +8461,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7852,7 +8476,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7867,7 +8491,7 @@
       </c>
       <c r="D8" s="9">
         <f>Orders!F8-Collection!H8</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7912,7 +8536,7 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7927,7 +8551,7 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7957,7 +8581,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>5000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7972,7 +8596,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7987,7 +8611,7 @@
       </c>
       <c r="D16" s="9">
         <f>Orders!F16-Collection!H16</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8000,7 +8624,7 @@
       </c>
       <c r="D17" s="9">
         <f>Orders!F17-Collection!H17</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8028,7 +8652,7 @@
       </c>
       <c r="D19" s="9">
         <f>Orders!F19-Collection!H19</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8058,7 +8682,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8073,7 +8697,7 @@
       </c>
       <c r="D22" s="9">
         <f>Orders!F22-Collection!H22</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8103,7 +8727,7 @@
       </c>
       <c r="D24" s="9">
         <f>Orders!F24-Collection!H24</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8118,7 +8742,7 @@
       </c>
       <c r="D25" s="9">
         <f>Orders!F25-Collection!H25</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8133,7 +8757,7 @@
       </c>
       <c r="D26" s="9">
         <f>Orders!F26-Collection!H26</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8148,7 +8772,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8163,7 +8787,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8178,7 +8802,7 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8223,7 +8847,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8268,7 +8892,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8298,7 +8922,7 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8326,7 +8950,7 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8341,7 +8965,7 @@
       </c>
       <c r="D40" s="9">
         <f>Orders!F40-Collection!H40</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8371,7 +8995,7 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8386,7 +9010,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8414,7 +9038,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8457,7 +9081,7 @@
       </c>
       <c r="D48" s="9">
         <f>Orders!F48-Collection!H48</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8472,7 +9096,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -8487,7 +9111,7 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8502,7 +9126,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -8530,7 +9154,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -8573,7 +9197,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -8603,7 +9227,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -8618,7 +9242,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -8633,7 +9257,7 @@
       </c>
       <c r="D60" s="9">
         <f>Orders!F60-Collection!H60</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -8646,7 +9270,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8736,7 +9360,7 @@
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -8751,20 +9375,22 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="7">
+        <v>8210273217</v>
+      </c>
       <c r="C69" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="9">
         <f>Orders!F69-Collection!H69</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8807,7 +9433,7 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8822,7 +9448,7 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -8882,7 +9508,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2200</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8897,7 +9523,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -8912,7 +9538,7 @@
       </c>
       <c r="D79" s="9">
         <f>Orders!F79-Collection!H79</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8938,7 +9564,7 @@
       </c>
       <c r="D81" s="9">
         <f>Orders!F81-Collection!H81</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8990,7 +9616,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="86" spans="1:4">

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -470,6 +470,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+5500-Digital
+500-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M72" authorId="0">
       <text>
         <r>
@@ -1054,11 +1077,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1077,9 +1100,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,97 +1223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,13 +1239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,7 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,13 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,7 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,7 +1390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1432,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,19 +1468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,43 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,37 +1504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1517,16 +1540,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,19 +1557,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,41 +1602,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,13 +1641,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1636,130 +1659,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1821,7 +1844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1874,7 +1897,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1889,7 +1912,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2224,12 +2247,12 @@
   <sheetPr/>
   <dimension ref="A1:AS114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2373,22 +2396,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="26">
         <f>SUM(F3:F121)</f>
-        <v>1141900</v>
+        <v>1241900</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>1006720</v>
+        <v>1110720</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="27">
         <f>G2/1.04+H2</f>
-        <v>1141900</v>
+        <v>1241900</v>
       </c>
       <c r="G2" s="14">
         <f>SUM(I2:AM2)</f>
-        <v>1006720</v>
+        <v>1110720</v>
       </c>
       <c r="H2" s="28">
         <f>SUM(H3:H121)</f>
@@ -2484,15 +2507,15 @@
       </c>
       <c r="AE2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45760</v>
       </c>
       <c r="AF2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23920</v>
       </c>
       <c r="AG2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34320</v>
       </c>
       <c r="AH2" s="11">
         <f t="shared" si="0"/>
@@ -2581,7 +2604,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:18">
+    <row r="5" s="10" customFormat="1" spans="1:32">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2596,11 +2619,11 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H5" s="29">
         <v>2500</v>
@@ -2618,6 +2641,9 @@
         <v>1040</v>
       </c>
       <c r="R5" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AF5" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -2661,7 +2687,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:30">
+    <row r="7" s="10" customFormat="1" spans="1:33">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2676,11 +2702,11 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="2"/>
-        <v>49920</v>
+        <v>58240</v>
       </c>
       <c r="H7" s="29">
         <v>12000</v>
@@ -2741,6 +2767,15 @@
       </c>
       <c r="AD7" s="10">
         <v>2080</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>4160</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:26">
@@ -2811,7 +2846,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:27">
+    <row r="10" s="10" customFormat="1" spans="1:31">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2826,11 +2861,11 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="2"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H10" s="29">
         <v>0</v>
@@ -2853,8 +2888,11 @@
       <c r="AA10" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:27">
+      <c r="AE10" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:32">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2866,11 +2904,11 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H11" s="29">
         <v>0</v>
@@ -2882,6 +2920,12 @@
         <v>2080</v>
       </c>
       <c r="AA11" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AF11" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -2922,7 +2966,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:28">
+    <row r="13" s="10" customFormat="1" spans="1:32">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2934,11 +2978,11 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H13" s="29">
         <v>0</v>
@@ -2958,8 +3002,11 @@
       <c r="AB13" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:30">
+      <c r="AF13" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:33">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2971,11 +3018,11 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="2"/>
-        <v>41600</v>
+        <v>46800</v>
       </c>
       <c r="H14" s="29">
         <v>5000</v>
@@ -3004,8 +3051,11 @@
       <c r="AD14" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:27">
+      <c r="AG14" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:31">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3020,11 +3070,11 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H15" s="29">
         <v>2000</v>
@@ -3042,6 +3092,9 @@
         <v>2080</v>
       </c>
       <c r="AA15" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AE15" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -3221,7 +3274,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:27">
+    <row r="21" s="10" customFormat="1" spans="1:31">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -3233,11 +3286,11 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="2"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H21" s="29">
         <v>0</v>
@@ -3260,8 +3313,11 @@
       <c r="AA21" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:30">
+      <c r="AE21" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:32">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -3273,11 +3329,11 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="2"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="H22" s="29">
         <v>1000</v>
@@ -3300,8 +3356,11 @@
       <c r="AD22" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:23">
+      <c r="AF22" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:31">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -3313,11 +3372,11 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="2"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H23" s="29">
         <v>5000</v>
@@ -3329,6 +3388,9 @@
         <v>5200</v>
       </c>
       <c r="W23" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AE23" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -3449,7 +3511,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" spans="1:29">
+    <row r="27" s="10" customFormat="1" spans="1:32">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -3461,11 +3523,11 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="2"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H27" s="29">
         <v>3000</v>
@@ -3488,8 +3550,11 @@
       <c r="AC27" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:29">
+      <c r="AF27" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:33">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -3501,11 +3566,11 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="2"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H28" s="29">
         <v>2000</v>
@@ -3520,6 +3585,9 @@
         <v>2080</v>
       </c>
       <c r="AC28" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AG28" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -3585,7 +3653,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:22">
+    <row r="31" s="10" customFormat="1" spans="1:31">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -3597,11 +3665,11 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="2"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H31" s="29">
         <v>5000</v>
@@ -3612,8 +3680,11 @@
       <c r="V31" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="32" s="10" customFormat="1" spans="1:30">
+      <c r="AE31" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:33">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -3625,11 +3696,11 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="3"/>
-        <v>46000</v>
+        <v>51000</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="2"/>
-        <v>47840</v>
+        <v>53040</v>
       </c>
       <c r="H32" s="29">
         <v>0</v>
@@ -3662,6 +3733,9 @@
         <v>5200</v>
       </c>
       <c r="AD32" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AG32" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -3699,7 +3773,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:29">
+    <row r="34" s="10" customFormat="1" spans="1:32">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -3711,11 +3785,11 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="2"/>
-        <v>9360</v>
+        <v>10400</v>
       </c>
       <c r="H34" s="29">
         <v>2000</v>
@@ -3745,6 +3819,9 @@
         <v>1040</v>
       </c>
       <c r="AC34" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AF34" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -3974,7 +4051,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" spans="1:27">
+    <row r="42" s="10" customFormat="1" spans="1:31">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -3986,11 +4063,11 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H42" s="29">
         <v>0</v>
@@ -4004,8 +4081,11 @@
       <c r="AA42" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="43" s="10" customFormat="1" spans="1:28">
+      <c r="AE42" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:33">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -4017,11 +4097,11 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>39000</v>
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>31200</v>
+        <v>37440</v>
       </c>
       <c r="H43" s="29">
         <v>3000</v>
@@ -4054,6 +4134,12 @@
         <v>3120</v>
       </c>
       <c r="AB43" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AG43" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4082,7 +4168,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="1" spans="1:29">
+    <row r="45" s="10" customFormat="1" spans="1:31">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -4094,11 +4180,11 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="3"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H45" s="29">
         <v>0</v>
@@ -4122,6 +4208,9 @@
         <v>3120</v>
       </c>
       <c r="AC45" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AE45" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4159,7 +4248,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:27">
+    <row r="47" s="10" customFormat="1" spans="1:31">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -4171,11 +4260,11 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H47" s="29">
         <v>0</v>
@@ -4187,6 +4276,9 @@
         <v>3120</v>
       </c>
       <c r="AA47" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AE47" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4218,7 +4310,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" spans="1:29">
+    <row r="49" s="10" customFormat="1" spans="1:31">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -4230,11 +4322,11 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="3"/>
-        <v>36000</v>
+        <v>39000</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>31200</v>
+        <v>34320</v>
       </c>
       <c r="H49" s="29">
         <v>6000</v>
@@ -4269,8 +4361,11 @@
       <c r="AC49" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:30">
+      <c r="AE49" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:33">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -4282,11 +4377,11 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="4"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H50" s="29">
         <v>6000</v>
@@ -4307,6 +4402,9 @@
         <v>3120</v>
       </c>
       <c r="AD50" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AG50" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4357,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:30">
+    <row r="53" s="10" customFormat="1" spans="1:32">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -4369,11 +4467,11 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="H53" s="29">
         <v>1000</v>
@@ -4420,8 +4518,14 @@
       <c r="AD53" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="54" s="10" customFormat="1" spans="1:30">
+      <c r="AE53" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AF53" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:33">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -4433,11 +4537,11 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>16640</v>
+        <v>18720</v>
       </c>
       <c r="H54" s="29">
         <v>2000</v>
@@ -4464,6 +4568,9 @@
         <v>2080</v>
       </c>
       <c r="AD54" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AG54" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4490,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" spans="1:29">
+    <row r="56" s="10" customFormat="1" spans="1:33">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -4503,11 +4610,11 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="H56" s="29">
         <v>1000</v>
@@ -4525,6 +4632,9 @@
         <v>1040</v>
       </c>
       <c r="AC56" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AG56" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -4591,7 +4701,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="1" spans="1:28">
+    <row r="59" s="10" customFormat="1" spans="1:33">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -4603,11 +4713,11 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>26000</v>
+        <v>31200</v>
       </c>
       <c r="H59" s="29">
         <v>5000</v>
@@ -4625,6 +4735,9 @@
         <v>5200</v>
       </c>
       <c r="AB59" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AG59" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -4662,7 +4775,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:29">
+    <row r="61" s="10" customFormat="1" spans="1:31">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -4674,11 +4787,11 @@
       </c>
       <c r="F61" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H61" s="29">
         <v>0</v>
@@ -4690,6 +4803,9 @@
         <v>2080</v>
       </c>
       <c r="AC61" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AE61" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4782,7 +4898,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:28">
+    <row r="65" s="10" customFormat="1" spans="1:32">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -4797,11 +4913,11 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H65" s="23">
         <v>0</v>
@@ -4819,6 +4935,9 @@
         <v>2080</v>
       </c>
       <c r="AB65" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AF65" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4886,7 +5005,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:25">
+    <row r="68" s="10" customFormat="1" spans="1:32">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -4898,11 +5017,11 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G68" s="11">
         <f t="shared" ref="G68:G96" si="5">SUM(I68:AM68)</f>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H68" s="29">
         <v>2000</v>
@@ -4919,8 +5038,11 @@
       <c r="Y68" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:24">
+      <c r="AF68" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:33">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -4932,11 +5054,11 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G69" s="11">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H69" s="29">
         <v>0</v>
@@ -4948,6 +5070,9 @@
         <v>2080</v>
       </c>
       <c r="X69" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AG69" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4979,7 +5104,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="71" s="10" customFormat="1" spans="1:24">
+    <row r="71" s="10" customFormat="1" spans="1:31">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -4991,11 +5116,11 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G71" s="11">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H71" s="29">
         <v>0</v>
@@ -5007,6 +5132,9 @@
         <v>1040</v>
       </c>
       <c r="X71" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AE71" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -5188,7 +5316,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:28">
+    <row r="77" s="10" customFormat="1" spans="1:33">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -5200,11 +5328,11 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="3"/>
-        <v>12300</v>
+        <v>14300</v>
       </c>
       <c r="G77" s="11">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H77" s="29">
         <v>2300</v>
@@ -5237,6 +5365,12 @@
         <v>1040</v>
       </c>
       <c r="AB77" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AG77" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -5362,7 +5496,7 @@
       <c r="X80" s="35"/>
       <c r="Y80" s="35"/>
     </row>
-    <row r="81" s="10" customFormat="1" spans="1:19">
+    <row r="81" s="10" customFormat="1" spans="1:31">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -5375,11 +5509,11 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G81" s="11">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H81" s="29">
         <v>2000</v>
@@ -5398,6 +5532,9 @@
       </c>
       <c r="S81" s="10">
         <v>1040</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>2080</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:8">
@@ -5570,7 +5707,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="1" spans="1:26">
+    <row r="88" s="10" customFormat="1" spans="1:32">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -5583,11 +5720,11 @@
       </c>
       <c r="F88" s="11">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G88" s="11">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H88" s="29">
         <v>0</v>
@@ -5614,6 +5751,9 @@
         <v>2080</v>
       </c>
       <c r="Z88" s="35"/>
+      <c r="AF88" s="10">
+        <v>2080</v>
+      </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:8">
       <c r="A89" s="10">
@@ -5704,7 +5844,7 @@
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
     </row>
-    <row r="92" s="10" customFormat="1" spans="1:27">
+    <row r="92" s="10" customFormat="1" spans="1:32">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -5713,11 +5853,11 @@
       </c>
       <c r="F92" s="11">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G92" s="11">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H92" s="29">
         <v>0</v>
@@ -5726,6 +5866,9 @@
         <v>2080</v>
       </c>
       <c r="AA92" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AF92" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -5880,12 +6023,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="X62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="Z84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD64" sqref="AD64"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6032,14 +6175,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>962200</v>
+        <v>1039500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>962200</v>
+        <v>1039500</v>
       </c>
       <c r="I2" s="11">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -6131,11 +6274,11 @@
       </c>
       <c r="AE2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41800</v>
       </c>
       <c r="AF2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="AG2" s="11">
         <f t="shared" si="1"/>
@@ -6200,7 +6343,7 @@
       </c>
       <c r="AB3" s="21"/>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:28">
+    <row r="4" s="10" customFormat="1" spans="1:31">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -6224,7 +6367,7 @@
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H35" si="2">SUM(I4:AM4)</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" s="19">
         <v>2000</v>
@@ -6233,6 +6376,9 @@
         <v>1000</v>
       </c>
       <c r="AB4" s="21"/>
+      <c r="AE4" s="19">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:28">
       <c r="A5" s="10">
@@ -6517,7 +6663,7 @@
       </c>
       <c r="AB11" s="21"/>
     </row>
-    <row r="12" s="10" customFormat="1" spans="1:30">
+    <row r="12" s="10" customFormat="1" spans="1:31">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6535,7 +6681,7 @@
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="O12" s="10">
         <v>600</v>
@@ -6559,8 +6705,11 @@
       <c r="AD12" s="10">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:30">
+      <c r="AE12" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:32">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6578,7 +6727,7 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N13" s="19">
         <v>10000</v>
@@ -6593,8 +6742,11 @@
       <c r="AD13" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:30">
+      <c r="AF13" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:32">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6618,7 +6770,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>43000</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
@@ -6650,8 +6802,14 @@
       <c r="AD14" s="10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:28">
+      <c r="AE14" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:32">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6672,7 +6830,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="K15" s="10">
         <v>4000</v>
@@ -6687,6 +6845,9 @@
         <v>2000</v>
       </c>
       <c r="AB15" s="21">
+        <v>2000</v>
+      </c>
+      <c r="AF15" s="10">
         <v>2000</v>
       </c>
     </row>
@@ -6859,7 +7020,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:28">
+    <row r="21" s="10" customFormat="1" spans="1:31">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -6883,7 +7044,7 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="K21" s="10">
         <v>2000</v>
@@ -6903,8 +7064,11 @@
       <c r="AB21" s="21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:28">
+      <c r="AE21" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:31">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -6922,7 +7086,7 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I22" s="10">
         <v>1000</v>
@@ -6945,8 +7109,11 @@
       <c r="AB22" s="21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:28">
+      <c r="AE22" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:32">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -6970,7 +7137,7 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O23" s="19">
         <v>10000</v>
@@ -6979,6 +7146,9 @@
         <v>10000</v>
       </c>
       <c r="AB23" s="21"/>
+      <c r="AF23" s="19">
+        <v>5000</v>
+      </c>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:30">
       <c r="A24" s="10">
@@ -7103,7 +7273,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" spans="1:30">
+    <row r="27" s="10" customFormat="1" spans="1:31">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -7121,7 +7291,7 @@
       </c>
       <c r="H27" s="11">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="I27" s="10">
         <v>3000</v>
@@ -7145,8 +7315,11 @@
       <c r="AD27" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:30">
+      <c r="AE27" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:32">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -7167,7 +7340,7 @@
       </c>
       <c r="H28" s="11">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="K28" s="10">
         <v>1000</v>
@@ -7191,6 +7364,9 @@
       <c r="AD28" s="10">
         <v>1500</v>
       </c>
+      <c r="AF28" s="10">
+        <v>1500</v>
+      </c>
     </row>
     <row r="29" s="10" customFormat="1" spans="1:28">
       <c r="A29" s="10">
@@ -7262,7 +7438,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:28">
+    <row r="31" s="10" customFormat="1" spans="1:32">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -7283,7 +7459,7 @@
       </c>
       <c r="H31" s="11">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I31" s="10">
         <v>5000</v>
@@ -7295,6 +7471,9 @@
         <v>5000</v>
       </c>
       <c r="AB31" s="21"/>
+      <c r="AF31" s="19">
+        <v>5000</v>
+      </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:28">
       <c r="A32" s="10">
@@ -7431,7 +7610,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:28">
+    <row r="35" s="10" customFormat="1" spans="1:31">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -7446,7 +7625,7 @@
       </c>
       <c r="H35" s="11">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I35" s="10">
         <v>1000</v>
@@ -7464,6 +7643,9 @@
         <v>1000</v>
       </c>
       <c r="AB35" s="21"/>
+      <c r="AE35" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:28">
       <c r="A36" s="10">
@@ -7546,7 +7728,7 @@
       </c>
       <c r="AB38" s="21"/>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:28">
+    <row r="39" s="10" customFormat="1" spans="1:31">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -7567,7 +7749,7 @@
       </c>
       <c r="H39" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q39" s="10">
         <v>3000</v>
@@ -7577,6 +7759,9 @@
       </c>
       <c r="AB39" s="22">
         <v>2000</v>
+      </c>
+      <c r="AE39" s="19">
+        <v>1000</v>
       </c>
     </row>
     <row r="40" s="10" customFormat="1" spans="1:28">
@@ -7670,7 +7855,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:30">
+    <row r="43" s="10" customFormat="1" spans="1:31">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7688,7 +7873,7 @@
       </c>
       <c r="H43" s="11">
         <f t="shared" si="3"/>
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="I43" s="10">
         <v>3000</v>
@@ -7722,6 +7907,9 @@
       </c>
       <c r="AD43" s="10">
         <v>1000</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>3000</v>
       </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:28">
@@ -7826,7 +8014,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:28">
+    <row r="47" s="10" customFormat="1" spans="1:32">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -7841,7 +8029,7 @@
       </c>
       <c r="H47" s="11">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M47" s="10">
         <v>3000</v>
@@ -7853,6 +8041,9 @@
         <v>3000</v>
       </c>
       <c r="AB47" s="21"/>
+      <c r="AF47" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="48" s="10" customFormat="1" spans="1:28">
       <c r="A48" s="10">
@@ -7888,7 +8079,7 @@
       </c>
       <c r="AB48" s="21"/>
     </row>
-    <row r="49" s="10" customFormat="1" spans="1:28">
+    <row r="49" s="10" customFormat="1" spans="1:31">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -7912,7 +8103,7 @@
       </c>
       <c r="H49" s="11">
         <f t="shared" si="3"/>
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="K49" s="10">
         <v>6000</v>
@@ -7933,6 +8124,9 @@
         <v>5000</v>
       </c>
       <c r="AB49" s="21"/>
+      <c r="AE49" s="19">
+        <v>6000</v>
+      </c>
     </row>
     <row r="50" s="10" customFormat="1" spans="1:28">
       <c r="A50" s="10">
@@ -8027,7 +8221,7 @@
       </c>
       <c r="AB52" s="21"/>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:29">
+    <row r="53" s="10" customFormat="1" spans="1:31">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -8048,7 +8242,7 @@
       </c>
       <c r="H53" s="11">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K53" s="10">
         <v>3000</v>
@@ -8064,6 +8258,9 @@
       </c>
       <c r="AB53" s="21"/>
       <c r="AC53" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AE53" s="19">
         <v>2000</v>
       </c>
     </row>
@@ -8176,7 +8373,7 @@
       </c>
       <c r="AB57" s="21"/>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:28">
+    <row r="58" s="10" customFormat="1" spans="1:31">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -8194,7 +8391,7 @@
       </c>
       <c r="H58" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q58" s="10">
         <v>4000</v>
@@ -8205,8 +8402,11 @@
       <c r="AB58" s="21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" s="10" customFormat="1" spans="1:28">
+      <c r="AE58" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:32">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -8227,7 +8427,7 @@
       </c>
       <c r="H59" s="11">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O59" s="19">
         <v>10000</v>
@@ -8236,6 +8436,9 @@
         <v>10000</v>
       </c>
       <c r="AB59" s="21"/>
+      <c r="AF59" s="19">
+        <v>10000</v>
+      </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:28">
       <c r="A60" s="10">
@@ -8267,7 +8470,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:28">
+    <row r="61" s="10" customFormat="1" spans="1:31">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -8285,7 +8488,7 @@
       </c>
       <c r="H61" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P61" s="10">
         <v>1000</v>
@@ -8297,6 +8500,9 @@
         <v>4000</v>
       </c>
       <c r="AB61" s="21"/>
+      <c r="AE61" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:28">
       <c r="A62" s="10">
@@ -8388,7 +8594,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:28">
+    <row r="65" s="10" customFormat="1" spans="1:32">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -8412,7 +8618,7 @@
       </c>
       <c r="H65" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J65" s="19">
         <v>2000</v>
@@ -8427,6 +8633,9 @@
         <v>2000</v>
       </c>
       <c r="AB65" s="22">
+        <v>2000</v>
+      </c>
+      <c r="AF65" s="19">
         <v>2000</v>
       </c>
     </row>
@@ -8510,7 +8719,7 @@
       </c>
       <c r="AB68" s="21"/>
     </row>
-    <row r="69" s="10" customFormat="1" spans="1:28">
+    <row r="69" s="10" customFormat="1" spans="1:31">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -8525,7 +8734,7 @@
       </c>
       <c r="H69" s="11">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M69" s="10">
         <v>2000</v>
@@ -8537,6 +8746,9 @@
         <v>1000</v>
       </c>
       <c r="AB69" s="21"/>
+      <c r="AE69" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:28">
       <c r="A70" s="10">
@@ -8591,7 +8803,7 @@
       </c>
       <c r="AB71" s="21"/>
     </row>
-    <row r="72" s="10" customFormat="1" spans="1:28">
+    <row r="72" s="10" customFormat="1" spans="1:31">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -8606,7 +8818,7 @@
       </c>
       <c r="H72" s="11">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M72" s="19">
         <v>10000</v>
@@ -8624,6 +8836,9 @@
         <v>5000</v>
       </c>
       <c r="AB72" s="21"/>
+      <c r="AE72" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:30">
       <c r="A73" s="10">
@@ -8665,7 +8880,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="1" spans="1:28">
+    <row r="74" s="10" customFormat="1" spans="1:31">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -8689,7 +8904,7 @@
       </c>
       <c r="H74" s="11">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O74" s="10">
         <v>3000</v>
@@ -8701,6 +8916,9 @@
         <v>4000</v>
       </c>
       <c r="AB74" s="21"/>
+      <c r="AE74" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="75" s="10" customFormat="1" spans="1:28">
       <c r="A75" s="10">
@@ -8749,7 +8967,7 @@
       </c>
       <c r="AB76" s="21"/>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:30">
+    <row r="77" s="10" customFormat="1" spans="1:32">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -8773,7 +8991,7 @@
       </c>
       <c r="H77" s="11">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L77" s="10">
         <v>2000</v>
@@ -8797,6 +9015,12 @@
         <v>500</v>
       </c>
       <c r="AD77" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>500</v>
+      </c>
+      <c r="AF77" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -8896,7 +9120,7 @@
       </c>
       <c r="AB80" s="21"/>
     </row>
-    <row r="81" s="10" customFormat="1" spans="1:30">
+    <row r="81" s="10" customFormat="1" spans="1:31">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -8920,7 +9144,7 @@
       </c>
       <c r="H81" s="11">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L81" s="19">
         <v>2000</v>
@@ -8935,6 +9159,9 @@
       <c r="AD81" s="19">
         <v>1000</v>
       </c>
+      <c r="AE81" s="19">
+        <v>2000</v>
+      </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:28">
       <c r="A82" s="10">
@@ -9024,7 +9251,7 @@
       </c>
       <c r="AB85" s="21"/>
     </row>
-    <row r="86" s="10" customFormat="1" spans="1:28">
+    <row r="86" s="10" customFormat="1" spans="1:31">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -9042,12 +9269,15 @@
       </c>
       <c r="H86" s="11">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I86" s="10">
         <v>5000</v>
       </c>
       <c r="AB86" s="21"/>
+      <c r="AE86" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:28">
       <c r="A87" s="10">
@@ -9089,6 +9319,9 @@
       </c>
       <c r="D88" s="10" t="s">
         <v>179</v>
+      </c>
+      <c r="E88" s="10">
+        <v>9911430509</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>117</v>
@@ -9317,11 +9550,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D94"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9357,7 +9590,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>179700</v>
+        <v>202400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9375,7 +9608,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" hidden="1" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -9387,7 +9620,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9402,7 +9635,7 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9432,10 +9665,10 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -9450,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -9477,7 +9710,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9492,10 +9725,10 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -9507,10 +9740,10 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -9537,10 +9770,10 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -9600,7 +9833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -9630,7 +9863,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
@@ -9660,7 +9893,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -9675,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" hidden="1" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -9690,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" hidden="1" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -9705,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
@@ -9732,7 +9965,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9747,10 +9980,10 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
@@ -9765,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -9780,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -9807,10 +10040,10 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -9837,10 +10070,10 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -9852,10 +10085,10 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -9870,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
@@ -9885,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>51</v>
       </c>
@@ -9910,10 +10143,10 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -9928,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
@@ -9955,7 +10188,7 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -9970,10 +10203,10 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -9998,10 +10231,10 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>64</v>
       </c>
@@ -10028,10 +10261,10 @@
       </c>
       <c r="D47" s="9">
         <f>Orders!F47-Collection!H47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="7" t="s">
         <v>64</v>
       </c>
@@ -10056,7 +10289,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10071,10 +10304,10 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -10089,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
@@ -10129,10 +10362,10 @@
       </c>
       <c r="D54" s="9">
         <f>Orders!F54-Collection!H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="7" t="s">
         <v>64</v>
       </c>
@@ -10157,10 +10390,10 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
@@ -10175,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>77</v>
       </c>
@@ -10187,7 +10420,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -10202,10 +10435,10 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="7" t="s">
         <v>77</v>
       </c>
@@ -10220,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="7" t="s">
         <v>77</v>
       </c>
@@ -10265,7 +10498,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="7" t="s">
         <v>82</v>
       </c>
@@ -10280,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="7" t="s">
         <v>87</v>
       </c>
@@ -10337,10 +10570,10 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
@@ -10355,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="7" t="s">
         <v>92</v>
       </c>
@@ -10382,10 +10615,10 @@
       </c>
       <c r="D71" s="9">
         <f>Orders!F71-Collection!H71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="7" t="s">
         <v>92</v>
       </c>
@@ -10397,10 +10630,10 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="7" t="s">
         <v>92</v>
       </c>
@@ -10415,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="7" t="s">
         <v>92</v>
       </c>
@@ -10427,10 +10660,10 @@
       </c>
       <c r="D74" s="9">
         <f>Orders!F74-Collection!H74</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="7" t="s">
         <v>92</v>
       </c>
@@ -10445,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="7" t="s">
         <v>92</v>
       </c>
@@ -10472,10 +10705,10 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="7" t="s">
         <v>102</v>
       </c>
@@ -10505,7 +10738,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
@@ -10516,7 +10749,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="7" t="s">
         <v>107</v>
       </c>
@@ -10531,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
@@ -10542,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="7" t="s">
         <v>110</v>
       </c>
@@ -10557,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
@@ -10583,7 +10816,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="7" t="s">
         <v>113</v>
       </c>
@@ -10595,10 +10828,10 @@
       </c>
       <c r="D86" s="9">
         <f>Orders!F86-Collection!H86</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="7" t="s">
         <v>113</v>
       </c>
@@ -10617,16 +10850,18 @@
       <c r="A88" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="7">
+        <v>9911430509</v>
+      </c>
       <c r="C88" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
@@ -10637,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
@@ -10648,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
@@ -10669,10 +10904,10 @@
       </c>
       <c r="D92" s="9">
         <f>Orders!F92-Collection!H92</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
@@ -10696,7 +10931,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
@@ -10707,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
@@ -10720,6 +10955,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="500"/>
+        <filter val="1000"/>
+        <filter val="1100"/>
+        <filter val="2000"/>
+        <filter val="2300"/>
+        <filter val="2500"/>
+        <filter val="3000"/>
+        <filter val="5000"/>
+        <filter val="6000"/>
+        <filter val="7000"/>
+        <filter val="15000"/>
+        <filter val="24000"/>
+        <filter val="202400"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -162,6 +162,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O22" authorId="0">
       <text>
         <r>
@@ -264,6 +287,52 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500-Digital
+500-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+9000-Digital
+1000-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N13" authorId="0">
       <text>
         <r>
@@ -329,6 +398,29 @@
           </rPr>
           <t xml:space="preserve">
 Udhari</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2500-Digital
+500-Cash</t>
         </r>
       </text>
     </comment>
@@ -447,6 +539,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1500-Cash
+1500-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U49" authorId="0">
       <text>
         <r>
@@ -516,12 +631,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1000-Digital
+100-Digital
+900-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ92" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Digital
+2000-Digital</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="186">
   <si>
     <t>S.No.</t>
   </si>
@@ -988,6 +1150,9 @@
     <t>HARENDRA</t>
   </si>
   <si>
+    <t>CHANDAN</t>
+  </si>
+  <si>
     <t>Deepak 7004687745</t>
   </si>
   <si>
@@ -1036,6 +1201,9 @@
     <t>Rajiv Kr/ Rajeev Kamal</t>
   </si>
   <si>
+    <t>RAVINDRA /Rajiv Kr/ Rajeev Kamal</t>
+  </si>
+  <si>
     <t>Brajesh Kr.</t>
   </si>
   <si>
@@ -1064,6 +1232,9 @@
   </si>
   <si>
     <t>MD Aslam</t>
+  </si>
+  <si>
+    <t>Vikas Kr</t>
   </si>
   <si>
     <t>Tawakala</t>
@@ -1077,10 +1248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -1102,7 +1273,66 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,106 +1346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,6 +1362,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1238,7 +1394,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,7 +1501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,13 +1561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,49 +1579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,13 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,25 +1621,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,36 +1682,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,6 +1710,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1557,8 +1737,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1573,6 +1753,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1604,15 +1799,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1621,33 +1807,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1659,130 +1830,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,6 +2031,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1881,10 +2056,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2248,11 +2419,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AJ27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2263,33 +2434,33 @@
     <col min="5" max="5" width="51.1428571428571" style="10" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" style="10" customWidth="1"/>
     <col min="7" max="7" width="11" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20" style="23" customWidth="1"/>
+    <col min="8" max="8" width="20" style="24" customWidth="1"/>
     <col min="9" max="16384" width="9.14285714285714" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:45">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="34">
@@ -2394,155 +2565,155 @@
     </row>
     <row r="2" s="11" customFormat="1" spans="1:39">
       <c r="A2" s="13"/>
-      <c r="B2" s="26">
+      <c r="B2" s="27">
         <f>SUM(F3:F121)</f>
-        <v>1241900</v>
+        <v>1409400</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>1110720</v>
+        <v>1284920</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="28">
         <f>G2/1.04+H2</f>
-        <v>1241900</v>
+        <v>1409400</v>
       </c>
       <c r="G2" s="14">
-        <f>SUM(I2:AM2)</f>
-        <v>1110720</v>
-      </c>
-      <c r="H2" s="28">
-        <f>SUM(H3:H121)</f>
+        <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
+        <v>1284920</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" ref="H2:AM2" si="1">SUM(H3:H121)</f>
         <v>173900</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(I3:I121)</f>
+        <f t="shared" si="1"/>
         <v>44720</v>
       </c>
       <c r="J2" s="11">
-        <f t="shared" ref="J2:AM2" si="0">SUM(J3:J121)</f>
+        <f t="shared" si="1"/>
         <v>49920</v>
       </c>
       <c r="K2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38480</v>
       </c>
       <c r="L2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54080</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60320</v>
       </c>
       <c r="N2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41600</v>
       </c>
       <c r="O2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45760</v>
       </c>
       <c r="P2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46280</v>
       </c>
       <c r="Q2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52000</v>
       </c>
       <c r="R2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20800</v>
       </c>
       <c r="S2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65520</v>
       </c>
       <c r="T2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45760</v>
       </c>
       <c r="U2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42120</v>
       </c>
       <c r="V2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50960</v>
       </c>
       <c r="W2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44720</v>
       </c>
       <c r="X2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59280</v>
       </c>
       <c r="Y2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27040</v>
       </c>
       <c r="Z2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29120</v>
       </c>
       <c r="AA2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48880</v>
       </c>
       <c r="AB2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50960</v>
       </c>
       <c r="AC2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41600</v>
       </c>
       <c r="AD2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46800</v>
       </c>
       <c r="AE2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45760</v>
       </c>
       <c r="AF2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23920</v>
       </c>
       <c r="AG2" s="11">
-        <f t="shared" si="0"/>
-        <v>34320</v>
+        <f t="shared" si="1"/>
+        <v>53040</v>
       </c>
       <c r="AH2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>46800</v>
       </c>
       <c r="AI2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>30160</v>
       </c>
       <c r="AJ2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>44200</v>
       </c>
       <c r="AK2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>31200</v>
       </c>
       <c r="AL2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3120</v>
       </c>
       <c r="AM2" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:36">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2553,14 +2724,14 @@
         <v>10</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F2:F18" si="1">G3/1.04+H3</f>
-        <v>9000</v>
+        <f t="shared" ref="F2:F18" si="2">G3/1.04+H3</f>
+        <v>12000</v>
       </c>
       <c r="G3" s="11">
-        <f>SUM(I3:AM3)</f>
-        <v>9360</v>
-      </c>
-      <c r="H3" s="29">
+        <f t="shared" si="0"/>
+        <v>12480</v>
+      </c>
+      <c r="H3" s="30">
         <v>0</v>
       </c>
       <c r="N3" s="10">
@@ -2572,8 +2743,11 @@
       <c r="AD3" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="4" s="10" customFormat="1" spans="1:28">
+      <c r="AJ3" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:34">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2584,14 +2758,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" ref="G4:G35" si="2">SUM(I4:AM4)</f>
-        <v>3120</v>
-      </c>
-      <c r="H4" s="29">
+        <f t="shared" si="0"/>
+        <v>4160</v>
+      </c>
+      <c r="H4" s="30">
         <v>1000</v>
       </c>
       <c r="L4" s="10">
@@ -2601,6 +2775,9 @@
         <v>1040</v>
       </c>
       <c r="AB4" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AH4" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -2618,14 +2795,14 @@
         <v>13</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9500</v>
       </c>
       <c r="G5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7280</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="30">
         <v>2500</v>
       </c>
       <c r="J5" s="10">
@@ -2647,7 +2824,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:27">
+    <row r="6" s="10" customFormat="1" spans="1:34">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2661,14 +2838,14 @@
         <v>15</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="1"/>
-        <v>20500</v>
+        <f t="shared" si="2"/>
+        <v>25500</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="2"/>
-        <v>21320</v>
-      </c>
-      <c r="H6" s="29">
+        <f t="shared" si="0"/>
+        <v>26520</v>
+      </c>
+      <c r="H6" s="30">
         <v>0</v>
       </c>
       <c r="J6" s="10">
@@ -2686,8 +2863,11 @@
       <c r="AA6" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:33">
+      <c r="AH6" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:37">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2701,14 +2881,14 @@
         <v>17</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="1"/>
-        <v>68000</v>
+        <f t="shared" si="2"/>
+        <v>74000</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" si="2"/>
-        <v>58240</v>
-      </c>
-      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>64480</v>
+      </c>
+      <c r="H7" s="30">
         <v>12000</v>
       </c>
       <c r="I7" s="10">
@@ -2777,8 +2957,14 @@
       <c r="AG7" s="10">
         <v>4160</v>
       </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:26">
+      <c r="AJ7" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:34">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2792,14 +2978,14 @@
         <v>19</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <f t="shared" si="2"/>
+        <v>10000</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="2"/>
-        <v>8320</v>
-      </c>
-      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="H8" s="30">
         <v>0</v>
       </c>
       <c r="J8" s="10">
@@ -2814,8 +3000,11 @@
       <c r="Z8" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="AH8" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:35">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2826,14 +3015,14 @@
         <v>20</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>6000</v>
+        <f t="shared" si="2"/>
+        <v>8000</v>
       </c>
       <c r="G9" s="11">
-        <f t="shared" si="2"/>
-        <v>6240</v>
-      </c>
-      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>8320</v>
+      </c>
+      <c r="H9" s="30">
         <v>0</v>
       </c>
       <c r="L9" s="10">
@@ -2845,8 +3034,11 @@
       <c r="Y9" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:31">
+      <c r="AI9" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:35">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2860,14 +3052,14 @@
         <v>22</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="1"/>
-        <v>35000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="2"/>
-        <v>36400</v>
-      </c>
-      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>41600</v>
+      </c>
+      <c r="H10" s="30">
         <v>0</v>
       </c>
       <c r="I10" s="10">
@@ -2889,6 +3081,9 @@
         <v>5200</v>
       </c>
       <c r="AE10" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AI10" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -2903,14 +3098,14 @@
         <v>24</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="30">
         <v>0</v>
       </c>
       <c r="I11" s="10">
@@ -2929,7 +3124,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1" spans="1:30">
+    <row r="12" s="10" customFormat="1" spans="1:36">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2940,14 +3135,14 @@
         <v>25</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="2"/>
-        <v>5200</v>
-      </c>
-      <c r="H12" s="29">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="H12" s="30">
         <v>0</v>
       </c>
       <c r="M12" s="10">
@@ -2963,6 +3158,9 @@
         <v>1040</v>
       </c>
       <c r="AD12" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AJ12" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -2977,14 +3175,14 @@
         <v>26</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="10">
@@ -3006,7 +3204,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="1" spans="1:33">
+    <row r="14" s="10" customFormat="1" spans="1:37">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -3017,14 +3215,14 @@
         <v>27</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="1"/>
-        <v>50000</v>
+        <f t="shared" si="2"/>
+        <v>57000</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="2"/>
-        <v>46800</v>
-      </c>
-      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>54080</v>
+      </c>
+      <c r="H14" s="30">
         <v>5000</v>
       </c>
       <c r="J14" s="10">
@@ -3054,8 +3252,14 @@
       <c r="AG14" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:31">
+      <c r="AJ14" s="37">
+        <v>2080</v>
+      </c>
+      <c r="AK14" s="37">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:34">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3069,14 +3273,14 @@
         <v>29</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="1"/>
-        <v>14000</v>
+        <f t="shared" si="2"/>
+        <v>16000</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="2"/>
-        <v>12480</v>
-      </c>
-      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>14560</v>
+      </c>
+      <c r="H15" s="30">
         <v>2000</v>
       </c>
       <c r="K15" s="10">
@@ -3097,8 +3301,11 @@
       <c r="AE15" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:23">
+      <c r="AH15" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:35">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3109,14 +3316,14 @@
         <v>30</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="2"/>
-        <v>3120</v>
-      </c>
-      <c r="H16" s="29">
+        <f t="shared" si="0"/>
+        <v>4160</v>
+      </c>
+      <c r="H16" s="30">
         <v>2000</v>
       </c>
       <c r="L16" s="10">
@@ -3126,6 +3333,9 @@
         <v>1040</v>
       </c>
       <c r="W16" s="37">
+        <v>1040</v>
+      </c>
+      <c r="AI16" s="37">
         <v>1040</v>
       </c>
     </row>
@@ -3133,7 +3343,7 @@
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -3143,14 +3353,14 @@
         <v>32</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="2"/>
-        <v>2080</v>
-      </c>
-      <c r="H17" s="29">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="H17" s="30">
         <v>2000</v>
       </c>
       <c r="J17" s="10">
@@ -3177,14 +3387,14 @@
         <v>34</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="30">
         <v>1000</v>
       </c>
       <c r="I18" s="35"/>
@@ -3209,7 +3419,7 @@
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
     </row>
-    <row r="19" s="10" customFormat="1" spans="1:27">
+    <row r="19" s="10" customFormat="1" spans="1:33">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -3221,13 +3431,13 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" ref="F19:F82" si="3">G19/1.04+H19</f>
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="2"/>
-        <v>9360</v>
-      </c>
-      <c r="H19" s="29">
+        <f t="shared" si="0"/>
+        <v>12480</v>
+      </c>
+      <c r="H19" s="30">
         <v>1500</v>
       </c>
       <c r="N19" s="10">
@@ -3239,8 +3449,11 @@
       <c r="AA19" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:29">
+      <c r="AG19" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:33">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -3252,13 +3465,13 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="2"/>
-        <v>20800</v>
-      </c>
-      <c r="H20" s="29">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="H20" s="30">
         <v>5000</v>
       </c>
       <c r="J20" s="10">
@@ -3273,8 +3486,11 @@
       <c r="AC20" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:31">
+      <c r="AG20" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:36">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -3286,13 +3502,13 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="2"/>
-        <v>13520</v>
-      </c>
-      <c r="H21" s="29">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="H21" s="30">
         <v>0</v>
       </c>
       <c r="K21" s="10">
@@ -3316,8 +3532,11 @@
       <c r="AE21" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:32">
+      <c r="AJ21" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:34">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -3329,13 +3548,13 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="2"/>
-        <v>8320</v>
-      </c>
-      <c r="H22" s="29">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="H22" s="30">
         <v>1000</v>
       </c>
       <c r="J22" s="10">
@@ -3359,8 +3578,11 @@
       <c r="AF22" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:31">
+      <c r="AH22" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:36">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -3372,13 +3594,13 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="11">
-        <f t="shared" si="2"/>
-        <v>20800</v>
-      </c>
-      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="H23" s="30">
         <v>5000</v>
       </c>
       <c r="M23" s="10">
@@ -3393,8 +3615,11 @@
       <c r="AE23" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:30">
+      <c r="AJ23" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:36">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -3406,13 +3631,13 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" si="2"/>
-        <v>8320</v>
-      </c>
-      <c r="H24" s="29">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="H24" s="30">
         <v>0</v>
       </c>
       <c r="K24" s="10">
@@ -3436,8 +3661,11 @@
       <c r="AD24" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:22">
+      <c r="AJ24" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:36">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -3449,13 +3677,13 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="2"/>
-        <v>12480</v>
-      </c>
-      <c r="H25" s="29">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="H25" s="30">
         <v>0</v>
       </c>
       <c r="J25" s="10">
@@ -3470,8 +3698,11 @@
       <c r="V25" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:28">
+      <c r="AJ25" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:33">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -3483,13 +3714,13 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="2"/>
-        <v>31200</v>
-      </c>
-      <c r="H26" s="29">
+        <f t="shared" si="0"/>
+        <v>36400</v>
+      </c>
+      <c r="H26" s="30">
         <v>0</v>
       </c>
       <c r="K26" s="10">
@@ -3510,8 +3741,11 @@
       <c r="AB26" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:32">
+      <c r="AG26" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:36">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -3523,13 +3757,13 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="2"/>
-        <v>21840</v>
-      </c>
-      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>24960</v>
+      </c>
+      <c r="H27" s="30">
         <v>3000</v>
       </c>
       <c r="J27" s="10">
@@ -3551,6 +3785,9 @@
         <v>3120</v>
       </c>
       <c r="AF27" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AJ27" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -3569,10 +3806,10 @@
         <v>12000</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="30">
         <v>2000</v>
       </c>
       <c r="L28" s="10">
@@ -3606,10 +3843,10 @@
         <v>4000</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="30">
         <v>0</v>
       </c>
       <c r="P29" s="10">
@@ -3619,7 +3856,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:28">
+    <row r="30" s="10" customFormat="1" spans="1:37">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -3631,13 +3868,13 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="2"/>
-        <v>8320</v>
-      </c>
-      <c r="H30" s="29">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="H30" s="30">
         <v>2000</v>
       </c>
       <c r="L30" s="10">
@@ -3650,6 +3887,9 @@
         <v>2080</v>
       </c>
       <c r="AB30" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AK30" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -3668,10 +3908,10 @@
         <v>20000</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15600</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="30">
         <v>5000</v>
       </c>
       <c r="M31" s="10">
@@ -3684,7 +3924,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:33">
+    <row r="32" s="10" customFormat="1" spans="1:37">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -3696,13 +3936,13 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="3"/>
-        <v>51000</v>
+        <v>57000</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="2"/>
-        <v>53040</v>
-      </c>
-      <c r="H32" s="29">
+        <f t="shared" si="0"/>
+        <v>59280</v>
+      </c>
+      <c r="H32" s="30">
         <v>0</v>
       </c>
       <c r="I32" s="10">
@@ -3738,8 +3978,14 @@
       <c r="AG32" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:24">
+      <c r="AJ32" s="37">
+        <v>1040</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:34">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -3751,13 +3997,13 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G33" s="11">
-        <f t="shared" si="2"/>
-        <v>7280</v>
-      </c>
-      <c r="H33" s="29">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="H33" s="30">
         <v>0</v>
       </c>
       <c r="K33" s="10">
@@ -3772,8 +4018,11 @@
       <c r="X33" s="37">
         <v>1040</v>
       </c>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:32">
+      <c r="AH33" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:36">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -3785,13 +4034,13 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" si="2"/>
-        <v>10400</v>
-      </c>
-      <c r="H34" s="29">
+        <f t="shared" si="0"/>
+        <v>11440</v>
+      </c>
+      <c r="H34" s="30">
         <v>2000</v>
       </c>
       <c r="K34" s="10">
@@ -3824,8 +4073,11 @@
       <c r="AF34" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:29">
+      <c r="AJ34" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:35">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -3837,13 +4089,13 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G35" s="11">
-        <f t="shared" si="2"/>
-        <v>6240</v>
-      </c>
-      <c r="H35" s="29">
+        <f t="shared" si="0"/>
+        <v>7280</v>
+      </c>
+      <c r="H35" s="30">
         <v>1000</v>
       </c>
       <c r="L35" s="10">
@@ -3862,6 +4114,9 @@
         <v>1040</v>
       </c>
       <c r="AC35" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AI35" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -3880,17 +4135,17 @@
         <v>2000</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" ref="G36:G67" si="4">SUM(I36:AM36)</f>
-        <v>2080</v>
-      </c>
-      <c r="H36" s="29">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="H36" s="30">
         <v>0</v>
       </c>
       <c r="J36" s="10">
         <v>2080</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:30">
+    <row r="37" s="10" customFormat="1" spans="1:36">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -3902,13 +4157,13 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="4"/>
-        <v>24960</v>
-      </c>
-      <c r="H37" s="29">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+      <c r="H37" s="30">
         <v>3000</v>
       </c>
       <c r="I37" s="10">
@@ -3933,6 +4188,12 @@
         <v>3120</v>
       </c>
       <c r="AD37" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AJ37" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -3951,14 +4212,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:35">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -3970,13 +4231,13 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H39" s="29">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="H39" s="30">
         <v>0</v>
       </c>
       <c r="N39" s="10">
@@ -3991,8 +4252,11 @@
       <c r="AD39" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:28">
+      <c r="AI39" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:36">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -4007,13 +4271,13 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H40" s="29">
+        <f t="shared" si="0"/>
+        <v>5720</v>
+      </c>
+      <c r="H40" s="30">
         <v>0</v>
       </c>
       <c r="T40" s="10">
@@ -4021,6 +4285,9 @@
       </c>
       <c r="AB40" s="37">
         <v>2080</v>
+      </c>
+      <c r="AJ40" s="10">
+        <v>1560</v>
       </c>
     </row>
     <row r="41" s="10" customFormat="1" spans="1:19">
@@ -4038,10 +4305,10 @@
         <v>6000</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4160</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="30">
         <v>2000</v>
       </c>
       <c r="O41" s="10">
@@ -4051,7 +4318,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" spans="1:31">
+    <row r="42" s="10" customFormat="1" spans="1:36">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -4063,13 +4330,13 @@
       </c>
       <c r="F42" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="4"/>
-        <v>8320</v>
-      </c>
-      <c r="H42" s="29">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="H42" s="30">
         <v>0</v>
       </c>
       <c r="M42" s="10">
@@ -4082,6 +4349,9 @@
         <v>2080</v>
       </c>
       <c r="AE42" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AJ42" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4100,10 +4370,10 @@
         <v>39000</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>37440</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="30">
         <v>3000</v>
       </c>
       <c r="I43" s="10">
@@ -4158,17 +4428,17 @@
         <v>2000</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="4"/>
-        <v>2080</v>
-      </c>
-      <c r="H44" s="29">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="H44" s="30">
         <v>0</v>
       </c>
       <c r="S44" s="10">
         <v>2080</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="1" spans="1:31">
+    <row r="45" s="10" customFormat="1" spans="1:37">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -4180,13 +4450,13 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="4"/>
-        <v>24960</v>
-      </c>
-      <c r="H45" s="29">
+        <f t="shared" si="0"/>
+        <v>28080</v>
+      </c>
+      <c r="H45" s="30">
         <v>0</v>
       </c>
       <c r="I45" s="10">
@@ -4213,8 +4483,11 @@
       <c r="AE45" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="46" s="10" customFormat="1" spans="1:26">
+      <c r="AK45" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="1:38">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -4226,13 +4499,13 @@
       </c>
       <c r="F46" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H46" s="29">
+        <f t="shared" si="0"/>
+        <v>18720</v>
+      </c>
+      <c r="H46" s="30">
         <v>0</v>
       </c>
       <c r="M46" s="10">
@@ -4247,8 +4520,14 @@
       <c r="Z46" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="47" s="10" customFormat="1" spans="1:31">
+      <c r="AI46" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AL46" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:37">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -4260,13 +4539,13 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G47" s="11">
-        <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H47" s="29">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+      <c r="H47" s="30">
         <v>0</v>
       </c>
       <c r="M47" s="10">
@@ -4281,8 +4560,11 @@
       <c r="AE47" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="48" s="10" customFormat="1" spans="1:21">
+      <c r="AK47" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:35">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -4294,13 +4576,13 @@
       </c>
       <c r="F48" s="11">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" si="4"/>
-        <v>4160</v>
-      </c>
-      <c r="H48" s="29">
+        <f t="shared" si="0"/>
+        <v>6240</v>
+      </c>
+      <c r="H48" s="30">
         <v>0</v>
       </c>
       <c r="L48" s="10">
@@ -4309,8 +4591,11 @@
       <c r="U48" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="49" s="10" customFormat="1" spans="1:31">
+      <c r="AI48" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:34">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -4322,13 +4607,13 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="3"/>
-        <v>39000</v>
+        <v>42000</v>
       </c>
       <c r="G49" s="11">
-        <f t="shared" si="4"/>
-        <v>34320</v>
-      </c>
-      <c r="H49" s="29">
+        <f t="shared" si="0"/>
+        <v>37440</v>
+      </c>
+      <c r="H49" s="30">
         <v>6000</v>
       </c>
       <c r="J49" s="10">
@@ -4362,6 +4647,9 @@
         <v>3120</v>
       </c>
       <c r="AE49" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AH49" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4380,10 +4668,10 @@
         <v>27000</v>
       </c>
       <c r="G50" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>21840</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="30">
         <v>6000</v>
       </c>
       <c r="L50" s="10">
@@ -4408,7 +4696,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" spans="1:21">
+    <row r="51" s="10" customFormat="1" spans="1:35">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -4420,16 +4708,19 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="4"/>
-        <v>2080</v>
-      </c>
-      <c r="H51" s="29">
+        <f t="shared" si="0"/>
+        <v>4160</v>
+      </c>
+      <c r="H51" s="30">
         <v>2000</v>
       </c>
       <c r="U51" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AI51" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4448,14 +4739,14 @@
         <v>0</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" s="10" customFormat="1" spans="1:32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="1" spans="1:34">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -4467,13 +4758,13 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="3"/>
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="G53" s="11">
-        <f t="shared" si="4"/>
-        <v>17680</v>
-      </c>
-      <c r="H53" s="29">
+        <f t="shared" si="0"/>
+        <v>18720</v>
+      </c>
+      <c r="H53" s="30">
         <v>1000</v>
       </c>
       <c r="I53" s="10">
@@ -4524,8 +4815,11 @@
       <c r="AF53" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="54" s="10" customFormat="1" spans="1:33">
+      <c r="AH53" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:36">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -4537,13 +4831,13 @@
       </c>
       <c r="F54" s="11">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" si="4"/>
-        <v>18720</v>
-      </c>
-      <c r="H54" s="29">
+        <f t="shared" si="0"/>
+        <v>20800</v>
+      </c>
+      <c r="H54" s="30">
         <v>2000</v>
       </c>
       <c r="O54" s="10">
@@ -4571,6 +4865,9 @@
         <v>2080</v>
       </c>
       <c r="AG54" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AJ54" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4590,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4613,10 +4910,10 @@
         <v>7000</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6240</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="30">
         <v>1000</v>
       </c>
       <c r="I56" s="10">
@@ -4654,14 +4951,14 @@
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" s="10" customFormat="1" spans="1:30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" s="10" customFormat="1" spans="1:36">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -4673,13 +4970,13 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H58" s="29">
+        <f t="shared" si="0"/>
+        <v>14560</v>
+      </c>
+      <c r="H58" s="30">
         <v>0</v>
       </c>
       <c r="L58" s="10">
@@ -4700,8 +4997,11 @@
       <c r="AD58" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="59" s="10" customFormat="1" spans="1:33">
+      <c r="AJ58" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:37">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -4713,13 +5013,13 @@
       </c>
       <c r="F59" s="11">
         <f t="shared" si="3"/>
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="4"/>
-        <v>31200</v>
-      </c>
-      <c r="H59" s="29">
+        <f t="shared" si="0"/>
+        <v>36400</v>
+      </c>
+      <c r="H59" s="30">
         <v>5000</v>
       </c>
       <c r="J59" s="10">
@@ -4738,6 +5038,9 @@
         <v>5200</v>
       </c>
       <c r="AG59" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AK59" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -4756,10 +5059,10 @@
         <v>20000</v>
       </c>
       <c r="G60" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20800</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="30">
         <v>0</v>
       </c>
       <c r="K60" s="10">
@@ -4790,10 +5093,10 @@
         <v>8000</v>
       </c>
       <c r="G61" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8320</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="30">
         <v>0</v>
       </c>
       <c r="P61" s="10">
@@ -4809,7 +5112,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="62" s="10" customFormat="1" spans="1:28">
+    <row r="62" s="10" customFormat="1" spans="1:34">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -4822,13 +5125,13 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G62" s="11">
-        <f t="shared" si="4"/>
-        <v>26000</v>
-      </c>
-      <c r="H62" s="29">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+      <c r="H62" s="30">
         <v>0</v>
       </c>
       <c r="I62" s="10">
@@ -4844,6 +5147,9 @@
         <v>5200</v>
       </c>
       <c r="AB62" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AH62" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -4863,10 +5169,10 @@
         <v>1100</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="30">
         <v>1100</v>
       </c>
     </row>
@@ -4874,7 +5180,7 @@
       <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="23" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -4888,17 +5194,17 @@
         <v>5000</v>
       </c>
       <c r="G64" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="H64" s="29">
+      <c r="H64" s="30">
         <v>0</v>
       </c>
       <c r="AA64" s="10">
         <v>5200</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:32">
+    <row r="65" s="10" customFormat="1" spans="1:35">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -4913,13 +5219,13 @@
       </c>
       <c r="F65" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G65" s="11">
-        <f t="shared" si="4"/>
-        <v>12480</v>
-      </c>
-      <c r="H65" s="23">
+        <f t="shared" si="0"/>
+        <v>14560</v>
+      </c>
+      <c r="H65" s="24">
         <v>0</v>
       </c>
       <c r="I65" s="10">
@@ -4940,8 +5246,11 @@
       <c r="AF65" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="1:22">
+      <c r="AI65" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:34">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -4954,13 +5263,13 @@
       </c>
       <c r="F66" s="11">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G66" s="11">
-        <f t="shared" si="4"/>
-        <v>6240</v>
-      </c>
-      <c r="H66" s="29">
+        <f t="shared" ref="G66:G96" si="4">SUM(I66:AM66)</f>
+        <v>8320</v>
+      </c>
+      <c r="H66" s="30">
         <v>7000</v>
       </c>
       <c r="M66" s="10">
@@ -4970,6 +5279,9 @@
         <v>2080</v>
       </c>
       <c r="V66" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AH66" s="37">
         <v>2080</v>
       </c>
     </row>
@@ -4992,7 +5304,7 @@
         <f t="shared" si="4"/>
         <v>4680</v>
       </c>
-      <c r="H67" s="29">
+      <c r="H67" s="30">
         <v>500</v>
       </c>
       <c r="P67" s="37">
@@ -5005,7 +5317,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:32">
+    <row r="68" s="10" customFormat="1" spans="1:35">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -5017,13 +5329,13 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="G68" s="11">
-        <f t="shared" ref="G68:G96" si="5">SUM(I68:AM68)</f>
-        <v>10400</v>
-      </c>
-      <c r="H68" s="29">
+        <f t="shared" si="4"/>
+        <v>12480</v>
+      </c>
+      <c r="H68" s="30">
         <v>2000</v>
       </c>
       <c r="L68" s="10">
@@ -5039,6 +5351,9 @@
         <v>2080</v>
       </c>
       <c r="AF68" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AI68" s="37">
         <v>2080</v>
       </c>
     </row>
@@ -5057,10 +5372,10 @@
         <v>8000</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8320</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="30">
         <v>0</v>
       </c>
       <c r="M69" s="10">
@@ -5076,7 +5391,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="70" s="10" customFormat="1" spans="1:23">
+    <row r="70" s="10" customFormat="1" spans="1:34">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -5088,19 +5403,22 @@
       </c>
       <c r="F70" s="11">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="H70" s="29">
+        <f t="shared" si="4"/>
+        <v>6240</v>
+      </c>
+      <c r="H70" s="30">
         <v>-2000</v>
       </c>
       <c r="N70" s="10">
         <v>2080</v>
       </c>
       <c r="W70" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AH70" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -5119,10 +5437,10 @@
         <v>4000</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4160</v>
       </c>
-      <c r="H71" s="29">
+      <c r="H71" s="30">
         <v>0</v>
       </c>
       <c r="M71" s="10">
@@ -5138,7 +5456,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="1" spans="1:30">
+    <row r="72" s="10" customFormat="1" spans="1:36">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -5150,13 +5468,13 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="3"/>
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="5"/>
-        <v>41600</v>
-      </c>
-      <c r="H72" s="29">
+        <f t="shared" si="4"/>
+        <v>52000</v>
+      </c>
+      <c r="H72" s="30">
         <v>0</v>
       </c>
       <c r="I72" s="10">
@@ -5183,8 +5501,14 @@
       <c r="AD72" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="73" s="10" customFormat="1" spans="1:30">
+      <c r="AH72" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AJ72" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="73" s="10" customFormat="1" spans="1:37">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -5196,13 +5520,13 @@
       </c>
       <c r="F73" s="11">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H73" s="29">
+        <f t="shared" si="4"/>
+        <v>28080</v>
+      </c>
+      <c r="H73" s="30">
         <v>3000</v>
       </c>
       <c r="J73" s="10">
@@ -5226,8 +5550,14 @@
       <c r="AD73" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="1:30">
+      <c r="AH73" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AK73" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:33">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -5240,13 +5570,13 @@
       </c>
       <c r="F74" s="11">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="5"/>
-        <v>10400</v>
-      </c>
-      <c r="H74" s="29">
+        <f t="shared" si="4"/>
+        <v>12480</v>
+      </c>
+      <c r="H74" s="30">
         <v>1000</v>
       </c>
       <c r="L74" s="10">
@@ -5262,6 +5592,9 @@
         <v>2080</v>
       </c>
       <c r="AD74" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AG74" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -5283,10 +5616,10 @@
         <v>0</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5306,17 +5639,17 @@
         <v>2000</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H76" s="29">
+        <f t="shared" si="4"/>
+        <v>2080</v>
+      </c>
+      <c r="H76" s="30">
         <v>0</v>
       </c>
       <c r="V76" s="10">
         <v>2080</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:33">
+    <row r="77" s="10" customFormat="1" spans="1:36">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -5328,13 +5661,13 @@
       </c>
       <c r="F77" s="11">
         <f t="shared" si="3"/>
-        <v>14300</v>
+        <v>16300</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="H77" s="29">
+        <f t="shared" si="4"/>
+        <v>14560</v>
+      </c>
+      <c r="H77" s="30">
         <v>2300</v>
       </c>
       <c r="I77" s="10">
@@ -5373,8 +5706,14 @@
       <c r="AG77" s="10">
         <v>1040</v>
       </c>
-    </row>
-    <row r="78" s="10" customFormat="1" spans="1:29">
+      <c r="AH77" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AJ77" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="78" s="10" customFormat="1" spans="1:34">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -5386,13 +5725,13 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H78" s="29">
+        <f t="shared" si="4"/>
+        <v>24960</v>
+      </c>
+      <c r="H78" s="30">
         <v>3000</v>
       </c>
       <c r="K78" s="10">
@@ -5416,8 +5755,11 @@
       <c r="AC78" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="79" s="10" customFormat="1" spans="1:30">
+      <c r="AH78" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="79" s="10" customFormat="1" spans="1:33">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -5429,13 +5771,13 @@
       </c>
       <c r="F79" s="11">
         <f t="shared" si="3"/>
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="5"/>
-        <v>14560</v>
-      </c>
-      <c r="H79" s="29">
+        <f t="shared" si="4"/>
+        <v>16640</v>
+      </c>
+      <c r="H79" s="30">
         <v>2000</v>
       </c>
       <c r="K79" s="10">
@@ -5459,8 +5801,11 @@
       <c r="AD79" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="1:25">
+      <c r="AG79" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="80" s="10" customFormat="1" spans="1:35">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -5470,13 +5815,13 @@
       </c>
       <c r="F80" s="11">
         <f t="shared" si="3"/>
-        <v>58000</v>
+        <v>61000</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="29">
+        <f t="shared" si="4"/>
+        <v>3120</v>
+      </c>
+      <c r="H80" s="30">
         <v>58000</v>
       </c>
       <c r="I80" s="33"/>
@@ -5495,8 +5840,11 @@
       <c r="W80" s="33"/>
       <c r="X80" s="35"/>
       <c r="Y80" s="35"/>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="1:31">
+      <c r="AI80" s="37">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="1:34">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -5509,13 +5857,13 @@
       </c>
       <c r="F81" s="11">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="5"/>
-        <v>7280</v>
-      </c>
-      <c r="H81" s="29">
+        <f t="shared" si="4"/>
+        <v>9360</v>
+      </c>
+      <c r="H81" s="30">
         <v>2000</v>
       </c>
       <c r="L81" s="10">
@@ -5534,6 +5882,9 @@
         <v>1040</v>
       </c>
       <c r="AE81" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AH81" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -5550,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5569,14 +5920,14 @@
         <v>111</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" ref="F83:F96" si="6">G83/1.04+H83</f>
+        <f t="shared" ref="F83:F96" si="5">G83/1.04+H83</f>
         <v>4000</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4160</v>
       </c>
-      <c r="H83" s="29">
+      <c r="H83" s="30">
         <v>0</v>
       </c>
       <c r="M83" s="10">
@@ -5595,14 +5946,14 @@
         <v>112</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="30">
         <v>0</v>
       </c>
       <c r="I84" s="35"/>
@@ -5618,7 +5969,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
     </row>
-    <row r="85" s="10" customFormat="1" spans="1:29">
+    <row r="85" s="10" customFormat="1" spans="1:34">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -5630,14 +5981,14 @@
         <v>114</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="6"/>
-        <v>25000</v>
+        <f t="shared" si="5"/>
+        <v>30000</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="5"/>
-        <v>26000</v>
-      </c>
-      <c r="H85" s="29">
+        <f t="shared" si="4"/>
+        <v>31200</v>
+      </c>
+      <c r="H85" s="30">
         <v>0</v>
       </c>
       <c r="I85" s="10">
@@ -5653,6 +6004,9 @@
         <v>5200</v>
       </c>
       <c r="AC85" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AH85" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -5667,14 +6021,14 @@
         <v>115</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
-      <c r="H86" s="29">
+      <c r="H86" s="30">
         <v>5000</v>
       </c>
       <c r="AC86" s="10">
@@ -5696,14 +6050,14 @@
         <v>116</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="30">
         <v>2000</v>
       </c>
     </row>
@@ -5719,14 +6073,14 @@
         <v>118</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6240</v>
       </c>
-      <c r="H88" s="29">
+      <c r="H88" s="30">
         <v>0</v>
       </c>
       <c r="I88" s="35"/>
@@ -5764,18 +6118,18 @@
         <v>119</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" s="10" customFormat="1" spans="1:19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" s="10" customFormat="1" spans="1:33">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -5784,14 +6138,14 @@
         <v>120</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="6"/>
-        <v>1000</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="5"/>
-        <v>1040</v>
-      </c>
-      <c r="H90" s="29">
+        <f t="shared" si="4"/>
+        <v>2080</v>
+      </c>
+      <c r="H90" s="30">
         <v>0</v>
       </c>
       <c r="I90" s="35"/>
@@ -5807,6 +6161,9 @@
       <c r="Q90" s="35"/>
       <c r="R90" s="33"/>
       <c r="S90" s="35"/>
+      <c r="AG90" s="37">
+        <v>1040</v>
+      </c>
     </row>
     <row r="91" s="10" customFormat="1" spans="1:24">
       <c r="A91" s="10">
@@ -5817,14 +6174,14 @@
         <v>121</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="30">
         <v>0</v>
       </c>
       <c r="I91" s="35"/>
@@ -5844,7 +6201,7 @@
       <c r="W91" s="35"/>
       <c r="X91" s="35"/>
     </row>
-    <row r="92" s="10" customFormat="1" spans="1:32">
+    <row r="92" s="10" customFormat="1" spans="1:36">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -5852,14 +6209,14 @@
         <v>122</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="H92" s="29">
+        <f t="shared" si="4"/>
+        <v>6240</v>
+      </c>
+      <c r="H92" s="30">
         <v>0</v>
       </c>
       <c r="X92" s="37">
@@ -5870,6 +6227,9 @@
       </c>
       <c r="AF92" s="10">
         <v>1040</v>
+      </c>
+      <c r="AJ92" s="37">
+        <v>2080</v>
       </c>
     </row>
     <row r="93" s="10" customFormat="1" spans="1:8">
@@ -5880,14 +6240,14 @@
         <v>123</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5902,14 +6262,14 @@
         <v>125</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="5"/>
-        <v>2080</v>
-      </c>
-      <c r="H94" s="29">
+        <f t="shared" si="4"/>
+        <v>2080</v>
+      </c>
+      <c r="H94" s="30">
         <v>1000</v>
       </c>
       <c r="K94" s="10">
@@ -5927,14 +6287,14 @@
         <v>126</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="30">
         <v>0</v>
       </c>
     </row>
@@ -5946,70 +6306,70 @@
         <v>127</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="97" s="10" customFormat="1" spans="8:8">
-      <c r="H97" s="23"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" s="10" customFormat="1" spans="8:8">
-      <c r="H98" s="23"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" s="10" customFormat="1" spans="8:8">
-      <c r="H99" s="23"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" s="10" customFormat="1" spans="8:8">
-      <c r="H100" s="23"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" s="10" customFormat="1" spans="8:8">
-      <c r="H101" s="23"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" s="10" customFormat="1" spans="8:8">
-      <c r="H102" s="23"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" s="10" customFormat="1" spans="8:8">
-      <c r="H103" s="23"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" s="10" customFormat="1" spans="8:8">
-      <c r="H104" s="23"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" s="10" customFormat="1" spans="8:8">
-      <c r="H105" s="23"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" s="10" customFormat="1" spans="8:8">
-      <c r="H106" s="23"/>
+      <c r="H106" s="24"/>
     </row>
     <row r="107" s="10" customFormat="1" spans="8:8">
-      <c r="H107" s="23"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" s="10" customFormat="1" spans="8:8">
-      <c r="H108" s="23"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" s="10" customFormat="1" spans="8:8">
-      <c r="H109" s="23"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" s="10" customFormat="1" spans="8:8">
-      <c r="H110" s="23"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" s="10" customFormat="1" spans="8:8">
-      <c r="H111" s="23"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" s="10" customFormat="1" spans="8:8">
-      <c r="H112" s="23"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" s="10" customFormat="1" spans="8:8">
-      <c r="H113" s="23"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" s="10" customFormat="1" spans="8:8">
-      <c r="H114" s="23"/>
+      <c r="H114" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6023,12 +6383,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Z84" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6175,97 +6535,97 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>1039500</v>
+        <v>1192500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
-        <f>SUM(I2:AM2)</f>
-        <v>1039500</v>
+        <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
+        <v>1192500</v>
       </c>
       <c r="I2" s="11">
-        <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
+        <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
         <v>39500</v>
       </c>
       <c r="J2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="K2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51000</v>
       </c>
       <c r="L2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33000</v>
       </c>
       <c r="M2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68000</v>
       </c>
       <c r="N2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72500</v>
       </c>
       <c r="O2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42200</v>
       </c>
       <c r="P2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17900</v>
       </c>
       <c r="Q2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67500</v>
       </c>
       <c r="R2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="S2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25500</v>
       </c>
       <c r="T2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="U2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91800</v>
       </c>
       <c r="V2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="W2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45400</v>
       </c>
       <c r="X2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
       <c r="Y2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38500</v>
       </c>
       <c r="Z2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47100</v>
       </c>
       <c r="AA2" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46500</v>
       </c>
       <c r="AB2" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34000</v>
       </c>
       <c r="AC2" s="11">
-        <f t="shared" ref="AC2:AM2" si="1">SUM(AC3:AC121)</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="AD2" s="11">
@@ -6282,34 +6642,34 @@
       </c>
       <c r="AG2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AH2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="AI2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="AJ2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="AK2" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(AK97:AK121)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="11">
-        <f t="shared" si="1"/>
+        <f>SUM(AL3:AL121)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:28">
+        <f>SUM(AM3:AM121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" spans="1:37">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -6332,8 +6692,8 @@
         <v>10</v>
       </c>
       <c r="H3" s="11">
-        <f>SUM(I3:AM3)</f>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="O3" s="19">
         <v>3000</v>
@@ -6342,8 +6702,15 @@
         <v>3000</v>
       </c>
       <c r="AB3" s="21"/>
-    </row>
-    <row r="4" s="10" customFormat="1" spans="1:31">
+      <c r="AH3" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK3"/>
+    </row>
+    <row r="4" s="10" customFormat="1" spans="1:37">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -6366,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H35" si="2">SUM(I4:AM4)</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="Q4" s="19">
@@ -6379,8 +6746,9 @@
       <c r="AE4" s="19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="1:28">
+      <c r="AK4"/>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:37">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6397,7 +6765,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="I5" s="10">
@@ -6425,8 +6793,9 @@
         <v>500</v>
       </c>
       <c r="AB5" s="21"/>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:30">
+      <c r="AK5"/>
+    </row>
+    <row r="6" s="10" customFormat="1" spans="1:37">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -6449,8 +6818,8 @@
         <v>15</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="2"/>
-        <v>19500</v>
+        <f t="shared" si="0"/>
+        <v>24500</v>
       </c>
       <c r="L6" s="19">
         <v>3000</v>
@@ -6477,8 +6846,15 @@
       <c r="AD6" s="19">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:30">
+      <c r="AH6" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK6"/>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:37">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6501,8 +6877,8 @@
         <v>17</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="2"/>
-        <v>44000</v>
+        <f t="shared" si="0"/>
+        <v>59000</v>
       </c>
       <c r="L7" s="19">
         <v>2000</v>
@@ -6523,8 +6899,15 @@
       <c r="AD7" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:28">
+      <c r="AH7" s="19">
+        <v>10000</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>5000</v>
+      </c>
+      <c r="AK7"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:37">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -6541,8 +6924,8 @@
         <v>19</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="2"/>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="J8" s="10">
         <v>2000</v>
@@ -6557,8 +6940,12 @@
         <v>2000</v>
       </c>
       <c r="AB8" s="21"/>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:28">
+      <c r="AH8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK8"/>
+    </row>
+    <row r="9" s="10" customFormat="1" spans="1:37">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -6575,8 +6962,8 @@
         <v>20</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="N9" s="10">
         <v>2000</v>
@@ -6588,8 +6975,12 @@
         <v>2000</v>
       </c>
       <c r="AB9" s="21"/>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:28">
+      <c r="AJ9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK9"/>
+    </row>
+    <row r="10" s="10" customFormat="1" spans="1:37">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6606,8 +6997,8 @@
         <v>22</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>35000</v>
       </c>
       <c r="I10" s="10">
         <v>5000</v>
@@ -6631,8 +7022,12 @@
         <v>5000</v>
       </c>
       <c r="AB10" s="21"/>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:28">
+      <c r="AH10" s="10">
+        <v>5000</v>
+      </c>
+      <c r="AK10"/>
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:37">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6655,15 +7050,19 @@
         <v>24</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="X11" s="19">
         <v>4000</v>
       </c>
       <c r="AB11" s="21"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:31">
+      <c r="AH11" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AK11"/>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:37">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6680,7 +7079,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="O12" s="10">
@@ -6708,8 +7107,9 @@
       <c r="AE12" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:32">
+      <c r="AK12"/>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:37">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6726,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="N13" s="19">
@@ -6745,8 +7145,9 @@
       <c r="AF13" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:32">
+      <c r="AK13"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:37">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6769,8 +7170,8 @@
         <v>27</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="2"/>
-        <v>43000</v>
+        <f t="shared" si="0"/>
+        <v>51000</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
@@ -6808,8 +7209,18 @@
       <c r="AF14" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:32">
+      <c r="AH14" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>1500</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>4500</v>
+      </c>
+      <c r="AK14"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:37">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6829,7 +7240,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="K15" s="10">
@@ -6850,8 +7261,9 @@
       <c r="AF15" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:30">
+      <c r="AK15"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:37">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6874,7 +7286,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="J16" s="10">
@@ -6887,8 +7299,9 @@
       <c r="AD16" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:28">
+      <c r="AK16"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:37">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6908,15 +7321,16 @@
         <v>32</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3500</v>
       </c>
       <c r="X17" s="19">
         <v>3500</v>
       </c>
       <c r="AB17" s="21"/>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:28">
+      <c r="AK17"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:37">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6933,15 +7347,16 @@
         <v>34</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="Y18" s="19">
         <v>1000</v>
       </c>
       <c r="AB18" s="21"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:28">
+      <c r="AK18"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:37">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -6964,8 +7379,8 @@
         <v>35</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="2"/>
-        <v>10500</v>
+        <f t="shared" si="0"/>
+        <v>13500</v>
       </c>
       <c r="I19" s="10">
         <v>1500</v>
@@ -6979,8 +7394,12 @@
       <c r="AB19" s="21">
         <v>3000</v>
       </c>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:29">
+      <c r="AH19" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK19"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:37">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -7003,8 +7422,8 @@
         <v>37</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="2"/>
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="K20" s="10">
         <v>5000</v>
@@ -7019,8 +7438,12 @@
       <c r="AC20" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:31">
+      <c r="AG20" s="19">
+        <v>5000</v>
+      </c>
+      <c r="AK20"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:37">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -7043,7 +7466,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="K21" s="10">
@@ -7067,8 +7490,9 @@
       <c r="AE21" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:31">
+      <c r="AK21"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:37">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -7085,8 +7509,8 @@
         <v>39</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="2"/>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
       <c r="I22" s="10">
         <v>1000</v>
@@ -7112,8 +7536,12 @@
       <c r="AE22" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:32">
+      <c r="AI22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK22"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:37">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -7136,7 +7564,7 @@
         <v>40</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="O23" s="19">
@@ -7149,8 +7577,9 @@
       <c r="AF23" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:30">
+      <c r="AK23"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:37">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -7167,8 +7596,8 @@
         <v>41</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" si="2"/>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
       <c r="L24" s="10">
         <v>1000</v>
@@ -7189,8 +7618,12 @@
       <c r="AD24" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:28">
+      <c r="AI24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK24"/>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:37">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -7213,7 +7646,7 @@
         <v>42</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="J25" s="19">
@@ -7229,8 +7662,9 @@
         <v>3000</v>
       </c>
       <c r="AB25" s="21"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:29">
+      <c r="AK25"/>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:37">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -7253,8 +7687,8 @@
         <v>43</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>35000</v>
       </c>
       <c r="K26" s="19">
         <v>5000</v>
@@ -7272,8 +7706,12 @@
       <c r="AC26" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:31">
+      <c r="AI26" s="19">
+        <v>5000</v>
+      </c>
+      <c r="AK26"/>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:37">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -7290,8 +7728,8 @@
         <v>44</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="2"/>
-        <v>21000</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="I27" s="10">
         <v>3000</v>
@@ -7318,8 +7756,12 @@
       <c r="AE27" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" s="10" customFormat="1" spans="1:32">
+      <c r="AI27" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AK27"/>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:37">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -7339,8 +7781,8 @@
         <v>45</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" si="2"/>
-        <v>9500</v>
+        <f t="shared" si="0"/>
+        <v>11000</v>
       </c>
       <c r="K28" s="10">
         <v>1000</v>
@@ -7367,8 +7809,15 @@
       <c r="AF28" s="10">
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" s="10" customFormat="1" spans="1:28">
+      <c r="AH28" s="19">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>500</v>
+      </c>
+      <c r="AK28"/>
+    </row>
+    <row r="29" s="10" customFormat="1" spans="1:37">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -7385,8 +7834,8 @@
         <v>46</v>
       </c>
       <c r="H29" s="11">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="P29" s="10">
         <v>1000</v>
@@ -7398,8 +7847,12 @@
         <v>2000</v>
       </c>
       <c r="AB29" s="21"/>
-    </row>
-    <row r="30" s="10" customFormat="1" spans="1:28">
+      <c r="AI29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK29"/>
+    </row>
+    <row r="30" s="10" customFormat="1" spans="1:37">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -7416,7 +7869,7 @@
         <v>47</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I30" s="10">
@@ -7437,8 +7890,9 @@
       <c r="AB30" s="21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" s="10" customFormat="1" spans="1:32">
+      <c r="AK30"/>
+    </row>
+    <row r="31" s="10" customFormat="1" spans="1:37">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -7458,7 +7912,7 @@
         <v>48</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="I31" s="10">
@@ -7474,8 +7928,9 @@
       <c r="AF31" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="32" s="10" customFormat="1" spans="1:28">
+      <c r="AK31"/>
+    </row>
+    <row r="32" s="10" customFormat="1" spans="1:37">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -7495,7 +7950,7 @@
         <v>49</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="L32" s="19">
@@ -7514,8 +7969,9 @@
         <v>10000</v>
       </c>
       <c r="AB32" s="21"/>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:28">
+      <c r="AK32"/>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:37">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -7529,8 +7985,8 @@
         <v>50</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>9000</v>
       </c>
       <c r="L33" s="10">
         <v>500</v>
@@ -7557,8 +8013,15 @@
         <v>1000</v>
       </c>
       <c r="AB33" s="21"/>
-    </row>
-    <row r="34" s="10" customFormat="1" spans="1:30">
+      <c r="AI33" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK33"/>
+    </row>
+    <row r="34" s="10" customFormat="1" spans="1:37">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -7578,8 +8041,8 @@
         <v>52</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="2"/>
-        <v>11000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="I34" s="10">
         <v>2000</v>
@@ -7609,8 +8072,15 @@
       <c r="AD34" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:31">
+      <c r="AI34" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK34"/>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:37">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -7624,8 +8094,8 @@
         <v>53</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="I35" s="10">
         <v>1000</v>
@@ -7646,8 +8116,12 @@
       <c r="AE35" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:28">
+      <c r="AJ35" s="10">
+        <v>500</v>
+      </c>
+      <c r="AK35"/>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:37">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -7664,15 +8138,16 @@
         <v>54</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" ref="H36:H67" si="3">SUM(I36:AM36)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J36" s="10">
         <v>2000</v>
       </c>
       <c r="AB36" s="21"/>
-    </row>
-    <row r="37" s="10" customFormat="1" spans="1:30">
+      <c r="AK36"/>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:37">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -7686,8 +8161,8 @@
         <v>55</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
-        <v>27000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="K37" s="19">
         <v>6000</v>
@@ -7708,8 +8183,12 @@
       <c r="AD37" s="19">
         <v>3000</v>
       </c>
-    </row>
-    <row r="38" s="10" customFormat="1" spans="1:28">
+      <c r="AI37" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK37"/>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:37">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -7723,12 +8202,13 @@
         <v>56</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB38" s="21"/>
-    </row>
-    <row r="39" s="10" customFormat="1" spans="1:31">
+      <c r="AK38"/>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:37">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -7748,8 +8228,8 @@
         <v>57</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="Q39" s="10">
         <v>3000</v>
@@ -7763,8 +8243,15 @@
       <c r="AE39" s="19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" s="10" customFormat="1" spans="1:28">
+      <c r="AI39" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AJ39" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK39"/>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:37">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -7787,8 +8274,8 @@
         <v>58</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="3"/>
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>5500</v>
       </c>
       <c r="V40" s="19">
         <v>2000</v>
@@ -7796,8 +8283,12 @@
       <c r="AB40" s="22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" s="10" customFormat="1" spans="1:28">
+      <c r="AJ40" s="19">
+        <v>1500</v>
+      </c>
+      <c r="AK40"/>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:37">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -7811,7 +8302,7 @@
         <v>59</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="I41" s="10">
@@ -7824,8 +8315,9 @@
         <v>2000</v>
       </c>
       <c r="AB41" s="21"/>
-    </row>
-    <row r="42" s="10" customFormat="1" spans="1:28">
+      <c r="AK41"/>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:37">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -7839,8 +8331,8 @@
         <v>60</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="3"/>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="M42" s="10">
         <v>2000</v>
@@ -7854,8 +8346,18 @@
       <c r="AB42" s="21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" s="10" customFormat="1" spans="1:31">
+      <c r="AH42" s="10">
+        <v>1500</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>500</v>
+      </c>
+      <c r="AJ42" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK42"/>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:37">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7872,8 +8374,8 @@
         <v>61</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="3"/>
-        <v>34000</v>
+        <f t="shared" si="0"/>
+        <v>39000</v>
       </c>
       <c r="I43" s="10">
         <v>3000</v>
@@ -7911,8 +8413,15 @@
       <c r="AE43" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" s="10" customFormat="1" spans="1:28">
+      <c r="AH43" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AJ43" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK43"/>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:37">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -7929,21 +8438,25 @@
         <v>62</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="U44" s="19">
         <v>2000</v>
       </c>
       <c r="AB44" s="21"/>
-    </row>
-    <row r="45" s="10" customFormat="1" spans="1:30">
+      <c r="AK44"/>
+    </row>
+    <row r="45" s="10" customFormat="1" spans="1:37">
       <c r="A45" s="10">
         <v>43</v>
       </c>
       <c r="C45" s="10">
         <v>43</v>
       </c>
+      <c r="D45" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="F45" s="10" t="s">
         <v>51</v>
       </c>
@@ -7951,8 +8464,8 @@
         <v>63</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="3"/>
-        <v>21000</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="J45" s="10">
         <v>3000</v>
@@ -7976,19 +8489,23 @@
       <c r="AD45" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="46" s="10" customFormat="1" spans="1:30">
+      <c r="AH45" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK45"/>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="1:37">
       <c r="A46" s="10">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" s="10">
         <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>64</v>
@@ -7997,8 +8514,8 @@
         <v>65</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="3"/>
-        <v>12000</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="M46" s="19">
         <v>3000</v>
@@ -8013,8 +8530,12 @@
       <c r="AD46" s="10">
         <v>3000</v>
       </c>
-    </row>
-    <row r="47" s="10" customFormat="1" spans="1:32">
+      <c r="AI46" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AK46"/>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:37">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -8028,8 +8549,8 @@
         <v>66</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="3"/>
-        <v>11000</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="M47" s="10">
         <v>3000</v>
@@ -8044,19 +8565,23 @@
       <c r="AF47" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="48" s="10" customFormat="1" spans="1:28">
+      <c r="AH47" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK47"/>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:37">
       <c r="A48" s="10">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" s="10">
         <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E48" s="10">
         <v>7004729703</v>
@@ -8068,7 +8593,7 @@
         <v>67</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="M48" s="19">
@@ -8078,19 +8603,20 @@
         <v>2000</v>
       </c>
       <c r="AB48" s="21"/>
-    </row>
-    <row r="49" s="10" customFormat="1" spans="1:31">
+      <c r="AK48"/>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:37">
       <c r="A49" s="10">
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="10">
         <v>47</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="10">
         <v>8863097933</v>
@@ -8102,7 +8628,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="K49" s="10">
@@ -8127,19 +8653,20 @@
       <c r="AE49" s="19">
         <v>6000</v>
       </c>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:28">
+      <c r="AK49"/>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:37">
       <c r="A50" s="10">
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" s="10">
         <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" s="10">
         <v>9835443096</v>
@@ -8151,8 +8678,8 @@
         <v>69</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="3"/>
-        <v>21000</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="K50" s="19">
         <v>6000</v>
@@ -8170,19 +8697,23 @@
         <v>6000</v>
       </c>
       <c r="AB50" s="21"/>
-    </row>
-    <row r="51" s="10" customFormat="1" spans="1:28">
+      <c r="AI50" s="19">
+        <v>6000</v>
+      </c>
+      <c r="AK50"/>
+    </row>
+    <row r="51" s="10" customFormat="1" spans="1:37">
       <c r="A51" s="10">
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C51" s="10">
         <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>64</v>
@@ -8191,7 +8722,7 @@
         <v>70</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="K51" s="10">
@@ -8201,8 +8732,9 @@
         <v>2000</v>
       </c>
       <c r="AB51" s="21"/>
-    </row>
-    <row r="52" s="10" customFormat="1" spans="1:28">
+      <c r="AK51"/>
+    </row>
+    <row r="52" s="10" customFormat="1" spans="1:37">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -8216,23 +8748,24 @@
         <v>71</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB52" s="21"/>
-    </row>
-    <row r="53" s="10" customFormat="1" spans="1:31">
+      <c r="AK52"/>
+    </row>
+    <row r="53" s="10" customFormat="1" spans="1:37">
       <c r="A53" s="10">
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" s="10">
         <v>51</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>64</v>
@@ -8241,8 +8774,8 @@
         <v>72</v>
       </c>
       <c r="H53" s="11">
-        <f t="shared" si="3"/>
-        <v>16000</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="K53" s="10">
         <v>3000</v>
@@ -8263,8 +8796,12 @@
       <c r="AE53" s="19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" s="10" customFormat="1" spans="1:30">
+      <c r="AH53" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK53"/>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:37">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -8278,8 +8815,8 @@
         <v>73</v>
       </c>
       <c r="H54" s="11">
-        <f t="shared" si="3"/>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="M54" s="19">
         <v>2000</v>
@@ -8294,19 +8831,23 @@
       <c r="AD54" s="10">
         <v>8000</v>
       </c>
-    </row>
-    <row r="55" s="10" customFormat="1" spans="1:28">
+      <c r="AI54" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK54"/>
+    </row>
+    <row r="55" s="10" customFormat="1" spans="1:37">
       <c r="A55" s="10">
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C55" s="10">
         <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>64</v>
@@ -8315,23 +8856,24 @@
         <v>74</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB55" s="21"/>
-    </row>
-    <row r="56" s="10" customFormat="1" spans="1:28">
+      <c r="AK55"/>
+    </row>
+    <row r="56" s="10" customFormat="1" spans="1:37">
       <c r="A56" s="10">
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C56" s="10">
         <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>64</v>
@@ -8340,7 +8882,7 @@
         <v>75</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="Q56" s="19">
@@ -8350,8 +8892,9 @@
         <v>3000</v>
       </c>
       <c r="AB56" s="21"/>
-    </row>
-    <row r="57" s="10" customFormat="1" spans="1:28">
+      <c r="AK56"/>
+    </row>
+    <row r="57" s="10" customFormat="1" spans="1:37">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -8368,12 +8911,13 @@
         <v>76</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB57" s="21"/>
-    </row>
-    <row r="58" s="10" customFormat="1" spans="1:31">
+      <c r="AK57"/>
+    </row>
+    <row r="58" s="10" customFormat="1" spans="1:37">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -8390,7 +8934,7 @@
         <v>78</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="Q58" s="10">
@@ -8405,19 +8949,20 @@
       <c r="AE58" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" s="10" customFormat="1" spans="1:32">
+      <c r="AK58"/>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:37">
       <c r="A59" s="10">
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" s="10">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>77</v>
@@ -8426,7 +8971,7 @@
         <v>79</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="O59" s="19">
@@ -8439,8 +8984,9 @@
       <c r="AF59" s="19">
         <v>10000</v>
       </c>
-    </row>
-    <row r="60" s="10" customFormat="1" spans="1:28">
+      <c r="AK59"/>
+    </row>
+    <row r="60" s="10" customFormat="1" spans="1:37">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -8454,7 +9000,7 @@
         <v>80</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="K60" s="10">
@@ -8469,8 +9015,9 @@
       <c r="AB60" s="21">
         <v>5000</v>
       </c>
-    </row>
-    <row r="61" s="10" customFormat="1" spans="1:31">
+      <c r="AK60"/>
+    </row>
+    <row r="61" s="10" customFormat="1" spans="1:37">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -8487,7 +9034,7 @@
         <v>81</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="P61" s="10">
@@ -8503,19 +9050,20 @@
       <c r="AE61" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="62" s="10" customFormat="1" spans="1:28">
+      <c r="AK61"/>
+    </row>
+    <row r="62" s="10" customFormat="1" spans="1:37">
       <c r="A62" s="10">
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62" s="10">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E62" s="10">
         <v>9504958065</v>
@@ -8527,8 +9075,8 @@
         <v>83</v>
       </c>
       <c r="H62" s="11">
-        <f t="shared" si="3"/>
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="N62" s="10">
         <v>10000</v>
@@ -8540,8 +9088,12 @@
         <v>5000</v>
       </c>
       <c r="AB62" s="21"/>
-    </row>
-    <row r="63" s="10" customFormat="1" spans="1:28">
+      <c r="AH62" s="19">
+        <v>5000</v>
+      </c>
+      <c r="AK62"/>
+    </row>
+    <row r="63" s="10" customFormat="1" spans="1:37">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -8558,26 +9110,27 @@
         <v>84</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB63" s="21"/>
-    </row>
-    <row r="64" s="10" customFormat="1" spans="1:30">
+      <c r="AK63"/>
+    </row>
+    <row r="64" s="10" customFormat="1" spans="1:37">
       <c r="A64" s="10">
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" s="10">
         <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>82</v>
@@ -8586,26 +9139,27 @@
         <v>86</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="AB64" s="21"/>
       <c r="AD64" s="19">
         <v>5000</v>
       </c>
-    </row>
-    <row r="65" s="10" customFormat="1" spans="1:32">
+      <c r="AK64"/>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:37">
       <c r="A65" s="10">
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C65" s="10">
         <v>63</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E65" s="10">
         <v>7004399486</v>
@@ -8617,7 +9171,7 @@
         <v>88</v>
       </c>
       <c r="H65" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="J65" s="19">
@@ -8638,19 +9192,20 @@
       <c r="AF65" s="19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="1:28">
+      <c r="AK65"/>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:37">
       <c r="A66" s="10">
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C66" s="10">
         <v>64</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>87</v>
@@ -8659,8 +9214,8 @@
         <v>89</v>
       </c>
       <c r="H66" s="11">
-        <f t="shared" si="3"/>
-        <v>7000</v>
+        <f t="shared" ref="H66:H96" si="2">SUM(I66:AM66)</f>
+        <v>9000</v>
       </c>
       <c r="N66" s="19">
         <v>3000</v>
@@ -8671,8 +9226,12 @@
       <c r="AB66" s="22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" s="10" customFormat="1" spans="1:28">
+      <c r="AH66" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK66"/>
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:37">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -8686,15 +9245,19 @@
         <v>91</v>
       </c>
       <c r="H67" s="11">
-        <f t="shared" si="3"/>
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
       <c r="R67" s="10">
         <v>3000</v>
       </c>
       <c r="AB67" s="21"/>
-    </row>
-    <row r="68" s="10" customFormat="1" spans="1:28">
+      <c r="AJ67" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK67"/>
+    </row>
+    <row r="68" s="10" customFormat="1" spans="1:37">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -8708,7 +9271,7 @@
         <v>93</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:H99" si="4">SUM(I68:AM68)</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="M68" s="10">
@@ -8718,8 +9281,9 @@
         <v>4000</v>
       </c>
       <c r="AB68" s="21"/>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:31">
+      <c r="AK68"/>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:37">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -8733,7 +9297,7 @@
         <v>94</v>
       </c>
       <c r="H69" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="M69" s="10">
@@ -8749,8 +9313,9 @@
       <c r="AE69" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" s="10" customFormat="1" spans="1:28">
+      <c r="AK69"/>
+    </row>
+    <row r="70" s="10" customFormat="1" spans="1:37">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -8767,15 +9332,19 @@
         <v>95</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="X70" s="10">
         <v>2000</v>
       </c>
       <c r="AB70" s="21"/>
-    </row>
-    <row r="71" s="10" customFormat="1" spans="1:28">
+      <c r="AH70" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK70"/>
+    </row>
+    <row r="71" s="10" customFormat="1" spans="1:37">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -8789,8 +9358,8 @@
         <v>96</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="4"/>
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>4000</v>
       </c>
       <c r="M71" s="10">
         <v>1000</v>
@@ -8802,8 +9371,12 @@
         <v>1000</v>
       </c>
       <c r="AB71" s="21"/>
-    </row>
-    <row r="72" s="10" customFormat="1" spans="1:31">
+      <c r="AH71" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AK71"/>
+    </row>
+    <row r="72" s="10" customFormat="1" spans="1:37">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -8817,8 +9390,8 @@
         <v>97</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="4"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>45000</v>
       </c>
       <c r="M72" s="19">
         <v>10000</v>
@@ -8839,8 +9412,12 @@
       <c r="AE72" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="73" s="10" customFormat="1" spans="1:30">
+      <c r="AH72" s="10">
+        <v>5000</v>
+      </c>
+      <c r="AK72"/>
+    </row>
+    <row r="73" s="10" customFormat="1" spans="1:37">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -8854,8 +9431,8 @@
         <v>98</v>
       </c>
       <c r="H73" s="11">
-        <f t="shared" si="4"/>
-        <v>24000</v>
+        <f t="shared" si="2"/>
+        <v>27000</v>
       </c>
       <c r="K73" s="10">
         <v>3000</v>
@@ -8879,19 +9456,23 @@
       <c r="AD73" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="1:31">
+      <c r="AI73" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AK73"/>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:37">
       <c r="A74" s="10">
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C74" s="10">
         <v>72</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>170</v>
+      <c r="D74" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="E74" s="10">
         <v>8825370430</v>
@@ -8903,8 +9484,8 @@
         <v>99</v>
       </c>
       <c r="H74" s="11">
-        <f t="shared" si="4"/>
-        <v>11000</v>
+        <f t="shared" si="2"/>
+        <v>13000</v>
       </c>
       <c r="O74" s="10">
         <v>3000</v>
@@ -8919,8 +9500,12 @@
       <c r="AE74" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="75" s="10" customFormat="1" spans="1:28">
+      <c r="AH74" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK74"/>
+    </row>
+    <row r="75" s="10" customFormat="1" spans="1:37">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -8937,12 +9522,13 @@
         <v>100</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB75" s="21"/>
-    </row>
-    <row r="76" s="10" customFormat="1" spans="1:28">
+      <c r="AK75"/>
+    </row>
+    <row r="76" s="10" customFormat="1" spans="1:37">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -8956,7 +9542,7 @@
         <v>101</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="X76" s="10">
@@ -8966,19 +9552,20 @@
         <v>1000</v>
       </c>
       <c r="AB76" s="21"/>
-    </row>
-    <row r="77" s="10" customFormat="1" spans="1:32">
+      <c r="AK76"/>
+    </row>
+    <row r="77" s="10" customFormat="1" spans="1:37">
       <c r="A77" s="10">
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C77" s="10">
         <v>75</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E77" s="10">
         <v>6200769032</v>
@@ -8990,8 +9577,8 @@
         <v>103</v>
       </c>
       <c r="H77" s="11">
-        <f t="shared" si="4"/>
-        <v>12000</v>
+        <f t="shared" si="2"/>
+        <v>14500</v>
       </c>
       <c r="L77" s="10">
         <v>2000</v>
@@ -9023,19 +9610,26 @@
       <c r="AF77" s="10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="78" s="10" customFormat="1" spans="1:30">
+      <c r="AH77" s="10">
+        <v>500</v>
+      </c>
+      <c r="AI77" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK77"/>
+    </row>
+    <row r="78" s="10" customFormat="1" spans="1:37">
       <c r="A78" s="10">
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C78" s="10">
         <v>76</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>102</v>
@@ -9044,8 +9638,8 @@
         <v>104</v>
       </c>
       <c r="H78" s="11">
-        <f t="shared" si="4"/>
-        <v>24000</v>
+        <f t="shared" si="2"/>
+        <v>27000</v>
       </c>
       <c r="I78" s="19">
         <v>3000</v>
@@ -9066,19 +9660,23 @@
       <c r="AD78" s="19">
         <v>6000</v>
       </c>
-    </row>
-    <row r="79" s="10" customFormat="1" spans="1:30">
+      <c r="AI78" s="19">
+        <v>3000</v>
+      </c>
+      <c r="AK78"/>
+    </row>
+    <row r="79" s="10" customFormat="1" spans="1:37">
       <c r="A79" s="10">
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C79" s="10">
         <v>77</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>102</v>
@@ -9087,8 +9685,8 @@
         <v>105</v>
       </c>
       <c r="H79" s="11">
-        <f t="shared" si="4"/>
-        <v>14000</v>
+        <f t="shared" si="2"/>
+        <v>16000</v>
       </c>
       <c r="L79" s="10">
         <v>3000</v>
@@ -9103,8 +9701,12 @@
       <c r="AD79" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="1:28">
+      <c r="AH79" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK79"/>
+    </row>
+    <row r="80" s="10" customFormat="1" spans="1:37">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -9115,26 +9717,27 @@
         <v>106</v>
       </c>
       <c r="H80" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB80" s="21"/>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="1:31">
+      <c r="AK80"/>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="1:37">
       <c r="A81" s="10">
         <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C81" s="10">
         <v>79</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>107</v>
@@ -9143,8 +9746,8 @@
         <v>108</v>
       </c>
       <c r="H81" s="11">
-        <f t="shared" si="4"/>
-        <v>9000</v>
+        <f t="shared" si="2"/>
+        <v>11000</v>
       </c>
       <c r="L81" s="19">
         <v>2000</v>
@@ -9162,8 +9765,12 @@
       <c r="AE81" s="19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="82" s="10" customFormat="1" spans="1:28">
+      <c r="AI81" s="19">
+        <v>2000</v>
+      </c>
+      <c r="AK81"/>
+    </row>
+    <row r="82" s="10" customFormat="1" spans="1:37">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -9174,12 +9781,13 @@
         <v>109</v>
       </c>
       <c r="H82" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB82" s="21"/>
-    </row>
-    <row r="83" s="10" customFormat="1" spans="1:28">
+      <c r="AK82"/>
+    </row>
+    <row r="83" s="10" customFormat="1" spans="1:37">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -9193,7 +9801,7 @@
         <v>111</v>
       </c>
       <c r="H83" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="X83" s="10">
@@ -9203,8 +9811,9 @@
         <v>2000</v>
       </c>
       <c r="AB83" s="21"/>
-    </row>
-    <row r="84" s="10" customFormat="1" spans="1:28">
+      <c r="AK83"/>
+    </row>
+    <row r="84" s="10" customFormat="1" spans="1:37">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -9215,23 +9824,24 @@
         <v>112</v>
       </c>
       <c r="H84" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB84" s="21"/>
-    </row>
-    <row r="85" s="10" customFormat="1" spans="1:28">
+      <c r="AK84"/>
+    </row>
+    <row r="85" s="10" customFormat="1" spans="1:37">
       <c r="A85" s="10">
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C85" s="10">
         <v>83</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>113</v>
@@ -9240,7 +9850,7 @@
         <v>114</v>
       </c>
       <c r="H85" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="M85" s="19">
@@ -9250,8 +9860,9 @@
         <v>10000</v>
       </c>
       <c r="AB85" s="21"/>
-    </row>
-    <row r="86" s="10" customFormat="1" spans="1:31">
+      <c r="AK85"/>
+    </row>
+    <row r="86" s="10" customFormat="1" spans="1:37">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -9268,7 +9879,7 @@
         <v>115</v>
       </c>
       <c r="H86" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="I86" s="10">
@@ -9278,19 +9889,20 @@
       <c r="AE86" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="1:28">
+      <c r="AK86"/>
+    </row>
+    <row r="87" s="10" customFormat="1" spans="1:37">
       <c r="A87" s="10">
         <v>85</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C87" s="10">
         <v>85</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E87" s="10">
         <v>7903552643</v>
@@ -9302,15 +9914,16 @@
         <v>116</v>
       </c>
       <c r="H87" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="Y87" s="10">
         <v>2000</v>
       </c>
       <c r="AB87" s="21"/>
-    </row>
-    <row r="88" s="10" customFormat="1" spans="1:28">
+      <c r="AK87"/>
+    </row>
+    <row r="88" s="10" customFormat="1" spans="1:37">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -9318,7 +9931,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E88" s="10">
         <v>9911430509</v>
@@ -9330,8 +9943,8 @@
         <v>118</v>
       </c>
       <c r="H88" s="11">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="U88" s="10">
         <v>2000</v>
@@ -9340,8 +9953,12 @@
         <v>2000</v>
       </c>
       <c r="AB88" s="21"/>
-    </row>
-    <row r="89" s="10" customFormat="1" spans="1:28">
+      <c r="AI88" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AK88"/>
+    </row>
+    <row r="89" s="10" customFormat="1" spans="1:37">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -9352,37 +9969,42 @@
         <v>119</v>
       </c>
       <c r="H89" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB89" s="21"/>
-    </row>
-    <row r="90" s="10" customFormat="1" spans="1:28">
+      <c r="AK89"/>
+    </row>
+    <row r="90" s="10" customFormat="1" spans="1:37">
       <c r="A90" s="10">
         <v>88</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C90" s="10">
         <v>88</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G90" s="17" t="s">
         <v>120</v>
       </c>
       <c r="H90" s="11">
-        <f t="shared" si="4"/>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="M90" s="19">
         <v>1000</v>
       </c>
       <c r="AB90" s="21"/>
-    </row>
-    <row r="91" s="10" customFormat="1" spans="1:28">
+      <c r="AG90" s="19">
+        <v>1000</v>
+      </c>
+      <c r="AK90"/>
+    </row>
+    <row r="91" s="10" customFormat="1" spans="1:37">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -9393,37 +10015,45 @@
         <v>121</v>
       </c>
       <c r="H91" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB91" s="21"/>
-    </row>
-    <row r="92" s="10" customFormat="1" spans="1:28">
+      <c r="AK91"/>
+    </row>
+    <row r="92" s="10" customFormat="1" spans="1:37">
       <c r="A92" s="10">
         <v>90</v>
       </c>
       <c r="C92" s="10">
         <v>90</v>
       </c>
+      <c r="D92" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="E92" s="10">
         <v>9015378357</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G92" s="17" t="s">
         <v>122</v>
       </c>
       <c r="H92" s="11">
-        <f t="shared" si="4"/>
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="AA92" s="10">
         <v>2000</v>
       </c>
       <c r="AB92" s="21"/>
-    </row>
-    <row r="93" s="10" customFormat="1" spans="1:28">
+      <c r="AJ92" s="19">
+        <v>4000</v>
+      </c>
+      <c r="AK92"/>
+    </row>
+    <row r="93" s="10" customFormat="1" spans="1:37">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -9434,12 +10064,13 @@
         <v>123</v>
       </c>
       <c r="H93" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB93" s="21"/>
-    </row>
-    <row r="94" s="10" customFormat="1" spans="1:28">
+      <c r="AK93"/>
+    </row>
+    <row r="94" s="10" customFormat="1" spans="1:37">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -9453,15 +10084,16 @@
         <v>125</v>
       </c>
       <c r="H94" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="L94" s="10">
         <v>2000</v>
       </c>
       <c r="AB94" s="21"/>
-    </row>
-    <row r="95" s="10" customFormat="1" spans="1:28">
+      <c r="AK94"/>
+    </row>
+    <row r="95" s="10" customFormat="1" spans="1:37">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -9472,12 +10104,13 @@
         <v>126</v>
       </c>
       <c r="H95" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB95" s="21"/>
-    </row>
-    <row r="96" s="10" customFormat="1" spans="1:28">
+      <c r="AK95"/>
+    </row>
+    <row r="96" s="10" customFormat="1" spans="1:37">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -9488,10 +10121,11 @@
         <v>127</v>
       </c>
       <c r="H96" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB96" s="21"/>
+      <c r="AK96"/>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="11"/>
@@ -9550,11 +10184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -9579,7 +10213,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9590,7 +10224,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>202400</v>
+        <v>216900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9605,10 +10239,10 @@
       </c>
       <c r="D3" s="9">
         <f>Orders!F3-Collection!H3</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -9620,7 +10254,7 @@
       </c>
       <c r="D4" s="9">
         <f>Orders!F4-Collection!H4</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9665,10 +10299,10 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -9683,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -9725,10 +10359,10 @@
       </c>
       <c r="D11" s="9">
         <f>Orders!F11-Collection!H11</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="12" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -9740,10 +10374,10 @@
       </c>
       <c r="D12" s="9">
         <f>Orders!F12-Collection!H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -9770,10 +10404,10 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" spans="1:4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
@@ -9785,7 +10419,7 @@
       </c>
       <c r="D15" s="9">
         <f>Orders!F15-Collection!H15</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9800,7 +10434,7 @@
       </c>
       <c r="D16" s="9">
         <f>Orders!F16-Collection!H16</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9833,7 +10467,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -9863,7 +10497,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
@@ -9875,7 +10509,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9893,7 +10527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
@@ -9905,10 +10539,10 @@
       </c>
       <c r="D23" s="9">
         <f>Orders!F23-Collection!H23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -9923,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
@@ -9935,10 +10569,10 @@
       </c>
       <c r="D25" s="9">
         <f>Orders!F25-Collection!H25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
@@ -9980,10 +10614,10 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
@@ -9995,10 +10629,10 @@
       </c>
       <c r="D29" s="9">
         <f>Orders!F29-Collection!H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:4">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -10010,10 +10644,10 @@
       </c>
       <c r="D30" s="9">
         <f>Orders!F30-Collection!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -10040,10 +10674,10 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:4">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
@@ -10070,10 +10704,10 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:4">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>51</v>
       </c>
@@ -10085,10 +10719,10 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>51</v>
       </c>
@@ -10103,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
@@ -10115,10 +10749,10 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>51</v>
       </c>
@@ -10143,10 +10777,10 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -10161,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
@@ -10188,7 +10822,7 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -10203,10 +10837,10 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -10234,7 +10868,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
         <v>64</v>
       </c>
@@ -10261,10 +10895,10 @@
       </c>
       <c r="D47" s="9">
         <f>Orders!F47-Collection!H47</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="7" t="s">
         <v>64</v>
       </c>
@@ -10274,7 +10908,7 @@
       </c>
       <c r="D48" s="9">
         <f>Orders!F48-Collection!H48</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -10289,7 +10923,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10304,10 +10938,10 @@
       </c>
       <c r="D50" s="9">
         <f>Orders!F50-Collection!H50</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -10319,10 +10953,10 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
@@ -10347,7 +10981,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -10365,7 +10999,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="7" t="s">
         <v>64</v>
       </c>
@@ -10393,7 +11027,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="7" t="s">
         <v>64</v>
       </c>
@@ -10408,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>77</v>
       </c>
@@ -10420,7 +11054,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -10435,10 +11069,10 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="7" t="s">
         <v>77</v>
       </c>
@@ -10453,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="7" t="s">
         <v>77</v>
       </c>
@@ -10498,7 +11132,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="7" t="s">
         <v>82</v>
       </c>
@@ -10513,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="7" t="s">
         <v>87</v>
       </c>
@@ -10525,7 +11159,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -10555,7 +11189,7 @@
       </c>
       <c r="D67" s="9">
         <f>Orders!F67-Collection!H67</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -10570,10 +11204,10 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="1:4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
@@ -10588,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="7" t="s">
         <v>92</v>
       </c>
@@ -10600,7 +11234,7 @@
       </c>
       <c r="D70" s="9">
         <f>Orders!F70-Collection!H70</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -10615,10 +11249,10 @@
       </c>
       <c r="D71" s="9">
         <f>Orders!F71-Collection!H71</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="72" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="7" t="s">
         <v>92</v>
       </c>
@@ -10630,10 +11264,10 @@
       </c>
       <c r="D72" s="9">
         <f>Orders!F72-Collection!H72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" spans="1:4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="7" t="s">
         <v>92</v>
       </c>
@@ -10645,10 +11279,10 @@
       </c>
       <c r="D73" s="9">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
         <v>92</v>
       </c>
@@ -10663,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="7" t="s">
         <v>92</v>
       </c>
@@ -10678,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" s="7" t="s">
         <v>92</v>
       </c>
@@ -10705,10 +11339,10 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="1:4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="7" t="s">
         <v>102</v>
       </c>
@@ -10738,7 +11372,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8" t="s">
@@ -10746,10 +11380,10 @@
       </c>
       <c r="D80" s="9">
         <f>Orders!F80-Collection!H80</f>
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="1:4">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="7" t="s">
         <v>107</v>
       </c>
@@ -10764,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8" t="s">
@@ -10775,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="7" t="s">
         <v>110</v>
       </c>
@@ -10790,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8" t="s">
@@ -10813,10 +11447,10 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="1:4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="7" t="s">
         <v>113</v>
       </c>
@@ -10831,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="7" t="s">
         <v>113</v>
       </c>
@@ -10858,10 +11492,10 @@
       </c>
       <c r="D88" s="9">
         <f>Orders!F88-Collection!H88</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8" t="s">
@@ -10872,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8" t="s">
@@ -10883,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8" t="s">
@@ -10904,10 +11538,10 @@
       </c>
       <c r="D92" s="9">
         <f>Orders!F92-Collection!H92</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8" t="s">
@@ -10931,7 +11565,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8" t="s">
@@ -10942,7 +11576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
@@ -10955,23 +11589,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="500"/>
-        <filter val="1000"/>
-        <filter val="1100"/>
-        <filter val="2000"/>
-        <filter val="2300"/>
-        <filter val="2500"/>
-        <filter val="3000"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="7000"/>
-        <filter val="15000"/>
-        <filter val="24000"/>
-        <filter val="202400"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Recharge/March2021Recharge.xlsx
+++ b/Recharge/March2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -251,6 +251,29 @@
           <t xml:space="preserve">
 1040-Auto
 1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Manual
+1040-Manual</t>
         </r>
       </text>
     </comment>
@@ -608,6 +631,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3000-Digital
+1000-Cash</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M72" authorId="0">
       <text>
         <r>
@@ -655,6 +701,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="AM77" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+700-Cash
+1100-Digital</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ92" authorId="0">
       <text>
         <r>
@@ -1249,10 +1318,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1271,6 +1340,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1279,15 +1356,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,22 +1423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1338,58 +1447,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1400,8 +1461,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,7 +1478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,7 +1570,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,25 +1636,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,7 +1696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,19 +1726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,109 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,31 +1782,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1759,16 +1830,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,19 +1862,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1830,130 +1899,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2419,11 +2488,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AJ27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM28" sqref="AM28"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2567,22 +2636,22 @@
       <c r="A2" s="13"/>
       <c r="B2" s="27">
         <f>SUM(F3:F121)</f>
-        <v>1409400</v>
+        <v>1465400</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(G3:G121)</f>
-        <v>1284920</v>
+        <v>1343160</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="28">
         <f>G2/1.04+H2</f>
-        <v>1409400</v>
+        <v>1465400</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" ref="G2:G65" si="0">SUM(I2:AM2)</f>
-        <v>1284920</v>
+        <v>1343160</v>
       </c>
       <c r="H2" s="29">
         <f t="shared" ref="H2:AM2" si="1">SUM(H3:H121)</f>
@@ -2706,11 +2775,11 @@
       </c>
       <c r="AL2" s="11">
         <f t="shared" si="1"/>
-        <v>3120</v>
+        <v>20800</v>
       </c>
       <c r="AM2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40560</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:36">
@@ -2824,7 +2893,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:34">
+    <row r="6" s="10" customFormat="1" spans="1:38">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2839,11 +2908,11 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="2"/>
-        <v>25500</v>
+        <v>30500</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="0"/>
-        <v>26520</v>
+        <v>31720</v>
       </c>
       <c r="H6" s="30">
         <v>0</v>
@@ -2866,8 +2935,11 @@
       <c r="AH6" s="10">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:37">
+      <c r="AL6" s="10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:39">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2882,11 +2954,11 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="2"/>
-        <v>74000</v>
+        <v>78000</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>64480</v>
+        <v>68640</v>
       </c>
       <c r="H7" s="30">
         <v>12000</v>
@@ -2963,8 +3035,14 @@
       <c r="AK7" s="10">
         <v>4160</v>
       </c>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:34">
+      <c r="AL7" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:39">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2979,11 +3057,11 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H8" s="30">
         <v>0</v>
@@ -3001,6 +3079,9 @@
         <v>2080</v>
       </c>
       <c r="AH8" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AM8" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -3164,7 +3245,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" spans="1:32">
+    <row r="13" s="10" customFormat="1" spans="1:39">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -3176,11 +3257,11 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="0"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H13" s="30">
         <v>0</v>
@@ -3201,6 +3282,9 @@
         <v>5200</v>
       </c>
       <c r="AF13" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AM13" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -3453,7 +3537,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="20" s="10" customFormat="1" spans="1:33">
+    <row r="20" s="10" customFormat="1" spans="1:39">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -3465,11 +3549,11 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>28080</v>
       </c>
       <c r="H20" s="30">
         <v>5000</v>
@@ -3488,6 +3572,9 @@
       </c>
       <c r="AG20" s="10">
         <v>5200</v>
+      </c>
+      <c r="AM20" s="37">
+        <v>2080</v>
       </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:36">
@@ -4022,7 +4109,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:36">
+    <row r="34" s="10" customFormat="1" spans="1:39">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -4034,11 +4121,11 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="3"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="0"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H34" s="30">
         <v>2000</v>
@@ -4074,6 +4161,12 @@
         <v>1040</v>
       </c>
       <c r="AJ34" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AM34" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -4355,7 +4448,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:33">
+    <row r="43" s="10" customFormat="1" spans="1:39">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -4367,11 +4460,11 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="3"/>
-        <v>39000</v>
+        <v>43000</v>
       </c>
       <c r="G43" s="11">
         <f t="shared" si="0"/>
-        <v>37440</v>
+        <v>41600</v>
       </c>
       <c r="H43" s="30">
         <v>3000</v>
@@ -4410,6 +4503,12 @@
         <v>3120</v>
       </c>
       <c r="AG43" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AL43" s="37">
+        <v>1040</v>
+      </c>
+      <c r="AM43" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4438,7 +4537,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="1" spans="1:37">
+    <row r="45" s="10" customFormat="1" spans="1:39">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -4450,11 +4549,11 @@
       </c>
       <c r="F45" s="11">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="0"/>
-        <v>28080</v>
+        <v>31200</v>
       </c>
       <c r="H45" s="30">
         <v>0</v>
@@ -4484,6 +4583,9 @@
         <v>3120</v>
       </c>
       <c r="AK45" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AM45" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4527,7 +4629,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:37">
+    <row r="47" s="10" customFormat="1" spans="1:39">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -4539,11 +4641,11 @@
       </c>
       <c r="F47" s="11">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="0"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H47" s="30">
         <v>0</v>
@@ -4561,6 +4663,9 @@
         <v>3120</v>
       </c>
       <c r="AK47" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AM47" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -4595,7 +4700,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" spans="1:34">
+    <row r="49" s="10" customFormat="1" spans="1:39">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -4607,11 +4712,11 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="3"/>
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="0"/>
-        <v>37440</v>
+        <v>38480</v>
       </c>
       <c r="H49" s="30">
         <v>6000</v>
@@ -4652,8 +4757,11 @@
       <c r="AH49" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:33">
+      <c r="AM49" s="37">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:38">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -4665,11 +4773,11 @@
       </c>
       <c r="F50" s="11">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="0"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H50" s="30">
         <v>6000</v>
@@ -4695,8 +4803,11 @@
       <c r="AG50" s="10">
         <v>3120</v>
       </c>
-    </row>
-    <row r="51" s="10" customFormat="1" spans="1:35">
+      <c r="AL50" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" spans="1:38">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -4708,11 +4819,11 @@
       </c>
       <c r="F51" s="11">
         <f t="shared" si="3"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H51" s="30">
         <v>2000</v>
@@ -4721,6 +4832,9 @@
         <v>2080</v>
       </c>
       <c r="AI51" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AL51" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -4746,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:34">
+    <row r="53" s="10" customFormat="1" spans="1:39">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -4758,11 +4872,11 @@
       </c>
       <c r="F53" s="11">
         <f t="shared" si="3"/>
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="0"/>
-        <v>18720</v>
+        <v>20800</v>
       </c>
       <c r="H53" s="30">
         <v>1000</v>
@@ -4817,6 +4931,9 @@
       </c>
       <c r="AH53" s="10">
         <v>1040</v>
+      </c>
+      <c r="AM53" s="37">
+        <v>2080</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="1" spans="1:36">
@@ -4894,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" spans="1:33">
+    <row r="56" s="10" customFormat="1" spans="1:39">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -4907,11 +5024,11 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H56" s="30">
         <v>1000</v>
@@ -4932,6 +5049,9 @@
         <v>1040</v>
       </c>
       <c r="AG56" s="10">
+        <v>1040</v>
+      </c>
+      <c r="AM56" s="37">
         <v>1040</v>
       </c>
     </row>
@@ -4958,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:36">
+    <row r="58" s="10" customFormat="1" spans="1:38">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -4970,11 +5090,11 @@
       </c>
       <c r="F58" s="11">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G58" s="11">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>16640</v>
       </c>
       <c r="H58" s="30">
         <v>0</v>
@@ -4998,6 +5118,9 @@
         <v>2080</v>
       </c>
       <c r="AJ58" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AL58" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -5317,7 +5440,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:35">
+    <row r="68" s="10" customFormat="1" spans="1:39">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -5329,11 +5452,11 @@
       </c>
       <c r="F68" s="11">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="G68" s="11">
         <f t="shared" si="4"/>
-        <v>12480</v>
+        <v>14560</v>
       </c>
       <c r="H68" s="30">
         <v>2000</v>
@@ -5356,8 +5479,11 @@
       <c r="AI68" s="37">
         <v>2080</v>
       </c>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:33">
+      <c r="AM68" s="37">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:39">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -5369,11 +5495,11 @@
       </c>
       <c r="F69" s="11">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="G69" s="11">
         <f t="shared" si="4"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H69" s="30">
         <v>0</v>
@@ -5388,6 +5514,9 @@
         <v>2080</v>
       </c>
       <c r="AG69" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AM69" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -5456,7 +5585,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="1" spans="1:36">
+    <row r="72" s="10" customFormat="1" spans="1:39">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -5468,11 +5597,11 @@
       </c>
       <c r="F72" s="11">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G72" s="11">
         <f t="shared" si="4"/>
-        <v>52000</v>
+        <v>57200</v>
       </c>
       <c r="H72" s="30">
         <v>0</v>
@@ -5505,6 +5634,9 @@
         <v>5200</v>
       </c>
       <c r="AJ72" s="10">
+        <v>5200</v>
+      </c>
+      <c r="AM72" s="10">
         <v>5200</v>
       </c>
     </row>
@@ -5713,7 +5845,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="78" s="10" customFormat="1" spans="1:34">
+    <row r="78" s="10" customFormat="1" spans="1:39">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -5725,11 +5857,11 @@
       </c>
       <c r="F78" s="11">
         <f t="shared" si="3"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G78" s="11">
         <f t="shared" si="4"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H78" s="30">
         <v>3000</v>
@@ -5756,6 +5888,9 @@
         <v>3120</v>
       </c>
       <c r="AH78" s="10">
+        <v>3120</v>
+      </c>
+      <c r="AM78" s="10">
         <v>3120</v>
       </c>
     </row>
@@ -5969,7 +6104,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
     </row>
-    <row r="85" s="10" customFormat="1" spans="1:34">
+    <row r="85" s="10" customFormat="1" spans="1:39">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -5982,11 +6117,11 @@
       </c>
       <c r="F85" s="11">
         <f t="shared" si="5"/>
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="G85" s="11">
         <f t="shared" si="4"/>
-        <v>31200</v>
+        <v>33280</v>
       </c>
       <c r="H85" s="30">
         <v>0</v>
@@ -6008,6 +6143,9 @@
       </c>
       <c r="AH85" s="10">
         <v>5200</v>
+      </c>
+      <c r="AM85" s="37">
+        <v>2080</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:29">
@@ -6129,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" s="10" customFormat="1" spans="1:33">
+    <row r="90" s="10" customFormat="1" spans="1:38">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -6139,11 +6277,11 @@
       </c>
       <c r="F90" s="11">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G90" s="11">
         <f t="shared" si="4"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H90" s="30">
         <v>0</v>
@@ -6162,6 +6300,9 @@
       <c r="R90" s="33"/>
       <c r="S90" s="35"/>
       <c r="AG90" s="37">
+        <v>1040</v>
+      </c>
+      <c r="AL90" s="37">
         <v>1040</v>
       </c>
     </row>
@@ -6383,12 +6524,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AH42" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="AM58" sqref="AM58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6535,14 +6676,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>1192500</v>
+        <v>1290300</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="16">
         <f t="shared" ref="H2:H65" si="0">SUM(I2:AM2)</f>
-        <v>1192500</v>
+        <v>1290300</v>
       </c>
       <c r="I2" s="11">
         <f t="shared" ref="I2:AJ2" si="1">SUM(I3:I121)</f>
@@ -6662,11 +6803,11 @@
       </c>
       <c r="AL2" s="11">
         <f>SUM(AL3:AL121)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="AM2" s="11">
         <f>SUM(AM3:AM121)</f>
-        <v>0</v>
+        <v>92800</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="1" spans="1:37">
@@ -6795,7 +6936,7 @@
       <c r="AB5" s="21"/>
       <c r="AK5"/>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:37">
+    <row r="6" s="10" customFormat="1" spans="1:39">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -6819,7 +6960,7 @@
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="L6" s="19">
         <v>3000</v>
@@ -6853,6 +6994,9 @@
         <v>2000</v>
       </c>
       <c r="AK6"/>
+      <c r="AM6" s="19">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:37">
       <c r="A7" s="10">
@@ -7147,7 +7291,7 @@
       </c>
       <c r="AK13"/>
     </row>
-    <row r="14" s="10" customFormat="1" spans="1:37">
+    <row r="14" s="10" customFormat="1" spans="1:39">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -7171,7 +7315,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>53000</v>
       </c>
       <c r="I14" s="19">
         <v>5000</v>
@@ -7219,6 +7363,9 @@
         <v>4500</v>
       </c>
       <c r="AK14"/>
+      <c r="AM14" s="19">
+        <v>2000</v>
+      </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:37">
       <c r="A15" s="10">
@@ -7443,7 +7590,7 @@
       </c>
       <c r="AK20"/>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:37">
+    <row r="21" s="10" customFormat="1" spans="1:39">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -7467,7 +7614,7 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="K21" s="10">
         <v>2000</v>
@@ -7491,6 +7638,9 @@
         <v>2000</v>
       </c>
       <c r="AK21"/>
+      <c r="AM21" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:37">
       <c r="A22" s="10">
@@ -7761,7 +7911,7 @@
       </c>
       <c r="AK27"/>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:37">
+    <row r="28" s="10" customFormat="1" spans="1:39">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -7782,7 +7932,7 @@
       </c>
       <c r="H28" s="11">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="K28" s="10">
         <v>1000</v>
@@ -7816,6 +7966,9 @@
         <v>500</v>
       </c>
       <c r="AK28"/>
+      <c r="AM28" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="29" s="10" customFormat="1" spans="1:37">
       <c r="A29" s="10">
@@ -7852,7 +8005,7 @@
       </c>
       <c r="AK29"/>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:37">
+    <row r="30" s="10" customFormat="1" spans="1:39">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -7870,7 +8023,7 @@
       </c>
       <c r="H30" s="11">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="I30" s="10">
         <v>1000</v>
@@ -7891,6 +8044,9 @@
         <v>2000</v>
       </c>
       <c r="AK30"/>
+      <c r="AM30" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:37">
       <c r="A31" s="10">
@@ -7930,7 +8086,7 @@
       </c>
       <c r="AK31"/>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:37">
+    <row r="32" s="10" customFormat="1" spans="1:39">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -7951,7 +8107,7 @@
       </c>
       <c r="H32" s="11">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L32" s="19">
         <v>6000</v>
@@ -7970,6 +8126,9 @@
       </c>
       <c r="AB32" s="21"/>
       <c r="AK32"/>
+      <c r="AM32" s="10">
+        <v>10000</v>
+      </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:37">
       <c r="A33" s="10">
@@ -8080,7 +8239,7 @@
       </c>
       <c r="AK34"/>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:37">
+    <row r="35" s="10" customFormat="1" spans="1:39">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -8095,7 +8254,7 @@
       </c>
       <c r="H35" s="11">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="I35" s="10">
         <v>1000</v>
@@ -8120,6 +8279,9 @@
         <v>500</v>
       </c>
       <c r="AK35"/>
+      <c r="AM35" s="10">
+        <v>500</v>
+      </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:37">
       <c r="A36" s="10">
@@ -8147,7 +8309,7 @@
       <c r="AB36" s="21"/>
       <c r="AK36"/>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:37">
+    <row r="37" s="10" customFormat="1" spans="1:39">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -8162,7 +8324,7 @@
       </c>
       <c r="H37" s="11">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="K37" s="19">
         <v>6000</v>
@@ -8187,6 +8349,9 @@
         <v>3000</v>
       </c>
       <c r="AK37"/>
+      <c r="AM37" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="38" s="10" customFormat="1" spans="1:37">
       <c r="A38" s="10">
@@ -8357,7 +8522,7 @@
       </c>
       <c r="AK42"/>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:37">
+    <row r="43" s="10" customFormat="1" spans="1:39">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -8375,7 +8540,7 @@
       </c>
       <c r="H43" s="11">
         <f t="shared" si="0"/>
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="I43" s="10">
         <v>3000</v>
@@ -8420,6 +8585,9 @@
         <v>2000</v>
       </c>
       <c r="AK43"/>
+      <c r="AM43" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:37">
       <c r="A44" s="10">
@@ -8535,7 +8703,7 @@
       </c>
       <c r="AK46"/>
     </row>
-    <row r="47" s="10" customFormat="1" spans="1:37">
+    <row r="47" s="10" customFormat="1" spans="1:39">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -8550,7 +8718,7 @@
       </c>
       <c r="H47" s="11">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M47" s="10">
         <v>3000</v>
@@ -8569,8 +8737,11 @@
         <v>1000</v>
       </c>
       <c r="AK47"/>
-    </row>
-    <row r="48" s="10" customFormat="1" spans="1:37">
+      <c r="AM47" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:39">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -8594,7 +8765,7 @@
       </c>
       <c r="H48" s="11">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M48" s="19">
         <v>2000</v>
@@ -8604,8 +8775,11 @@
       </c>
       <c r="AB48" s="21"/>
       <c r="AK48"/>
-    </row>
-    <row r="49" s="10" customFormat="1" spans="1:37">
+      <c r="AM48" s="19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:39">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -8629,7 +8803,7 @@
       </c>
       <c r="H49" s="11">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="K49" s="10">
         <v>6000</v>
@@ -8654,8 +8828,14 @@
         <v>6000</v>
       </c>
       <c r="AK49"/>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:37">
+      <c r="AL49" s="19">
+        <v>4000</v>
+      </c>
+      <c r="AM49" s="19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:39">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -8679,7 +8859,7 @@
       </c>
       <c r="H50" s="11">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="K50" s="19">
         <v>6000</v>
@@ -8701,8 +8881,11 @@
         <v>6000</v>
       </c>
       <c r="AK50"/>
-    </row>
-    <row r="51" s="10" customFormat="1" spans="1:37">
+      <c r="AM50" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" spans="1:39">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -8723,7 +8906,7 @@
       </c>
       <c r="H51" s="11">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="K51" s="10">
         <v>2000</v>
@@ -8733,6 +8916,9 @@
       </c>
       <c r="AB51" s="21"/>
       <c r="AK51"/>
+      <c r="AM51" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="52" s="10" customFormat="1" spans="1:37">
       <c r="A52" s="10">
@@ -8754,7 +8940,7 @@
       <c r="AB52" s="21"/>
       <c r="AK52"/>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:37">
+    <row r="53" s="10" customFormat="1" spans="1:39">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -8775,7 +8961,7 @@
       </c>
       <c r="H53" s="11">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="K53" s="10">
         <v>3000</v>
@@ -8800,6 +8986,9 @@
         <v>2000</v>
       </c>
       <c r="AK53"/>
+      <c r="AM53" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="54" s="10" customFormat="1" spans="1:37">
       <c r="A54" s="10">
@@ -8862,7 +9051,7 @@
       <c r="AB55" s="21"/>
       <c r="AK55"/>
     </row>
-    <row r="56" s="10" customFormat="1" spans="1:37">
+    <row r="56" s="10" customFormat="1" spans="1:39">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -8883,7 +9072,7 @@
       </c>
       <c r="H56" s="11">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q56" s="19">
         <v>2000</v>
@@ -8893,6 +9082,9 @@
       </c>
       <c r="AB56" s="21"/>
       <c r="AK56"/>
+      <c r="AM56" s="19">
+        <v>3000</v>
+      </c>
     </row>
     <row r="57" s="10" customFormat="1" spans="1:37">
       <c r="A57" s="10">
@@ -8917,7 +9109,7 @@
       <c r="AB57" s="21"/>
       <c r="AK57"/>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:37">
+    <row r="58" s="10" customFormat="1" spans="1:39">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -8935,7 +9127,7 @@
       </c>
       <c r="H58" s="11">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q58" s="10">
         <v>4000</v>
@@ -8950,8 +9142,11 @@
         <v>2000</v>
       </c>
       <c r="AK58"/>
-    </row>
-    <row r="59" s="10" customFormat="1" spans="1:37">
+      <c r="AM58" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:39">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -8972,7 +9167,7 @@
       </c>
       <c r="H59" s="11">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="O59" s="19">
         <v>10000</v>
@@ -8985,6 +9180,9 @@
         <v>10000</v>
       </c>
       <c r="AK59"/>
+      <c r="AM59" s="10">
+        <v>10000</v>
+      </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:37">
       <c r="A60" s="10">
@@ -9017,7 +9215,7 @@
       </c>
       <c r="AK60"/>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:37">
+    <row r="61" s="10" customFormat="1" spans="1:39">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -9035,7 +9233,7 @@
       </c>
       <c r="H61" s="11">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P61" s="10">
         <v>1000</v>
@@ -9051,8 +9249,11 @@
         <v>2000</v>
       </c>
       <c r="AK61"/>
-    </row>
-    <row r="62" s="10" customFormat="1" spans="1:37">
+      <c r="AM61" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="1" spans="1:39">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -9076,7 +9277,7 @@
       </c>
       <c r="H62" s="11">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N62" s="10">
         <v>10000</v>
@@ -9092,6 +9293,9 @@
         <v>5000</v>
       </c>
       <c r="AK62"/>
+      <c r="AM62" s="19">
+        <v>5000</v>
+      </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:37">
       <c r="A63" s="10">
@@ -9257,7 +9461,7 @@
       </c>
       <c r="AK67"/>
     </row>
-    <row r="68" s="10" customFormat="1" spans="1:37">
+    <row r="68" s="10" customFormat="1" spans="1:39">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -9272,7 +9476,7 @@
       </c>
       <c r="H68" s="11">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M68" s="10">
         <v>6000</v>
@@ -9282,8 +9486,11 @@
       </c>
       <c r="AB68" s="21"/>
       <c r="AK68"/>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:37">
+      <c r="AM68" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:39">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -9298,7 +9505,7 @@
       </c>
       <c r="H69" s="11">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="M69" s="10">
         <v>2000</v>
@@ -9314,8 +9521,11 @@
         <v>2000</v>
       </c>
       <c r="AK69"/>
-    </row>
-    <row r="70" s="10" customFormat="1" spans="1:37">
+      <c r="AM69" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="1" spans="1:39">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -9333,7 +9543,7 @@
       </c>
       <c r="H70" s="11">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="X70" s="10">
         <v>2000</v>
@@ -9343,6 +9553,9 @@
         <v>1000</v>
       </c>
       <c r="AK70"/>
+      <c r="AM70" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:37">
       <c r="A71" s="10">
@@ -9376,7 +9589,7 @@
       </c>
       <c r="AK71"/>
     </row>
-    <row r="72" s="10" customFormat="1" spans="1:37">
+    <row r="72" s="10" customFormat="1" spans="1:39">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -9391,7 +9604,7 @@
       </c>
       <c r="H72" s="11">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="M72" s="19">
         <v>10000</v>
@@ -9416,6 +9629,9 @@
         <v>5000</v>
       </c>
       <c r="AK72"/>
+      <c r="AM72" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:37">
       <c r="A73" s="10">
@@ -9554,7 +9770,7 @@
       <c r="AB76" s="21"/>
       <c r="AK76"/>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:37">
+    <row r="77" s="10" customFormat="1" spans="1:39">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -9578,7 +9794,7 @@
       </c>
       <c r="H77" s="11">
         <f t="shared" si="2"/>
-        <v>14500</v>
+        <v>16300</v>
       </c>
       <c r="L77" s="10">
         <v>2000</v>
@@ -9617,6 +9833,9 @@
         <v>2000</v>
       </c>
       <c r="AK77"/>
+      <c r="AM77" s="19">
+        <v>1800</v>
+      </c>
     </row>
     <row r="78" s="10" customFormat="1" spans="1:37">
       <c r="A78" s="10">
@@ -9830,7 +10049,7 @@
       <c r="AB84" s="21"/>
       <c r="AK84"/>
     </row>
-    <row r="85" s="10" customFormat="1" spans="1:37">
+    <row r="85" s="10" customFormat="1" spans="1:39">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -9851,7 +10070,7 @@
       </c>
       <c r="H85" s="11">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M85" s="19">
         <v>10000</v>
@@ -9861,6 +10080,9 @@
       </c>
       <c r="AB85" s="21"/>
       <c r="AK85"/>
+      <c r="AM85" s="10">
+        <v>12000</v>
+      </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:37">
       <c r="A86" s="10">
@@ -9975,7 +10197,7 @@
       <c r="AB89" s="21"/>
       <c r="AK89"/>
     </row>
-    <row r="90" s="10" customFormat="1" spans="1:37">
+    <row r="90" s="10" customFormat="1" spans="1:38">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -9993,7 +10215,7 @@
       </c>
       <c r="H90" s="11">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M90" s="19">
         <v>1000</v>
@@ -10003,6 +10225,9 @@
         <v>1000</v>
       </c>
       <c r="AK90"/>
+      <c r="AL90" s="19">
+        <v>1000</v>
+      </c>
     </row>
     <row r="91" s="10" customFormat="1" spans="1:37">
       <c r="A91" s="10">
@@ -10187,8 +10412,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -10224,7 +10449,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>216900</v>
+        <v>175100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10284,7 +10509,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10299,7 +10524,7 @@
       </c>
       <c r="D7" s="9">
         <f>Orders!F7-Collection!H7</f>
-        <v>15000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10314,7 +10539,7 @@
       </c>
       <c r="D8" s="9">
         <f>Orders!F8-Collection!H8</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10389,7 +10614,7 @@
       </c>
       <c r="D13" s="9">
         <f>Orders!F13-Collection!H13</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10404,7 +10629,7 @@
       </c>
       <c r="D14" s="9">
         <f>Orders!F14-Collection!H14</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10494,7 +10719,7 @@
       </c>
       <c r="D20" s="9">
         <f>Orders!F20-Collection!H20</f>
-        <v>5000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10509,7 +10734,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10614,7 +10839,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10644,7 +10869,7 @@
       </c>
       <c r="D30" s="9">
         <f>Orders!F30-Collection!H30</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -10674,7 +10899,7 @@
       </c>
       <c r="D32" s="9">
         <f>Orders!F32-Collection!H32</f>
-        <v>21000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10704,7 +10929,7 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>-1000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10719,7 +10944,7 @@
       </c>
       <c r="D35" s="9">
         <f>Orders!F35-Collection!H35</f>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10749,7 +10974,7 @@
       </c>
       <c r="D37" s="9">
         <f>Orders!F37-Collection!H37</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -10837,7 +11062,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -10865,7 +11090,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -10908,7 +11133,7 @@
       </c>
       <c r="D48" s="9">
         <f>Orders!F48-Collection!H48</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -10923,7 +11148,7 @@
       </c>
       <c r="D49" s="9">
         <f>Orders!F49-Collection!H49</f>
-        <v>8000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -10953,7 +11178,7 @@
       </c>
       <c r="D51" s="9">
         <f>Orders!F51-Collection!H51</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -10981,7 +11206,7 @@
       </c>
       <c r="D53" s="9">
         <f>Orders!F53-Collection!H53</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -11024,7 +11249,7 @@
       </c>
       <c r="D56" s="9">
         <f>Orders!F56-Collection!H56</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -11054,7 +11279,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -11069,7 +11294,7 @@
       </c>
       <c r="D59" s="9">
         <f>Orders!F59-Collection!H59</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -11099,7 +11324,7 @@
       </c>
       <c r="D61" s="9">
         <f>Orders!F61-Collection!H61</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -11114,7 +11339,7 @@
       </c>
       <c r="D62" s="9">
         <f>Orders!F62-Collection!H62</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -11204,7 +11429,7 @@
       </c>
       <c r="D68" s="9">
         <f>Orders!F68-Collection!H68</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -11219,7 +11444,7 @@
       </c>
       <c r="D69" s="9">
         <f>Orders!F69-Collection!H69</f>
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -11234,7 +11459,7 @@
       </c>
       <c r="D70" s="9">
         <f>Orders!F70-Collection!H70</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -11339,7 +11564,7 @@
       </c>
       <c r="D77" s="9">
         <f>Orders!F77-Collection!H77</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -11354,7 +11579,7 @@
       </c>
       <c r="D78" s="9">
         <f>Orders!F78-Collection!H78</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -11447,7 +11672,7 @@
       </c>
       <c r="D85" s="9">
         <f>Orders!F85-Collection!H85</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
